--- a/src/main/resources/templates/FINDich.xlsx
+++ b/src/main/resources/templates/FINDich.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koko/IdeaProjects/FinanceProjects/stock-financial-report-analyzer/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D76D3E1-2509-6A46-BD6D-828479D3C578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0204853E-0AC8-A840-B043-B40B92337A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="1" r:id="rId1"/>
@@ -3039,8 +3039,8 @@
   </sheetPr>
   <dimension ref="B2:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5280,7 +5280,7 @@
   <dimension ref="A1:AB89"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5317,7 +5317,7 @@
     <row r="2" spans="1:24" ht="21">
       <c r="A2" s="8"/>
       <c r="B2" s="198" t="str">
-        <f>CONCATENATE(INFO!C3, " ", "DCF")</f>
+        <f>CONCATENATE(INFO!C4, " ", "DCF")</f>
         <v xml:space="preserve"> DCF</v>
       </c>
       <c r="C2" s="199"/>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="C5" s="13">
         <f ca="1">TODAY()</f>
-        <v>45318</v>
+        <v>45319</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="192" t="s">
@@ -10043,8 +10043,8 @@
   </sheetPr>
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -10068,7 +10068,7 @@
     <row r="2" spans="1:26" ht="21">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="str">
-        <f>CONCATENATE("WACC of ", INFO!C3)</f>
+        <f>CONCATENATE("WACC of ", INFO!C4)</f>
         <v xml:space="preserve">WACC of </v>
       </c>
       <c r="C2" s="8"/>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="67">
-        <f>IS!$M$35/1000000</f>
+        <f>BS!$M$35/1000000</f>
         <v>0</v>
       </c>
       <c r="E8" s="1"/>
@@ -10323,7 +10323,7 @@
       </c>
       <c r="C16" s="193"/>
       <c r="D16" s="74">
-        <f>INFO!C18</f>
+        <f>INFO!C18 / 100</f>
         <v>0</v>
       </c>
       <c r="E16" s="1"/>
@@ -10482,7 +10482,7 @@
   <dimension ref="A2:AC91"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -14573,7 +14573,7 @@
       </c>
       <c r="C5" s="13">
         <f ca="1">TODAY()</f>
-        <v>45318</v>
+        <v>45319</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="192" t="s">

--- a/src/main/resources/templates/FINDich.xlsx
+++ b/src/main/resources/templates/FINDich.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koko/IdeaProjects/FinanceProjects/stock-financial-report-analyzer/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0204853E-0AC8-A840-B043-B40B92337A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D54E391-3DDC-954F-A88C-B04D4447ED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="76680" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="IS" sheetId="9" r:id="rId7"/>
     <sheet name="BS" sheetId="10" r:id="rId8"/>
     <sheet name="CF" sheetId="11" r:id="rId9"/>
-    <sheet name="RATIOS" sheetId="12" r:id="rId10"/>
+    <sheet name="RESEARCH" sheetId="13" r:id="rId10"/>
+    <sheet name="RATIOS" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="477">
   <si>
     <t>Ticker</t>
   </si>
@@ -1370,13 +1371,124 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Earnings Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Year Ago EPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  High Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Low Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Avg. Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  No. of Analysts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Revenue Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Year Ago Sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sales Growth (year/est)</t>
+  </si>
+  <si>
+    <t>Growth Estimates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Current Qtr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Next Qtr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Current Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Next Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Next 5 Years (per annum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Past 5 Years (per annum)</t>
+  </si>
+  <si>
+    <t>Earnings History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  EPS Estimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  EPS Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Surprise (%)</t>
+  </si>
+  <si>
+    <t>EPS Revisions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Up Last 7 Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Up Last 30 Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Down Last 7 Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Down Last 30 Days</t>
+  </si>
+  <si>
+    <t>EPS Trend</t>
+  </si>
+  <si>
+    <t>Current Quarter</t>
+  </si>
+  <si>
+    <t>Next Quarter</t>
+  </si>
+  <si>
+    <t>Current Year</t>
+  </si>
+  <si>
+    <t>Next Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Current Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 Days Ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  30 Days Ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  60 Days Ago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  90 Days Ago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="[$$]#,##0.00"/>
@@ -1390,6 +1502,7 @@
     <numFmt numFmtId="174" formatCode="#,##0.0\x"/>
     <numFmt numFmtId="175" formatCode="#,##0.00\x"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.0#_);_(* \(#,##0.0#\)_)\ ;_(* 0_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="49">
     <font>
@@ -1800,7 +1913,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -2210,6 +2323,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2217,7 +2437,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2634,6 +2854,42 @@
     <xf numFmtId="170" fontId="43" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="48" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2645,6 +2901,9 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2682,20 +2941,55 @@
     <xf numFmtId="0" fontId="39" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="32" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2764,7 +3058,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC53929"/>
+        <color rgb="FF0B8043"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -2772,18 +3066,10 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF0B8043"/>
+        <color rgb="FFC53929"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -2803,8 +3089,16 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFC53929"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -2812,7 +3106,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC53929"/>
+        <color rgb="FF7030A0"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -3040,7 +3334,7 @@
   <dimension ref="B2:W41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3055,56 +3349,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="200" t="s">
         <v>431</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="190" t="s">
+      <c r="C2" s="201"/>
+      <c r="D2" s="202" t="s">
         <v>432</v>
       </c>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="191"/>
-      <c r="P2" s="191"/>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="191"/>
-      <c r="T2" s="191"/>
-      <c r="V2" s="188" t="s">
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="203"/>
+      <c r="V2" s="200" t="s">
         <v>433</v>
       </c>
-      <c r="W2" s="189"/>
+      <c r="W2" s="201"/>
     </row>
     <row r="3" spans="2:23" ht="15">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
-      <c r="K3" s="219"/>
-      <c r="L3" s="219"/>
-      <c r="M3" s="219"/>
-      <c r="N3" s="219"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="219"/>
-      <c r="T3" s="219"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
       <c r="V3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3116,24 +3410,24 @@
       <c r="B4" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C4" s="218"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="219"/>
-      <c r="K4" s="219"/>
-      <c r="L4" s="219"/>
-      <c r="M4" s="219"/>
-      <c r="N4" s="219"/>
-      <c r="O4" s="219"/>
-      <c r="P4" s="219"/>
-      <c r="Q4" s="219"/>
-      <c r="R4" s="219"/>
-      <c r="S4" s="219"/>
-      <c r="T4" s="219"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="204"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="204"/>
       <c r="V4" s="3"/>
       <c r="W4" s="4"/>
     </row>
@@ -3141,24 +3435,24 @@
       <c r="B5" s="155" t="s">
         <v>436</v>
       </c>
-      <c r="C5" s="218"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
-      <c r="I5" s="219"/>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="219"/>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="219"/>
-      <c r="S5" s="219"/>
-      <c r="T5" s="219"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="204"/>
+      <c r="O5" s="204"/>
+      <c r="P5" s="204"/>
+      <c r="Q5" s="204"/>
+      <c r="R5" s="204"/>
+      <c r="S5" s="204"/>
+      <c r="T5" s="204"/>
       <c r="V5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3170,24 +3464,24 @@
       <c r="B6" s="155" t="s">
         <v>424</v>
       </c>
-      <c r="C6" s="218"/>
-      <c r="D6" s="219"/>
-      <c r="E6" s="219"/>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="219"/>
-      <c r="J6" s="219"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="219"/>
-      <c r="M6" s="219"/>
-      <c r="N6" s="219"/>
-      <c r="O6" s="219"/>
-      <c r="P6" s="219"/>
-      <c r="Q6" s="219"/>
-      <c r="R6" s="219"/>
-      <c r="S6" s="219"/>
-      <c r="T6" s="219"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="204"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="204"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="204"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="204"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="204"/>
       <c r="V6" s="3" t="s">
         <v>180</v>
       </c>
@@ -3199,151 +3493,151 @@
       <c r="B7" s="155" t="s">
         <v>425</v>
       </c>
-      <c r="C7" s="218"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="219"/>
-      <c r="L7" s="219"/>
-      <c r="M7" s="219"/>
-      <c r="N7" s="219"/>
-      <c r="O7" s="219"/>
-      <c r="P7" s="219"/>
-      <c r="Q7" s="219"/>
-      <c r="R7" s="219"/>
-      <c r="S7" s="219"/>
-      <c r="T7" s="219"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
+      <c r="S7" s="204"/>
+      <c r="T7" s="204"/>
     </row>
     <row r="8" spans="2:23" ht="15">
       <c r="B8" s="155" t="s">
         <v>426</v>
       </c>
-      <c r="C8" s="218"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="219"/>
-      <c r="L8" s="219"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="219"/>
-      <c r="Q8" s="219"/>
-      <c r="R8" s="219"/>
-      <c r="S8" s="219"/>
-      <c r="T8" s="219"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="204"/>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="204"/>
+      <c r="S8" s="204"/>
+      <c r="T8" s="204"/>
     </row>
     <row r="9" spans="2:23" ht="15">
       <c r="B9" s="155" t="s">
         <v>427</v>
       </c>
-      <c r="C9" s="218"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="219"/>
-      <c r="J9" s="219"/>
-      <c r="K9" s="219"/>
-      <c r="L9" s="219"/>
-      <c r="M9" s="219"/>
-      <c r="N9" s="219"/>
-      <c r="O9" s="219"/>
-      <c r="P9" s="219"/>
-      <c r="Q9" s="219"/>
-      <c r="R9" s="219"/>
-      <c r="S9" s="219"/>
-      <c r="T9" s="219"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="204"/>
+      <c r="Q9" s="204"/>
+      <c r="R9" s="204"/>
+      <c r="S9" s="204"/>
+      <c r="T9" s="204"/>
     </row>
     <row r="10" spans="2:23" ht="15">
       <c r="B10" s="155" t="s">
         <v>428</v>
       </c>
-      <c r="C10" s="218"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="219"/>
-      <c r="N10" s="219"/>
-      <c r="O10" s="219"/>
-      <c r="P10" s="219"/>
-      <c r="Q10" s="219"/>
-      <c r="R10" s="219"/>
-      <c r="S10" s="219"/>
-      <c r="T10" s="219"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="204"/>
     </row>
     <row r="11" spans="2:23" ht="15">
       <c r="B11" s="155" t="s">
         <v>429</v>
       </c>
-      <c r="C11" s="218"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="219"/>
-      <c r="K11" s="219"/>
-      <c r="L11" s="219"/>
-      <c r="M11" s="219"/>
-      <c r="N11" s="219"/>
-      <c r="O11" s="219"/>
-      <c r="P11" s="219"/>
-      <c r="Q11" s="219"/>
-      <c r="R11" s="219"/>
-      <c r="S11" s="219"/>
-      <c r="T11" s="219"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="204"/>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="204"/>
+      <c r="S11" s="204"/>
+      <c r="T11" s="204"/>
     </row>
     <row r="12" spans="2:23" ht="15">
       <c r="B12" s="155" t="s">
         <v>430</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="219"/>
-      <c r="G12" s="219"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="219"/>
-      <c r="J12" s="219"/>
-      <c r="K12" s="219"/>
-      <c r="L12" s="219"/>
-      <c r="M12" s="219"/>
-      <c r="N12" s="219"/>
-      <c r="O12" s="219"/>
-      <c r="P12" s="219"/>
-      <c r="Q12" s="219"/>
-      <c r="R12" s="219"/>
-      <c r="S12" s="219"/>
-      <c r="T12" s="219"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="204"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
+      <c r="I12" s="204"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="204"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="204"/>
+      <c r="N12" s="204"/>
+      <c r="O12" s="204"/>
+      <c r="P12" s="204"/>
+      <c r="Q12" s="204"/>
+      <c r="R12" s="204"/>
+      <c r="S12" s="204"/>
+      <c r="T12" s="204"/>
     </row>
     <row r="13" spans="2:23" ht="13"/>
     <row r="14" spans="2:23" ht="15">
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="200" t="s">
         <v>435</v>
       </c>
-      <c r="C14" s="189"/>
-      <c r="E14" s="190" t="s">
+      <c r="C14" s="201"/>
+      <c r="E14" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="221"/>
-      <c r="G14" s="221"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
     </row>
     <row r="15" spans="2:23" ht="15">
       <c r="B15" s="155" t="s">
@@ -3372,7 +3666,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="15">
-      <c r="B17" s="220" t="s">
+      <c r="B17" s="155" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="2"/>
@@ -3387,7 +3681,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="15">
-      <c r="B18" s="220" t="s">
+      <c r="B18" s="155" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="2"/>
@@ -3400,7 +3694,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="15">
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="155" t="s">
         <v>437</v>
       </c>
       <c r="C19" s="2"/>
@@ -3416,7 +3710,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="15">
-      <c r="B20" s="220" t="s">
+      <c r="B20" s="155" t="s">
         <v>438</v>
       </c>
       <c r="C20" s="2"/>
@@ -3642,6 +3936,652 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A88C279-C091-A94C-B283-276290F6C98F}">
+  <dimension ref="A2:H49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="8" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="14" customHeight="1">
+      <c r="B2" s="227" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+    </row>
+    <row r="3" spans="2:8" ht="13" customHeight="1">
+      <c r="B3" s="237"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+    </row>
+    <row r="4" spans="2:8" ht="16" customHeight="1">
+      <c r="B4" s="191" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="239" t="s">
+        <v>468</v>
+      </c>
+      <c r="D4" s="240"/>
+      <c r="E4" s="239" t="s">
+        <v>469</v>
+      </c>
+      <c r="F4" s="240"/>
+      <c r="G4" s="196" t="s">
+        <v>470</v>
+      </c>
+      <c r="H4" s="196" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15">
+      <c r="B5" s="192"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+    </row>
+    <row r="6" spans="2:8" ht="15">
+      <c r="B6" s="135" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="234"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="234"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+    </row>
+    <row r="7" spans="2:8" ht="15">
+      <c r="B7" s="135" t="s">
+        <v>445</v>
+      </c>
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+    </row>
+    <row r="8" spans="2:8" ht="15">
+      <c r="B8" s="135" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+    </row>
+    <row r="9" spans="2:8" ht="15">
+      <c r="B9" s="135" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+    </row>
+    <row r="10" spans="2:8" ht="15">
+      <c r="B10" s="135" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" s="229"/>
+      <c r="D10" s="229"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+    </row>
+    <row r="11" spans="2:8" ht="15">
+      <c r="B11" s="135"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+    </row>
+    <row r="12" spans="2:8" ht="15">
+      <c r="B12" s="193" t="s">
+        <v>447</v>
+      </c>
+      <c r="C12" s="232" t="s">
+        <v>468</v>
+      </c>
+      <c r="D12" s="233"/>
+      <c r="E12" s="232" t="s">
+        <v>469</v>
+      </c>
+      <c r="F12" s="233"/>
+      <c r="G12" s="195" t="s">
+        <v>470</v>
+      </c>
+      <c r="H12" s="195" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15">
+      <c r="B13" s="194"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+    </row>
+    <row r="14" spans="2:8" ht="15">
+      <c r="B14" s="135" t="s">
+        <v>446</v>
+      </c>
+      <c r="C14" s="234"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="234"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+    </row>
+    <row r="15" spans="2:8" ht="15">
+      <c r="B15" s="135" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="235"/>
+      <c r="D15" s="235"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+    </row>
+    <row r="16" spans="2:8" ht="15">
+      <c r="B16" s="135" t="s">
+        <v>444</v>
+      </c>
+      <c r="C16" s="235"/>
+      <c r="D16" s="235"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+    </row>
+    <row r="17" spans="1:8" ht="15">
+      <c r="B17" s="135" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" s="235"/>
+      <c r="D17" s="235"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+    </row>
+    <row r="18" spans="1:8" ht="15">
+      <c r="B18" s="135" t="s">
+        <v>448</v>
+      </c>
+      <c r="C18" s="235"/>
+      <c r="D18" s="235"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+    </row>
+    <row r="19" spans="1:8" ht="15">
+      <c r="B19" s="135" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+    </row>
+    <row r="20" spans="1:8" ht="15">
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+    </row>
+    <row r="21" spans="1:8" ht="15">
+      <c r="B21" s="137" t="s">
+        <v>450</v>
+      </c>
+      <c r="C21" s="232"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="232"/>
+      <c r="F21" s="233"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="195"/>
+    </row>
+    <row r="22" spans="1:8" ht="15">
+      <c r="B22" s="135" t="s">
+        <v>451</v>
+      </c>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+    </row>
+    <row r="23" spans="1:8" ht="15">
+      <c r="B23" s="135" t="s">
+        <v>452</v>
+      </c>
+      <c r="C23" s="229"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+    </row>
+    <row r="24" spans="1:8" ht="15">
+      <c r="B24" s="135" t="s">
+        <v>453</v>
+      </c>
+      <c r="C24" s="229"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+    </row>
+    <row r="25" spans="1:8" ht="15">
+      <c r="B25" s="135" t="s">
+        <v>454</v>
+      </c>
+      <c r="C25" s="229"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+    </row>
+    <row r="26" spans="1:8" ht="15">
+      <c r="B26" s="135" t="s">
+        <v>455</v>
+      </c>
+      <c r="C26" s="229"/>
+      <c r="D26" s="229"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="199"/>
+    </row>
+    <row r="27" spans="1:8" ht="15">
+      <c r="B27" s="135" t="s">
+        <v>456</v>
+      </c>
+      <c r="C27" s="229"/>
+      <c r="D27" s="229"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="199"/>
+    </row>
+    <row r="28" spans="1:8" ht="15">
+      <c r="A28" s="155"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+    </row>
+    <row r="29" spans="1:8" ht="15">
+      <c r="A29" s="155"/>
+      <c r="B29" s="189" t="s">
+        <v>467</v>
+      </c>
+      <c r="C29" s="232" t="s">
+        <v>468</v>
+      </c>
+      <c r="D29" s="233"/>
+      <c r="E29" s="232" t="s">
+        <v>469</v>
+      </c>
+      <c r="F29" s="233"/>
+      <c r="G29" s="195" t="s">
+        <v>470</v>
+      </c>
+      <c r="H29" s="195" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15">
+      <c r="A30" s="155"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+    </row>
+    <row r="31" spans="1:8" ht="15">
+      <c r="A31" s="155"/>
+      <c r="B31" s="153" t="s">
+        <v>472</v>
+      </c>
+      <c r="C31" s="230"/>
+      <c r="D31" s="230"/>
+      <c r="E31" s="230"/>
+      <c r="F31" s="230"/>
+      <c r="G31" s="197"/>
+      <c r="H31" s="197"/>
+    </row>
+    <row r="32" spans="1:8" ht="15">
+      <c r="A32" s="155"/>
+      <c r="B32" s="153" t="s">
+        <v>473</v>
+      </c>
+      <c r="C32" s="229"/>
+      <c r="D32" s="229"/>
+      <c r="E32" s="229"/>
+      <c r="F32" s="229"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197"/>
+    </row>
+    <row r="33" spans="1:8" ht="15">
+      <c r="A33" s="155"/>
+      <c r="B33" s="153" t="s">
+        <v>474</v>
+      </c>
+      <c r="C33" s="229"/>
+      <c r="D33" s="229"/>
+      <c r="E33" s="229"/>
+      <c r="F33" s="229"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="197"/>
+    </row>
+    <row r="34" spans="1:8" ht="15">
+      <c r="A34" s="155"/>
+      <c r="B34" s="153" t="s">
+        <v>475</v>
+      </c>
+      <c r="C34" s="229"/>
+      <c r="D34" s="229"/>
+      <c r="E34" s="229"/>
+      <c r="F34" s="229"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="197"/>
+    </row>
+    <row r="35" spans="1:8" ht="15">
+      <c r="A35" s="155"/>
+      <c r="B35" s="153" t="s">
+        <v>476</v>
+      </c>
+      <c r="C35" s="229"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="229"/>
+      <c r="F35" s="229"/>
+      <c r="G35" s="197"/>
+      <c r="H35" s="197"/>
+    </row>
+    <row r="36" spans="1:8" ht="15">
+      <c r="B36" s="135"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="186"/>
+    </row>
+    <row r="37" spans="1:8" ht="15">
+      <c r="A37" s="155"/>
+      <c r="B37" s="185" t="s">
+        <v>457</v>
+      </c>
+      <c r="C37" s="242"/>
+      <c r="D37" s="243"/>
+      <c r="E37" s="242"/>
+      <c r="F37" s="243"/>
+      <c r="G37" s="198"/>
+      <c r="H37" s="198"/>
+    </row>
+    <row r="38" spans="1:8" ht="15">
+      <c r="B38" s="135" t="s">
+        <v>458</v>
+      </c>
+      <c r="C38" s="241"/>
+      <c r="D38" s="241"/>
+      <c r="E38" s="241"/>
+      <c r="F38" s="241"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+    </row>
+    <row r="39" spans="1:8" ht="15">
+      <c r="B39" s="135" t="s">
+        <v>459</v>
+      </c>
+      <c r="C39" s="229"/>
+      <c r="D39" s="229"/>
+      <c r="E39" s="229"/>
+      <c r="F39" s="229"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+    </row>
+    <row r="40" spans="1:8" ht="15">
+      <c r="B40" s="135" t="s">
+        <v>460</v>
+      </c>
+      <c r="C40" s="229"/>
+      <c r="D40" s="229"/>
+      <c r="E40" s="229"/>
+      <c r="F40" s="229"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+    </row>
+    <row r="41" spans="1:8" ht="15">
+      <c r="B41" s="135" t="s">
+        <v>461</v>
+      </c>
+      <c r="C41" s="229"/>
+      <c r="D41" s="229"/>
+      <c r="E41" s="229"/>
+      <c r="F41" s="229"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+    </row>
+    <row r="42" spans="1:8" ht="15">
+      <c r="B42" s="135"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+    </row>
+    <row r="43" spans="1:8" ht="15">
+      <c r="A43" s="155"/>
+      <c r="B43" s="189" t="s">
+        <v>462</v>
+      </c>
+      <c r="C43" s="232" t="s">
+        <v>468</v>
+      </c>
+      <c r="D43" s="233"/>
+      <c r="E43" s="232" t="s">
+        <v>469</v>
+      </c>
+      <c r="F43" s="233"/>
+      <c r="G43" s="195" t="s">
+        <v>470</v>
+      </c>
+      <c r="H43" s="195" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15">
+      <c r="A44" s="155"/>
+      <c r="B44" s="190"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="196"/>
+      <c r="E44" s="196"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="196"/>
+      <c r="H44" s="196"/>
+    </row>
+    <row r="45" spans="1:8" ht="15">
+      <c r="A45" s="155"/>
+      <c r="B45" s="153" t="s">
+        <v>463</v>
+      </c>
+      <c r="C45" s="230"/>
+      <c r="D45" s="230"/>
+      <c r="E45" s="230"/>
+      <c r="F45" s="230"/>
+      <c r="G45" s="197"/>
+      <c r="H45" s="197"/>
+    </row>
+    <row r="46" spans="1:8" ht="15">
+      <c r="A46" s="155"/>
+      <c r="B46" s="153" t="s">
+        <v>464</v>
+      </c>
+      <c r="C46" s="231"/>
+      <c r="D46" s="231"/>
+      <c r="E46" s="231"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="197"/>
+      <c r="H46" s="197"/>
+    </row>
+    <row r="47" spans="1:8" ht="15">
+      <c r="A47" s="155"/>
+      <c r="B47" s="153" t="s">
+        <v>465</v>
+      </c>
+      <c r="C47" s="231"/>
+      <c r="D47" s="231"/>
+      <c r="E47" s="231"/>
+      <c r="F47" s="231"/>
+      <c r="G47" s="197"/>
+      <c r="H47" s="197"/>
+    </row>
+    <row r="48" spans="1:8" ht="15">
+      <c r="A48" s="155"/>
+      <c r="B48" s="153" t="s">
+        <v>466</v>
+      </c>
+      <c r="C48" s="231"/>
+      <c r="D48" s="231"/>
+      <c r="E48" s="231"/>
+      <c r="F48" s="231"/>
+      <c r="G48" s="197"/>
+      <c r="H48" s="197"/>
+    </row>
+    <row r="49" spans="3:8" ht="15">
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+    </row>
+  </sheetData>
+  <mergeCells count="73">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183A8D03-1BB5-B745-9DC6-FDA2F464E650}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B2:O47"/>
@@ -3657,7 +4597,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="244" t="s">
         <v>224</v>
       </c>
       <c r="C2" s="175" t="s">
@@ -3701,7 +4641,7 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="14">
-      <c r="B3" s="217"/>
+      <c r="B3" s="245"/>
       <c r="C3" s="176">
         <v>40446</v>
       </c>
@@ -5316,11 +6256,11 @@
     </row>
     <row r="2" spans="1:24" ht="21">
       <c r="A2" s="8"/>
-      <c r="B2" s="198" t="str">
+      <c r="B2" s="211" t="str">
         <f>CONCATENATE(INFO!C4, " ", "DCF")</f>
         <v xml:space="preserve"> DCF</v>
       </c>
-      <c r="C2" s="199"/>
+      <c r="C2" s="212"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -5381,10 +6321,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="192" t="s">
+      <c r="E4" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="193"/>
+      <c r="F4" s="206"/>
       <c r="G4" s="11" t="e">
         <f ca="1">Z88</f>
         <v>#REF!</v>
@@ -5418,13 +6358,13 @@
       </c>
       <c r="C5" s="13">
         <f ca="1">TODAY()</f>
-        <v>45319</v>
+        <v>45330</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="192" t="s">
+      <c r="E5" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="193"/>
+      <c r="F5" s="206"/>
       <c r="G5" s="14" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -5484,10 +6424,10 @@
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="200"/>
+      <c r="C7" s="213"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -5518,10 +6458,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="197" t="s">
+      <c r="F8" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="193"/>
+      <c r="G8" s="206"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="10" t="s">
@@ -5530,10 +6470,10 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="197" t="s">
+      <c r="N8" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="193"/>
+      <c r="O8" s="206"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -5546,19 +6486,19 @@
     </row>
     <row r="9" spans="1:24" ht="15">
       <c r="A9" s="1"/>
-      <c r="B9" s="192" t="s">
+      <c r="B9" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="193"/>
+      <c r="C9" s="206"/>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="192" t="e">
+      <c r="F9" s="205" t="e">
         <f>CONCATENATE("Revenue", " ",Q43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G9" s="193"/>
+      <c r="G9" s="206"/>
       <c r="H9" s="2" t="e">
         <f>Q47-1%</f>
         <v>#REF!</v>
@@ -5568,11 +6508,11 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="192" t="e">
+      <c r="N9" s="205" t="e">
         <f>CONCATENATE("Revenue ", Q43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O9" s="193"/>
+      <c r="O9" s="206"/>
       <c r="P9" s="2" t="e">
         <f>Q47+1%</f>
         <v>#REF!</v>
@@ -5587,37 +6527,37 @@
     </row>
     <row r="10" spans="1:24" ht="15">
       <c r="A10" s="1"/>
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="205" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="193"/>
+      <c r="C10" s="206"/>
       <c r="D10" s="16">
         <v>2</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="192" t="e">
+      <c r="F10" s="205" t="e">
         <f>CONCATENATE("Revenue ", Z43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G10" s="193"/>
+      <c r="G10" s="206"/>
       <c r="H10" s="17">
         <v>0.03</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="192" t="e">
+      <c r="J10" s="205" t="e">
         <f>CONCATENATE("Revenue ", Z43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K10" s="193"/>
+      <c r="K10" s="206"/>
       <c r="L10" s="18">
         <v>0.05</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="192" t="e">
+      <c r="N10" s="205" t="e">
         <f>CONCATENATE("Revenue ", Z43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O10" s="193"/>
+      <c r="O10" s="206"/>
       <c r="P10" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -5768,20 +6708,20 @@
         <v>0.09</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="192" t="e">
+      <c r="J14" s="205" t="e">
         <f>CONCATENATE("CapEx ", Z43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K14" s="193"/>
+      <c r="K14" s="206"/>
       <c r="L14" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="192" t="e">
+      <c r="N14" s="205" t="e">
         <f>CONCATENATE("CapEx ", Z43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O14" s="193"/>
+      <c r="O14" s="206"/>
       <c r="P14" s="17">
         <v>0.05</v>
       </c>
@@ -5874,10 +6814,10 @@
     </row>
     <row r="17" spans="1:24" ht="15">
       <c r="A17" s="1"/>
-      <c r="B17" s="197" t="s">
+      <c r="B17" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="193"/>
+      <c r="C17" s="206"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -5992,10 +6932,10 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="196" t="s">
+      <c r="B21" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="193"/>
+      <c r="C21" s="206"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="19" t="str">
@@ -6292,10 +7232,10 @@
     </row>
     <row r="26" spans="1:24" ht="15">
       <c r="A26" s="1"/>
-      <c r="B26" s="195" t="s">
+      <c r="B26" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="193"/>
+      <c r="C26" s="206"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="24" t="e">
@@ -6525,10 +7465,10 @@
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="196" t="s">
+      <c r="B31" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="193"/>
+      <c r="C31" s="206"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="19" t="str">
@@ -6672,10 +7612,10 @@
     </row>
     <row r="33" spans="1:26" ht="15">
       <c r="A33" s="1"/>
-      <c r="B33" s="195" t="s">
+      <c r="B33" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="193"/>
+      <c r="C33" s="206"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="24" t="e">
@@ -6742,10 +7682,10 @@
     </row>
     <row r="34" spans="1:26" ht="15">
       <c r="A34" s="1"/>
-      <c r="B34" s="195" t="s">
+      <c r="B34" s="208" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="193"/>
+      <c r="C34" s="206"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="24" t="e">
@@ -6824,10 +7764,10 @@
     </row>
     <row r="36" spans="1:26" ht="15">
       <c r="A36" s="1"/>
-      <c r="B36" s="192" t="s">
+      <c r="B36" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="193"/>
+      <c r="C36" s="206"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="20">
@@ -6894,10 +7834,10 @@
     </row>
     <row r="37" spans="1:26" ht="15">
       <c r="A37" s="1"/>
-      <c r="B37" s="195" t="s">
+      <c r="B37" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="193"/>
+      <c r="C37" s="206"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="24" t="e">
@@ -6991,10 +7931,10 @@
     </row>
     <row r="39" spans="1:26" ht="15">
       <c r="A39" s="1"/>
-      <c r="B39" s="192" t="s">
+      <c r="B39" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="193"/>
+      <c r="C39" s="206"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="32">
@@ -7054,10 +7994,10 @@
     </row>
     <row r="40" spans="1:26" ht="15">
       <c r="A40" s="1"/>
-      <c r="B40" s="195" t="s">
+      <c r="B40" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="193"/>
+      <c r="C40" s="206"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="24" t="e">
@@ -7117,10 +8057,10 @@
     </row>
     <row r="41" spans="1:26" ht="15">
       <c r="A41" s="1"/>
-      <c r="B41" s="195" t="s">
+      <c r="B41" s="208" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="193"/>
+      <c r="C41" s="206"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="23"/>
@@ -7493,10 +8433,10 @@
     </row>
     <row r="46" spans="1:26" ht="15">
       <c r="A46" s="1"/>
-      <c r="B46" s="192" t="s">
+      <c r="B46" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="193"/>
+      <c r="C46" s="206"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -7550,11 +8490,11 @@
     </row>
     <row r="47" spans="1:26" ht="15">
       <c r="A47" s="1"/>
-      <c r="B47" s="192" t="s">
+      <c r="B47" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="193"/>
-      <c r="D47" s="193"/>
+      <c r="C47" s="206"/>
+      <c r="D47" s="206"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -7607,10 +8547,10 @@
     </row>
     <row r="48" spans="1:26" ht="15">
       <c r="A48" s="1"/>
-      <c r="B48" s="192" t="s">
+      <c r="B48" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="193"/>
+      <c r="C48" s="206"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -7875,10 +8815,10 @@
     </row>
     <row r="52" spans="1:26" ht="15">
       <c r="A52" s="1"/>
-      <c r="B52" s="192" t="s">
+      <c r="B52" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="193"/>
+      <c r="C52" s="206"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -7932,11 +8872,11 @@
     </row>
     <row r="53" spans="1:26" ht="15">
       <c r="A53" s="1"/>
-      <c r="B53" s="192" t="s">
+      <c r="B53" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="193"/>
-      <c r="D53" s="193"/>
+      <c r="C53" s="206"/>
+      <c r="D53" s="206"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -7989,10 +8929,10 @@
     </row>
     <row r="54" spans="1:26" ht="15">
       <c r="A54" s="1"/>
-      <c r="B54" s="192" t="s">
+      <c r="B54" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="193"/>
+      <c r="C54" s="206"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -8257,10 +9197,10 @@
     </row>
     <row r="58" spans="1:26" ht="15">
       <c r="A58" s="1"/>
-      <c r="B58" s="192" t="s">
+      <c r="B58" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="193"/>
+      <c r="C58" s="206"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -8314,11 +9254,11 @@
     </row>
     <row r="59" spans="1:26" ht="15">
       <c r="A59" s="1"/>
-      <c r="B59" s="192" t="s">
+      <c r="B59" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="193"/>
-      <c r="D59" s="193"/>
+      <c r="C59" s="206"/>
+      <c r="D59" s="206"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -8371,10 +9311,10 @@
     </row>
     <row r="60" spans="1:26" ht="15">
       <c r="A60" s="1"/>
-      <c r="B60" s="192" t="s">
+      <c r="B60" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="193"/>
+      <c r="C60" s="206"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -8730,10 +9670,10 @@
     </row>
     <row r="66" spans="1:28" ht="15">
       <c r="A66" s="1"/>
-      <c r="B66" s="192" t="s">
+      <c r="B66" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="193"/>
+      <c r="C66" s="206"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -8790,11 +9730,11 @@
     </row>
     <row r="67" spans="1:28" ht="15">
       <c r="A67" s="1"/>
-      <c r="B67" s="192" t="s">
+      <c r="B67" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="193"/>
-      <c r="D67" s="193"/>
+      <c r="C67" s="206"/>
+      <c r="D67" s="206"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -8850,10 +9790,10 @@
     </row>
     <row r="68" spans="1:28" ht="15">
       <c r="A68" s="1"/>
-      <c r="B68" s="192" t="s">
+      <c r="B68" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="193"/>
+      <c r="C68" s="206"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -9127,10 +10067,10 @@
     </row>
     <row r="72" spans="1:28" ht="15">
       <c r="A72" s="1"/>
-      <c r="B72" s="192" t="s">
+      <c r="B72" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="193"/>
+      <c r="C72" s="206"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -9191,11 +10131,11 @@
     </row>
     <row r="73" spans="1:28" ht="15">
       <c r="A73" s="1"/>
-      <c r="B73" s="192" t="s">
+      <c r="B73" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="193"/>
-      <c r="D73" s="193"/>
+      <c r="C73" s="206"/>
+      <c r="D73" s="206"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -9251,10 +10191,10 @@
     </row>
     <row r="74" spans="1:28" ht="15">
       <c r="A74" s="1"/>
-      <c r="B74" s="192" t="s">
+      <c r="B74" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="193"/>
+      <c r="C74" s="206"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -9342,10 +10282,10 @@
     </row>
     <row r="76" spans="1:28" ht="15">
       <c r="A76" s="1"/>
-      <c r="B76" s="192" t="s">
+      <c r="B76" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="193"/>
+      <c r="C76" s="206"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="32">
@@ -9556,11 +10496,11 @@
     </row>
     <row r="79" spans="1:28" ht="15">
       <c r="A79" s="1"/>
-      <c r="B79" s="194" t="s">
+      <c r="B79" s="207" t="s">
         <v>70</v>
       </c>
-      <c r="C79" s="193"/>
-      <c r="D79" s="193"/>
+      <c r="C79" s="206"/>
+      <c r="D79" s="206"/>
       <c r="E79" s="61"/>
       <c r="F79" s="61"/>
       <c r="G79" s="61"/>
@@ -9616,11 +10556,11 @@
     </row>
     <row r="80" spans="1:28" ht="15">
       <c r="A80" s="1"/>
-      <c r="B80" s="192" t="s">
+      <c r="B80" s="205" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="193"/>
-      <c r="D80" s="193"/>
+      <c r="C80" s="206"/>
+      <c r="D80" s="206"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -9672,10 +10612,10 @@
     </row>
     <row r="81" spans="1:26" ht="15">
       <c r="A81" s="1"/>
-      <c r="B81" s="192" t="s">
+      <c r="B81" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="193"/>
+      <c r="C81" s="206"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -9704,11 +10644,11 @@
     </row>
     <row r="82" spans="1:26" ht="15">
       <c r="A82" s="1"/>
-      <c r="B82" s="192" t="s">
+      <c r="B82" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="C82" s="193"/>
-      <c r="D82" s="193"/>
+      <c r="C82" s="206"/>
+      <c r="D82" s="206"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -9736,10 +10676,10 @@
     </row>
     <row r="83" spans="1:26" ht="15">
       <c r="A83" s="1"/>
-      <c r="B83" s="192" t="s">
+      <c r="B83" s="205" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="193"/>
+      <c r="C83" s="206"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -9832,10 +10772,10 @@
     </row>
     <row r="86" spans="1:26" ht="15">
       <c r="A86" s="1"/>
-      <c r="B86" s="192" t="s">
+      <c r="B86" s="205" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="193"/>
+      <c r="C86" s="206"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -9864,10 +10804,10 @@
     </row>
     <row r="87" spans="1:26" ht="15">
       <c r="A87" s="1"/>
-      <c r="B87" s="192" t="s">
+      <c r="B87" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="193"/>
+      <c r="C87" s="206"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -9896,10 +10836,10 @@
     </row>
     <row r="88" spans="1:26" ht="15">
       <c r="A88" s="1"/>
-      <c r="B88" s="192" t="s">
+      <c r="B88" s="205" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="193"/>
+      <c r="C88" s="206"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -10006,29 +10946,29 @@
     <mergeCell ref="B88:C88"/>
   </mergeCells>
   <conditionalFormatting sqref="F76:P76">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
+      <formula>"0%"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
       <formula>"10%"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThanOrEqual">
-      <formula>"0%"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThanOrEqual">
       <formula>"0%"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21:T22 F22:S22 F25:T25 F28:P28 T31 F32:P32 F36:P36 F39:P39">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10043,7 +10983,7 @@
   </sheetPr>
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10126,29 +11066,29 @@
     </row>
     <row r="5" spans="1:26" ht="15">
       <c r="A5" s="1"/>
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="210" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="193"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15">
       <c r="A6" s="1"/>
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="210" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="193"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="193"/>
-      <c r="H6" s="193"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="L6" s="3" t="s">
@@ -10224,10 +11164,10 @@
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="1"/>
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="193"/>
+      <c r="C10" s="206"/>
       <c r="D10" s="74" t="e">
         <f>(IS!M19/BS!M50)*(1-D11)</f>
         <v>#DIV/0!</v>
@@ -10264,10 +11204,10 @@
     </row>
     <row r="13" spans="1:26" ht="15">
       <c r="A13" s="1"/>
-      <c r="B13" s="192" t="s">
+      <c r="B13" s="205" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="193"/>
+      <c r="C13" s="206"/>
       <c r="D13" s="67">
         <f>INFO!C16/1000000</f>
         <v>0</v>
@@ -10298,10 +11238,10 @@
     </row>
     <row r="15" spans="1:26" ht="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="205" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="193"/>
+      <c r="C15" s="206"/>
       <c r="D15" s="71">
         <f>D16+(D17*D18)</f>
         <v>0</v>
@@ -10318,10 +11258,10 @@
     </row>
     <row r="16" spans="1:26" ht="15">
       <c r="A16" s="1"/>
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="205" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="193"/>
+      <c r="C16" s="206"/>
       <c r="D16" s="74">
         <f>INFO!C18 / 100</f>
         <v>0</v>
@@ -10368,10 +11308,10 @@
     </row>
     <row r="18" spans="1:14" ht="15">
       <c r="A18" s="1"/>
-      <c r="B18" s="192" t="s">
+      <c r="B18" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="193"/>
+      <c r="C18" s="206"/>
       <c r="D18" s="75">
         <f>D16*D17</f>
         <v>0</v>
@@ -10393,10 +11333,10 @@
     </row>
     <row r="20" spans="1:14" ht="15">
       <c r="A20" s="1"/>
-      <c r="B20" s="192" t="s">
+      <c r="B20" s="205" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="193"/>
+      <c r="C20" s="206"/>
       <c r="D20" s="67">
         <f>D13+D8</f>
         <v>0</v>
@@ -10493,13 +11433,13 @@
   <sheetData>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="198" t="e">
+      <c r="B2" s="211" t="e">
         <f>CONCATENATE(#REF!," Revenue Breakdown")</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -10521,10 +11461,10 @@
       <c r="X2" s="8"/>
     </row>
     <row r="4" spans="1:24" ht="15">
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="193"/>
+      <c r="C4" s="206"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="19" t="e">
@@ -11662,10 +12602,10 @@
       </c>
     </row>
     <row r="57" spans="2:21" ht="15">
-      <c r="B57" s="196" t="s">
+      <c r="B57" s="209" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="193"/>
+      <c r="C57" s="206"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="19" t="e">
@@ -12352,12 +13292,12 @@
     </row>
     <row r="2" spans="1:25" ht="24">
       <c r="A2" s="97"/>
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="219" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
       <c r="F2" s="98"/>
       <c r="G2" s="98"/>
       <c r="H2" s="98"/>
@@ -12394,10 +13334,10 @@
     </row>
     <row r="4" spans="1:25" ht="15">
       <c r="A4" s="1"/>
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="209" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="200"/>
+      <c r="C4" s="213"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -12429,8 +13369,8 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="197"/>
-      <c r="G5" s="193"/>
+      <c r="F5" s="210"/>
+      <c r="G5" s="206"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -12450,26 +13390,26 @@
     </row>
     <row r="6" spans="1:25" ht="15">
       <c r="A6" s="1"/>
-      <c r="B6" s="192" t="s">
+      <c r="B6" s="205" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="193"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="210"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="223"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="192" t="e">
+      <c r="K6" s="205" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193"/>
+      <c r="L6" s="206"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="206"/>
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -12502,26 +13442,26 @@
       <c r="A8" s="97"/>
       <c r="B8" s="177"/>
       <c r="C8" s="177"/>
-      <c r="D8" s="201" t="s">
+      <c r="D8" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202"/>
-      <c r="I8" s="202"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="215"/>
       <c r="J8" s="177"/>
-      <c r="K8" s="201" t="s">
+      <c r="K8" s="214" t="s">
         <v>125</v>
       </c>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="215"/>
       <c r="N8" s="177"/>
-      <c r="O8" s="201" t="s">
+      <c r="O8" s="214" t="s">
         <v>126</v>
       </c>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="202"/>
+      <c r="P8" s="215"/>
+      <c r="Q8" s="215"/>
       <c r="R8" s="97"/>
     </row>
     <row r="9" spans="1:25" ht="16">
@@ -14097,11 +15037,11 @@
     </row>
     <row r="41" spans="1:18" ht="16">
       <c r="A41" s="97"/>
-      <c r="B41" s="211" t="str">
+      <c r="B41" s="224" t="str">
         <f>(B11&amp;" Valuation")</f>
         <v>0 Valuation</v>
       </c>
-      <c r="C41" s="200"/>
+      <c r="C41" s="213"/>
       <c r="D41" s="179"/>
       <c r="E41" s="179"/>
       <c r="F41" s="179"/>
@@ -14126,10 +15066,10 @@
     </row>
     <row r="42" spans="1:18" ht="16">
       <c r="A42" s="97"/>
-      <c r="B42" s="203" t="s">
+      <c r="B42" s="216" t="s">
         <v>143</v>
       </c>
-      <c r="C42" s="193"/>
+      <c r="C42" s="206"/>
       <c r="D42" s="97"/>
       <c r="E42" s="97"/>
       <c r="F42" s="97"/>
@@ -14188,10 +15128,10 @@
     </row>
     <row r="44" spans="1:18" ht="16">
       <c r="A44" s="97"/>
-      <c r="B44" s="203" t="s">
+      <c r="B44" s="216" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="193"/>
+      <c r="C44" s="206"/>
       <c r="D44" s="97"/>
       <c r="E44" s="97"/>
       <c r="F44" s="97"/>
@@ -14219,10 +15159,10 @@
     </row>
     <row r="45" spans="1:18" ht="16">
       <c r="A45" s="97"/>
-      <c r="B45" s="203" t="s">
+      <c r="B45" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="193"/>
+      <c r="C45" s="206"/>
       <c r="D45" s="97"/>
       <c r="E45" s="97"/>
       <c r="F45" s="97"/>
@@ -14250,10 +15190,10 @@
     </row>
     <row r="46" spans="1:18" ht="16">
       <c r="A46" s="97"/>
-      <c r="B46" s="204" t="s">
+      <c r="B46" s="217" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="205"/>
+      <c r="C46" s="218"/>
       <c r="D46" s="126"/>
       <c r="E46" s="126"/>
       <c r="F46" s="126"/>
@@ -14479,12 +15419,12 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B2" s="198" t="e">
+      <c r="B2" s="211" t="e">
         <f>CONCATENATE(#REF!," EBITDA Multiple")</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -14538,10 +15478,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="192" t="s">
+      <c r="E4" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="193"/>
+      <c r="F4" s="206"/>
       <c r="G4" s="11">
         <f>Z84</f>
         <v>0</v>
@@ -14573,22 +15513,22 @@
       </c>
       <c r="C5" s="13">
         <f ca="1">TODAY()</f>
-        <v>45319</v>
+        <v>45330</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="192" t="s">
+      <c r="E5" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="193"/>
+      <c r="F5" s="206"/>
       <c r="G5" s="14" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="192" t="s">
+      <c r="I5" s="205" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="193"/>
+      <c r="J5" s="206"/>
       <c r="K5" s="15" t="e">
         <f>U84/G5-1</f>
         <v>#REF!</v>
@@ -14634,10 +15574,10 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="2:23" ht="15">
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="193"/>
+      <c r="C7" s="206"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -14666,10 +15606,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="197" t="s">
+      <c r="F8" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="193"/>
+      <c r="G8" s="206"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="10" t="s">
@@ -14678,10 +15618,10 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="197" t="s">
+      <c r="N8" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="193"/>
+      <c r="O8" s="206"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -14692,19 +15632,19 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="2:23" ht="15">
-      <c r="B9" s="192" t="s">
+      <c r="B9" s="205" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="193"/>
+      <c r="C9" s="206"/>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="192" t="e">
+      <c r="F9" s="205" t="e">
         <f>CONCATENATE("Revenue ", Q39)</f>
         <v>#REF!</v>
       </c>
-      <c r="G9" s="193"/>
+      <c r="G9" s="206"/>
       <c r="H9" s="2">
         <f>Q43-1%</f>
         <v>-0.01</v>
@@ -14714,11 +15654,11 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="192" t="e">
+      <c r="N9" s="205" t="e">
         <f>CONCATENATE("Revenue ", Q39)</f>
         <v>#REF!</v>
       </c>
-      <c r="O9" s="193"/>
+      <c r="O9" s="206"/>
       <c r="P9" s="2">
         <f>Q43+1%</f>
         <v>0.01</v>
@@ -14731,37 +15671,37 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="2:23" ht="15">
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="205" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="193"/>
+      <c r="C10" s="206"/>
       <c r="D10" s="16">
         <v>2</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="192" t="e">
+      <c r="F10" s="205" t="e">
         <f>CONCATENATE("Revenue ", Z39)</f>
         <v>#REF!</v>
       </c>
-      <c r="G10" s="193"/>
+      <c r="G10" s="206"/>
       <c r="H10" s="17">
         <v>0.03</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="192" t="e">
+      <c r="J10" s="205" t="e">
         <f>CONCATENATE("Revenue ", Z39)</f>
         <v>#REF!</v>
       </c>
-      <c r="K10" s="193"/>
+      <c r="K10" s="206"/>
       <c r="L10" s="18">
         <v>0.05</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="192" t="e">
+      <c r="N10" s="205" t="e">
         <f>CONCATENATE("Revenue ", Z39)</f>
         <v>#REF!</v>
       </c>
-      <c r="O10" s="193"/>
+      <c r="O10" s="206"/>
       <c r="P10" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -14904,20 +15844,20 @@
         <v>0.09</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="192" t="e">
+      <c r="J14" s="205" t="e">
         <f>CONCATENATE("CapEx ", Z39)</f>
         <v>#REF!</v>
       </c>
-      <c r="K14" s="193"/>
+      <c r="K14" s="206"/>
       <c r="L14" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="192" t="e">
+      <c r="N14" s="205" t="e">
         <f>CONCATENATE("CapEx ", Z39)</f>
         <v>#REF!</v>
       </c>
-      <c r="O14" s="193"/>
+      <c r="O14" s="206"/>
       <c r="P14" s="17">
         <v>0.05</v>
       </c>
@@ -15004,10 +15944,10 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15">
-      <c r="B17" s="197" t="s">
+      <c r="B17" s="210" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="193"/>
+      <c r="C17" s="206"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -15115,10 +16055,10 @@
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="196" t="s">
+      <c r="B21" s="209" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="193"/>
+      <c r="C21" s="206"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="19" t="e">
@@ -15410,10 +16350,10 @@
       <c r="W25" s="22"/>
     </row>
     <row r="26" spans="1:26" ht="15">
-      <c r="B26" s="195" t="s">
+      <c r="B26" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="193"/>
+      <c r="C26" s="206"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="24" t="e">
@@ -15753,10 +16693,10 @@
     </row>
     <row r="31" spans="1:26" ht="15">
       <c r="A31" s="1"/>
-      <c r="B31" s="192" t="s">
+      <c r="B31" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="193"/>
+      <c r="C31" s="206"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -15810,11 +16750,11 @@
     </row>
     <row r="32" spans="1:26" ht="15">
       <c r="A32" s="1"/>
-      <c r="B32" s="192" t="s">
+      <c r="B32" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="193"/>
-      <c r="D32" s="193"/>
+      <c r="C32" s="206"/>
+      <c r="D32" s="206"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -15867,10 +16807,10 @@
     </row>
     <row r="33" spans="1:26" ht="15">
       <c r="A33" s="1"/>
-      <c r="B33" s="192" t="s">
+      <c r="B33" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="193"/>
+      <c r="C33" s="206"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -16135,10 +17075,10 @@
     </row>
     <row r="37" spans="1:26" ht="15">
       <c r="A37" s="1"/>
-      <c r="B37" s="192" t="s">
+      <c r="B37" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="193"/>
+      <c r="C37" s="206"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -16192,11 +17132,11 @@
     </row>
     <row r="38" spans="1:26" ht="15">
       <c r="A38" s="1"/>
-      <c r="B38" s="192" t="s">
+      <c r="B38" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="193"/>
-      <c r="D38" s="193"/>
+      <c r="C38" s="206"/>
+      <c r="D38" s="206"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -16249,10 +17189,10 @@
     </row>
     <row r="39" spans="1:26" ht="15">
       <c r="A39" s="1"/>
-      <c r="B39" s="192" t="s">
+      <c r="B39" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="193"/>
+      <c r="C39" s="206"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -16397,7 +17337,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15">
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="225" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="149"/>
@@ -16413,7 +17353,7 @@
       <c r="M2" s="150"/>
     </row>
     <row r="3" spans="2:13" ht="14">
-      <c r="B3" s="213"/>
+      <c r="B3" s="226"/>
       <c r="C3" s="151"/>
       <c r="D3" s="152"/>
       <c r="E3" s="152"/>
@@ -17168,7 +18108,7 @@
   <dimension ref="A2:M52"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection sqref="A1:M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -17179,7 +18119,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="14">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="227" t="s">
         <v>182</v>
       </c>
       <c r="C2" s="163"/>
@@ -17195,7 +18135,7 @@
       <c r="M2" s="164"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="215"/>
+      <c r="B3" s="228"/>
       <c r="C3" s="165"/>
       <c r="D3" s="166"/>
       <c r="E3" s="166"/>
@@ -17993,7 +18933,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15">
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="225" t="s">
         <v>215</v>
       </c>
       <c r="C2" s="149"/>
@@ -18009,7 +18949,7 @@
       <c r="M2" s="150"/>
     </row>
     <row r="3" spans="2:13" ht="14">
-      <c r="B3" s="213"/>
+      <c r="B3" s="226"/>
       <c r="C3" s="151"/>
       <c r="D3" s="152"/>
       <c r="E3" s="152"/>

--- a/src/main/resources/templates/FINDich.xlsx
+++ b/src/main/resources/templates/FINDich.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koko/IdeaProjects/FinanceProjects/stock-financial-report-analyzer/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D54E391-3DDC-954F-A88C-B04D4447ED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73A4985-9C21-FA40-90D9-2DBA4F74F6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76680" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="1" r:id="rId1"/>
@@ -2905,15 +2905,15 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2941,25 +2941,22 @@
     <xf numFmtId="0" fontId="39" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="171" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="32" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="172" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2977,14 +2974,17 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3939,7 +3939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A88C279-C091-A94C-B283-276290F6C98F}">
   <dimension ref="A2:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -3955,34 +3955,34 @@
       <c r="B2" s="227" t="s">
         <v>440</v>
       </c>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
     </row>
     <row r="3" spans="2:8" ht="13" customHeight="1">
-      <c r="B3" s="237"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-      <c r="G3" s="238"/>
-      <c r="H3" s="238"/>
+      <c r="B3" s="236"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
     </row>
     <row r="4" spans="2:8" ht="16" customHeight="1">
       <c r="B4" s="191" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="238" t="s">
         <v>468</v>
       </c>
-      <c r="D4" s="240"/>
-      <c r="E4" s="239" t="s">
+      <c r="D4" s="239"/>
+      <c r="E4" s="238" t="s">
         <v>469</v>
       </c>
-      <c r="F4" s="240"/>
+      <c r="F4" s="239"/>
       <c r="G4" s="196" t="s">
         <v>470</v>
       </c>
@@ -4003,10 +4003,10 @@
       <c r="B6" s="135" t="s">
         <v>446</v>
       </c>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
-      <c r="E6" s="234"/>
-      <c r="F6" s="234"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="231"/>
       <c r="G6" s="148"/>
       <c r="H6" s="148"/>
     </row>
@@ -4014,10 +4014,10 @@
       <c r="B7" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="229"/>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
       <c r="G7" s="147"/>
       <c r="H7" s="147"/>
     </row>
@@ -4025,10 +4025,10 @@
       <c r="B8" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
       <c r="G8" s="147"/>
       <c r="H8" s="147"/>
     </row>
@@ -4036,10 +4036,10 @@
       <c r="B9" s="135" t="s">
         <v>443</v>
       </c>
-      <c r="C9" s="229"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="229"/>
+      <c r="C9" s="230"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
       <c r="G9" s="147"/>
       <c r="H9" s="147"/>
     </row>
@@ -4047,10 +4047,10 @@
       <c r="B10" s="135" t="s">
         <v>442</v>
       </c>
-      <c r="C10" s="229"/>
-      <c r="D10" s="229"/>
-      <c r="E10" s="229"/>
-      <c r="F10" s="229"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="230"/>
       <c r="G10" s="147"/>
       <c r="H10" s="147"/>
     </row>
@@ -4067,14 +4067,14 @@
       <c r="B12" s="193" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="232" t="s">
+      <c r="C12" s="240" t="s">
         <v>468</v>
       </c>
-      <c r="D12" s="233"/>
-      <c r="E12" s="232" t="s">
+      <c r="D12" s="241"/>
+      <c r="E12" s="240" t="s">
         <v>469</v>
       </c>
-      <c r="F12" s="233"/>
+      <c r="F12" s="241"/>
       <c r="G12" s="195" t="s">
         <v>470</v>
       </c>
@@ -4095,10 +4095,10 @@
       <c r="B14" s="135" t="s">
         <v>446</v>
       </c>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="234"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="231"/>
+      <c r="E14" s="231"/>
+      <c r="F14" s="231"/>
       <c r="G14" s="148"/>
       <c r="H14" s="148"/>
     </row>
@@ -4106,10 +4106,10 @@
       <c r="B15" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="235"/>
-      <c r="D15" s="235"/>
-      <c r="E15" s="235"/>
-      <c r="F15" s="235"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="242"/>
+      <c r="E15" s="242"/>
+      <c r="F15" s="242"/>
       <c r="G15" s="148"/>
       <c r="H15" s="148"/>
     </row>
@@ -4117,10 +4117,10 @@
       <c r="B16" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="C16" s="235"/>
-      <c r="D16" s="235"/>
-      <c r="E16" s="235"/>
-      <c r="F16" s="235"/>
+      <c r="C16" s="242"/>
+      <c r="D16" s="242"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="242"/>
       <c r="G16" s="148"/>
       <c r="H16" s="148"/>
     </row>
@@ -4128,10 +4128,10 @@
       <c r="B17" s="135" t="s">
         <v>443</v>
       </c>
-      <c r="C17" s="235"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="235"/>
-      <c r="F17" s="235"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="242"/>
       <c r="G17" s="148"/>
       <c r="H17" s="148"/>
     </row>
@@ -4139,10 +4139,10 @@
       <c r="B18" s="135" t="s">
         <v>448</v>
       </c>
-      <c r="C18" s="235"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="235"/>
-      <c r="F18" s="235"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
       <c r="G18" s="148"/>
       <c r="H18" s="148"/>
     </row>
@@ -4150,10 +4150,10 @@
       <c r="B19" s="135" t="s">
         <v>449</v>
       </c>
-      <c r="C19" s="235"/>
-      <c r="D19" s="235"/>
-      <c r="E19" s="235"/>
-      <c r="F19" s="235"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
+      <c r="F19" s="242"/>
       <c r="G19" s="148"/>
       <c r="H19" s="148"/>
     </row>
@@ -4169,10 +4169,10 @@
       <c r="B21" s="137" t="s">
         <v>450</v>
       </c>
-      <c r="C21" s="232"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="232"/>
-      <c r="F21" s="233"/>
+      <c r="C21" s="240"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="240"/>
+      <c r="F21" s="241"/>
       <c r="G21" s="195"/>
       <c r="H21" s="195"/>
     </row>
@@ -4180,10 +4180,10 @@
       <c r="B22" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="C22" s="241"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="241"/>
-      <c r="F22" s="241"/>
+      <c r="C22" s="229"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="229"/>
+      <c r="F22" s="229"/>
       <c r="G22" s="147"/>
       <c r="H22" s="147"/>
     </row>
@@ -4191,10 +4191,10 @@
       <c r="B23" s="135" t="s">
         <v>452</v>
       </c>
-      <c r="C23" s="229"/>
-      <c r="D23" s="229"/>
-      <c r="E23" s="229"/>
-      <c r="F23" s="229"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="230"/>
+      <c r="E23" s="230"/>
+      <c r="F23" s="230"/>
       <c r="G23" s="147"/>
       <c r="H23" s="147"/>
     </row>
@@ -4202,10 +4202,10 @@
       <c r="B24" s="135" t="s">
         <v>453</v>
       </c>
-      <c r="C24" s="229"/>
-      <c r="D24" s="229"/>
-      <c r="E24" s="229"/>
-      <c r="F24" s="229"/>
+      <c r="C24" s="230"/>
+      <c r="D24" s="230"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="230"/>
       <c r="G24" s="147"/>
       <c r="H24" s="147"/>
     </row>
@@ -4213,10 +4213,10 @@
       <c r="B25" s="135" t="s">
         <v>454</v>
       </c>
-      <c r="C25" s="229"/>
-      <c r="D25" s="229"/>
-      <c r="E25" s="229"/>
-      <c r="F25" s="229"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="230"/>
+      <c r="E25" s="230"/>
+      <c r="F25" s="230"/>
       <c r="G25" s="147"/>
       <c r="H25" s="147"/>
     </row>
@@ -4224,10 +4224,10 @@
       <c r="B26" s="135" t="s">
         <v>455</v>
       </c>
-      <c r="C26" s="229"/>
-      <c r="D26" s="229"/>
-      <c r="E26" s="229"/>
-      <c r="F26" s="229"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="230"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="230"/>
       <c r="G26" s="199"/>
       <c r="H26" s="199"/>
     </row>
@@ -4235,10 +4235,10 @@
       <c r="B27" s="135" t="s">
         <v>456</v>
       </c>
-      <c r="C27" s="229"/>
-      <c r="D27" s="229"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="229"/>
+      <c r="C27" s="230"/>
+      <c r="D27" s="230"/>
+      <c r="E27" s="230"/>
+      <c r="F27" s="230"/>
       <c r="G27" s="199"/>
       <c r="H27" s="199"/>
     </row>
@@ -4256,14 +4256,14 @@
       <c r="B29" s="189" t="s">
         <v>467</v>
       </c>
-      <c r="C29" s="232" t="s">
+      <c r="C29" s="240" t="s">
         <v>468</v>
       </c>
-      <c r="D29" s="233"/>
-      <c r="E29" s="232" t="s">
+      <c r="D29" s="241"/>
+      <c r="E29" s="240" t="s">
         <v>469</v>
       </c>
-      <c r="F29" s="233"/>
+      <c r="F29" s="241"/>
       <c r="G29" s="195" t="s">
         <v>470</v>
       </c>
@@ -4286,10 +4286,10 @@
       <c r="B31" s="153" t="s">
         <v>472</v>
       </c>
-      <c r="C31" s="230"/>
-      <c r="D31" s="230"/>
-      <c r="E31" s="230"/>
-      <c r="F31" s="230"/>
+      <c r="C31" s="234"/>
+      <c r="D31" s="234"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="234"/>
       <c r="G31" s="197"/>
       <c r="H31" s="197"/>
     </row>
@@ -4298,10 +4298,10 @@
       <c r="B32" s="153" t="s">
         <v>473</v>
       </c>
-      <c r="C32" s="229"/>
-      <c r="D32" s="229"/>
-      <c r="E32" s="229"/>
-      <c r="F32" s="229"/>
+      <c r="C32" s="230"/>
+      <c r="D32" s="230"/>
+      <c r="E32" s="230"/>
+      <c r="F32" s="230"/>
       <c r="G32" s="197"/>
       <c r="H32" s="197"/>
     </row>
@@ -4310,10 +4310,10 @@
       <c r="B33" s="153" t="s">
         <v>474</v>
       </c>
-      <c r="C33" s="229"/>
-      <c r="D33" s="229"/>
-      <c r="E33" s="229"/>
-      <c r="F33" s="229"/>
+      <c r="C33" s="230"/>
+      <c r="D33" s="230"/>
+      <c r="E33" s="230"/>
+      <c r="F33" s="230"/>
       <c r="G33" s="197"/>
       <c r="H33" s="197"/>
     </row>
@@ -4322,10 +4322,10 @@
       <c r="B34" s="153" t="s">
         <v>475</v>
       </c>
-      <c r="C34" s="229"/>
-      <c r="D34" s="229"/>
-      <c r="E34" s="229"/>
-      <c r="F34" s="229"/>
+      <c r="C34" s="230"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="230"/>
+      <c r="F34" s="230"/>
       <c r="G34" s="197"/>
       <c r="H34" s="197"/>
     </row>
@@ -4334,10 +4334,10 @@
       <c r="B35" s="153" t="s">
         <v>476</v>
       </c>
-      <c r="C35" s="229"/>
-      <c r="D35" s="229"/>
-      <c r="E35" s="229"/>
-      <c r="F35" s="229"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="230"/>
+      <c r="E35" s="230"/>
+      <c r="F35" s="230"/>
       <c r="G35" s="197"/>
       <c r="H35" s="197"/>
     </row>
@@ -4355,10 +4355,10 @@
       <c r="B37" s="185" t="s">
         <v>457</v>
       </c>
-      <c r="C37" s="242"/>
-      <c r="D37" s="243"/>
-      <c r="E37" s="242"/>
-      <c r="F37" s="243"/>
+      <c r="C37" s="232"/>
+      <c r="D37" s="233"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="233"/>
       <c r="G37" s="198"/>
       <c r="H37" s="198"/>
     </row>
@@ -4366,10 +4366,10 @@
       <c r="B38" s="135" t="s">
         <v>458</v>
       </c>
-      <c r="C38" s="241"/>
-      <c r="D38" s="241"/>
-      <c r="E38" s="241"/>
-      <c r="F38" s="241"/>
+      <c r="C38" s="229"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="229"/>
       <c r="G38" s="147"/>
       <c r="H38" s="147"/>
     </row>
@@ -4377,10 +4377,10 @@
       <c r="B39" s="135" t="s">
         <v>459</v>
       </c>
-      <c r="C39" s="229"/>
-      <c r="D39" s="229"/>
-      <c r="E39" s="229"/>
-      <c r="F39" s="229"/>
+      <c r="C39" s="230"/>
+      <c r="D39" s="230"/>
+      <c r="E39" s="230"/>
+      <c r="F39" s="230"/>
       <c r="G39" s="147"/>
       <c r="H39" s="147"/>
     </row>
@@ -4388,10 +4388,10 @@
       <c r="B40" s="135" t="s">
         <v>460</v>
       </c>
-      <c r="C40" s="229"/>
-      <c r="D40" s="229"/>
-      <c r="E40" s="229"/>
-      <c r="F40" s="229"/>
+      <c r="C40" s="230"/>
+      <c r="D40" s="230"/>
+      <c r="E40" s="230"/>
+      <c r="F40" s="230"/>
       <c r="G40" s="147"/>
       <c r="H40" s="147"/>
     </row>
@@ -4399,10 +4399,10 @@
       <c r="B41" s="135" t="s">
         <v>461</v>
       </c>
-      <c r="C41" s="229"/>
-      <c r="D41" s="229"/>
-      <c r="E41" s="229"/>
-      <c r="F41" s="229"/>
+      <c r="C41" s="230"/>
+      <c r="D41" s="230"/>
+      <c r="E41" s="230"/>
+      <c r="F41" s="230"/>
       <c r="G41" s="147"/>
       <c r="H41" s="147"/>
     </row>
@@ -4420,14 +4420,14 @@
       <c r="B43" s="189" t="s">
         <v>462</v>
       </c>
-      <c r="C43" s="232" t="s">
+      <c r="C43" s="240" t="s">
         <v>468</v>
       </c>
-      <c r="D43" s="233"/>
-      <c r="E43" s="232" t="s">
+      <c r="D43" s="241"/>
+      <c r="E43" s="240" t="s">
         <v>469</v>
       </c>
-      <c r="F43" s="233"/>
+      <c r="F43" s="241"/>
       <c r="G43" s="195" t="s">
         <v>470</v>
       </c>
@@ -4450,10 +4450,10 @@
       <c r="B45" s="153" t="s">
         <v>463</v>
       </c>
-      <c r="C45" s="230"/>
-      <c r="D45" s="230"/>
-      <c r="E45" s="230"/>
-      <c r="F45" s="230"/>
+      <c r="C45" s="234"/>
+      <c r="D45" s="234"/>
+      <c r="E45" s="234"/>
+      <c r="F45" s="234"/>
       <c r="G45" s="197"/>
       <c r="H45" s="197"/>
     </row>
@@ -4462,10 +4462,10 @@
       <c r="B46" s="153" t="s">
         <v>464</v>
       </c>
-      <c r="C46" s="231"/>
-      <c r="D46" s="231"/>
-      <c r="E46" s="231"/>
-      <c r="F46" s="231"/>
+      <c r="C46" s="243"/>
+      <c r="D46" s="243"/>
+      <c r="E46" s="243"/>
+      <c r="F46" s="243"/>
       <c r="G46" s="197"/>
       <c r="H46" s="197"/>
     </row>
@@ -4474,10 +4474,10 @@
       <c r="B47" s="153" t="s">
         <v>465</v>
       </c>
-      <c r="C47" s="231"/>
-      <c r="D47" s="231"/>
-      <c r="E47" s="231"/>
-      <c r="F47" s="231"/>
+      <c r="C47" s="243"/>
+      <c r="D47" s="243"/>
+      <c r="E47" s="243"/>
+      <c r="F47" s="243"/>
       <c r="G47" s="197"/>
       <c r="H47" s="197"/>
     </row>
@@ -4486,10 +4486,10 @@
       <c r="B48" s="153" t="s">
         <v>466</v>
       </c>
-      <c r="C48" s="231"/>
-      <c r="D48" s="231"/>
-      <c r="E48" s="231"/>
-      <c r="F48" s="231"/>
+      <c r="C48" s="243"/>
+      <c r="D48" s="243"/>
+      <c r="E48" s="243"/>
+      <c r="F48" s="243"/>
       <c r="G48" s="197"/>
       <c r="H48" s="197"/>
     </row>
@@ -4503,6 +4503,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="C41:D41"/>
@@ -4519,63 +4576,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6219,8 +6219,8 @@
   </sheetPr>
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6256,11 +6256,11 @@
     </row>
     <row r="2" spans="1:24" ht="21">
       <c r="A2" s="8"/>
-      <c r="B2" s="211" t="str">
+      <c r="B2" s="208" t="str">
         <f>CONCATENATE(INFO!C4, " ", "DCF")</f>
         <v xml:space="preserve"> DCF</v>
       </c>
-      <c r="C2" s="212"/>
+      <c r="C2" s="209"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="207" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="206"/>
@@ -6361,7 +6361,7 @@
         <v>45330</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="205" t="s">
+      <c r="E5" s="207" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="206"/>
@@ -6424,10 +6424,10 @@
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="213"/>
+      <c r="C7" s="211"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -6458,7 +6458,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="210" t="s">
+      <c r="F8" s="205" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="206"/>
@@ -6470,7 +6470,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="210" t="s">
+      <c r="N8" s="205" t="s">
         <v>43</v>
       </c>
       <c r="O8" s="206"/>
@@ -6486,7 +6486,7 @@
     </row>
     <row r="9" spans="1:24" ht="15">
       <c r="A9" s="1"/>
-      <c r="B9" s="205" t="s">
+      <c r="B9" s="207" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="206"/>
@@ -6494,28 +6494,28 @@
         <v>2</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="205" t="e">
+      <c r="F9" s="207" t="e">
         <f>CONCATENATE("Revenue", " ",Q43)</f>
         <v>#VALUE!</v>
       </c>
       <c r="G9" s="206"/>
       <c r="H9" s="2" t="e">
         <f>Q47-1%</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="205" t="e">
+      <c r="N9" s="207" t="e">
         <f>CONCATENATE("Revenue ", Q43)</f>
         <v>#VALUE!</v>
       </c>
       <c r="O9" s="206"/>
       <c r="P9" s="2" t="e">
         <f>Q47+1%</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="10" spans="1:24" ht="15">
       <c r="A10" s="1"/>
-      <c r="B10" s="205" t="s">
+      <c r="B10" s="207" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="206"/>
@@ -6535,7 +6535,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="205" t="e">
+      <c r="F10" s="207" t="e">
         <f>CONCATENATE("Revenue ", Z43)</f>
         <v>#VALUE!</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>0.03</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="205" t="e">
+      <c r="J10" s="207" t="e">
         <f>CONCATENATE("Revenue ", Z43)</f>
         <v>#VALUE!</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0.05</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="205" t="e">
+      <c r="N10" s="207" t="e">
         <f>CONCATENATE("Revenue ", Z43)</f>
         <v>#VALUE!</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>0.09</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="205" t="e">
+      <c r="J14" s="207" t="e">
         <f>CONCATENATE("CapEx ", Z43)</f>
         <v>#VALUE!</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="205" t="e">
+      <c r="N14" s="207" t="e">
         <f>CONCATENATE("CapEx ", Z43)</f>
         <v>#VALUE!</v>
       </c>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="17" spans="1:24" ht="15">
       <c r="A17" s="1"/>
-      <c r="B17" s="210" t="s">
+      <c r="B17" s="205" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="206"/>
@@ -6932,7 +6932,7 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="209" t="s">
+      <c r="B21" s="210" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="206"/>
@@ -7060,16 +7060,16 @@
         <v>0</v>
       </c>
       <c r="Q22" s="21" t="e">
-        <f>IF(ISBLANK(U22), IF(ISBLANK(#REF!), O22*(1+AVERAGE($G$23:O23)),#REF!/ 1000000), U22)</f>
-        <v>#REF!</v>
+        <f>IF(ISBLANK(U22),IF(OR(ISBLANK(RESEARCH!G15),RESEARCH!G13&lt;&gt;Q21),IF(OR(ISBLANK(RESEARCH!H15),RESEARCH!H13&lt;&gt;Q21),O22*(1+AVERAGE($G$23:O23)),RESEARCH!H15/1000000),RESEARCH!G15/1000000),U22)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="R22" s="20" t="e">
-        <f>IF(ISBLANK(V22), IF(ISBLANK(#REF!), Q22*(1+AVERAGE($G$23:O23, Q23)),#REF!/ 1000000), V22)</f>
-        <v>#REF!</v>
+        <f>IF(ISBLANK(V22), IF(OR(ISBLANK(RESEARCH!H15),RESEARCH!H13&lt;&gt;R21), Q22*(1+AVERAGE($G$23:O23,Q23)), RESEARCH!H15/1000000), V22)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="S22" s="20" t="e">
-        <f>IF(ISBLANK(W22), IF(ISBLANK(#REF!), R22*(1+AVERAGE($G$23:O23,Q23:R23)),#REF!/ 1000000), W22)</f>
-        <v>#REF!</v>
+        <f>IF(ISBLANK(W22), R22*(1+AVERAGE($G$23:O23,Q23:R23)), W22)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T22" s="20"/>
       <c r="U22" s="22"/>
@@ -7124,15 +7124,15 @@
       <c r="P23" s="25"/>
       <c r="Q23" s="25" t="e">
         <f>(Q22/O22)-1</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R23" s="24" t="e">
         <f t="shared" ref="R23:S23" si="3">(R22/Q22)-1</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S23" s="24" t="e">
         <f t="shared" si="3"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T23" s="24"/>
       <c r="U23" s="26"/>
@@ -7232,7 +7232,7 @@
     </row>
     <row r="26" spans="1:24" ht="15">
       <c r="A26" s="1"/>
-      <c r="B26" s="208" t="s">
+      <c r="B26" s="212" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="206"/>
@@ -7465,7 +7465,7 @@
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="209" t="s">
+      <c r="B31" s="210" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="206"/>
@@ -7612,7 +7612,7 @@
     </row>
     <row r="33" spans="1:26" ht="15">
       <c r="A33" s="1"/>
-      <c r="B33" s="208" t="s">
+      <c r="B33" s="212" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="206"/>
@@ -7664,15 +7664,15 @@
       </c>
       <c r="Q33" s="25" t="e">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R33" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S33" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T33" s="1"/>
       <c r="U33" s="28"/>
@@ -7682,7 +7682,7 @@
     </row>
     <row r="34" spans="1:26" ht="15">
       <c r="A34" s="1"/>
-      <c r="B34" s="208" t="s">
+      <c r="B34" s="212" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="206"/>
@@ -7764,7 +7764,7 @@
     </row>
     <row r="36" spans="1:26" ht="15">
       <c r="A36" s="1"/>
-      <c r="B36" s="205" t="s">
+      <c r="B36" s="207" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="206"/>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="37" spans="1:26" ht="15">
       <c r="A37" s="1"/>
-      <c r="B37" s="208" t="s">
+      <c r="B37" s="212" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="206"/>
@@ -7886,15 +7886,15 @@
       </c>
       <c r="Q37" s="25" t="e">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R37" s="24" t="e">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S37" s="24" t="e">
         <f t="shared" si="10"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="39" spans="1:26" ht="15">
       <c r="A39" s="1"/>
-      <c r="B39" s="205" t="s">
+      <c r="B39" s="207" t="s">
         <v>63</v>
       </c>
       <c r="C39" s="206"/>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="40" spans="1:26" ht="15">
       <c r="A40" s="1"/>
-      <c r="B40" s="208" t="s">
+      <c r="B40" s="212" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="206"/>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="41" spans="1:26" ht="15">
       <c r="A41" s="1"/>
-      <c r="B41" s="208" t="s">
+      <c r="B41" s="212" t="s">
         <v>64</v>
       </c>
       <c r="C41" s="206"/>
@@ -8305,43 +8305,43 @@
       </c>
       <c r="Q44" s="38" t="e">
         <f ca="1">O44*(1+Q45)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R44" s="38" t="e">
         <f t="shared" ref="R44:Z44" ca="1" si="17">Q44*(1+R45)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S44" s="38" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T44" s="38" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U44" s="38" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V44" s="38" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W44" s="38" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X44" s="38" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Y44" s="38" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z44" s="38" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="15">
@@ -8392,39 +8392,39 @@
       <c r="P45" s="40"/>
       <c r="Q45" s="25" t="e">
         <f t="shared" ref="Q45:Z45" ca="1" si="19">OFFSET(Q45,$D$9,0)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R45" s="25" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S45" s="25" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T45" s="41" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U45" s="41" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V45" s="41" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W45" s="41" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X45" s="41" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Y45" s="41" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z45" s="40">
         <f t="shared" ca="1" si="19"/>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="46" spans="1:26" ht="15">
       <c r="A46" s="1"/>
-      <c r="B46" s="205" t="s">
+      <c r="B46" s="207" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="206"/>
@@ -8449,39 +8449,39 @@
       <c r="P46" s="27"/>
       <c r="Q46" s="42" t="e">
         <f>H9</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R46" s="43" t="e">
         <f t="shared" ref="R46:S46" si="20">Q46-(Q47-R47)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S46" s="43" t="e">
         <f t="shared" si="20"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T46" s="43" t="e">
         <f t="shared" ref="T46:Y46" si="21">S46-(($S$46-$Z$46)/($Z$43-$S$43))</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U46" s="43" t="e">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V46" s="43" t="e">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W46" s="43" t="e">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X46" s="43" t="e">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Y46" s="43" t="e">
         <f t="shared" si="21"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z46" s="44">
         <f>H10</f>
@@ -8490,7 +8490,7 @@
     </row>
     <row r="47" spans="1:26" ht="15">
       <c r="A47" s="1"/>
-      <c r="B47" s="205" t="s">
+      <c r="B47" s="207" t="s">
         <v>65</v>
       </c>
       <c r="C47" s="206"/>
@@ -8506,39 +8506,39 @@
       <c r="P47" s="27"/>
       <c r="Q47" s="45" t="e">
         <f t="shared" ref="Q47:S47" si="22">Q23</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R47" s="45" t="e">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S47" s="45" t="e">
         <f t="shared" si="22"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T47" s="43" t="e">
         <f t="shared" ref="T47:Y47" si="23">S47-(($S$47-$Z$47)/($Z$43-$S$43))</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U47" s="46" t="e">
         <f t="shared" si="23"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V47" s="46" t="e">
         <f t="shared" si="23"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W47" s="46" t="e">
         <f t="shared" si="23"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X47" s="46" t="e">
         <f t="shared" si="23"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Y47" s="46" t="e">
         <f t="shared" si="23"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z47" s="47">
         <f>L10</f>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="48" spans="1:26" ht="15">
       <c r="A48" s="1"/>
-      <c r="B48" s="205" t="s">
+      <c r="B48" s="207" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="206"/>
@@ -8563,39 +8563,39 @@
       <c r="P48" s="27"/>
       <c r="Q48" s="42" t="e">
         <f>P9</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R48" s="43" t="e">
         <f t="shared" ref="R48:S48" si="24">Q48+(R47-Q47)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S48" s="43" t="e">
         <f t="shared" si="24"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T48" s="43" t="e">
         <f t="shared" ref="T48:Y48" si="25">S48-(($S$48-$Z$48)/($Z$43-$S$43))</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U48" s="46" t="e">
         <f t="shared" si="25"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V48" s="46" t="e">
         <f t="shared" si="25"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W48" s="46" t="e">
         <f t="shared" si="25"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X48" s="46" t="e">
         <f t="shared" si="25"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Y48" s="46" t="e">
         <f t="shared" si="25"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z48" s="47">
         <f>P10</f>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="52" spans="1:26" ht="15">
       <c r="A52" s="1"/>
-      <c r="B52" s="205" t="s">
+      <c r="B52" s="207" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="206"/>
@@ -8872,7 +8872,7 @@
     </row>
     <row r="53" spans="1:26" ht="15">
       <c r="A53" s="1"/>
-      <c r="B53" s="205" t="s">
+      <c r="B53" s="207" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="206"/>
@@ -8929,7 +8929,7 @@
     </row>
     <row r="54" spans="1:26" ht="15">
       <c r="A54" s="1"/>
-      <c r="B54" s="205" t="s">
+      <c r="B54" s="207" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="206"/>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="58" spans="1:26" ht="15">
       <c r="A58" s="1"/>
-      <c r="B58" s="205" t="s">
+      <c r="B58" s="207" t="s">
         <v>41</v>
       </c>
       <c r="C58" s="206"/>
@@ -9254,7 +9254,7 @@
     </row>
     <row r="59" spans="1:26" ht="15">
       <c r="A59" s="1"/>
-      <c r="B59" s="205" t="s">
+      <c r="B59" s="207" t="s">
         <v>65</v>
       </c>
       <c r="C59" s="206"/>
@@ -9311,7 +9311,7 @@
     </row>
     <row r="60" spans="1:26" ht="15">
       <c r="A60" s="1"/>
-      <c r="B60" s="205" t="s">
+      <c r="B60" s="207" t="s">
         <v>43</v>
       </c>
       <c r="C60" s="206"/>
@@ -9536,43 +9536,43 @@
       </c>
       <c r="Q64" s="63" t="e">
         <f t="shared" ref="Q64:Z64" ca="1" si="46">Q44*Q65</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R64" s="63" t="e">
         <f t="shared" ca="1" si="46"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S64" s="63" t="e">
         <f t="shared" ca="1" si="46"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T64" s="63" t="e">
         <f t="shared" ca="1" si="46"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U64" s="63" t="e">
         <f t="shared" ca="1" si="46"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V64" s="63" t="e">
         <f t="shared" ca="1" si="46"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W64" s="63" t="e">
         <f t="shared" ca="1" si="46"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X64" s="63" t="e">
         <f t="shared" ca="1" si="46"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Y64" s="63" t="e">
         <f t="shared" ca="1" si="46"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z64" s="63" t="e">
         <f t="shared" ca="1" si="46"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="15">
@@ -9670,7 +9670,7 @@
     </row>
     <row r="66" spans="1:28" ht="15">
       <c r="A66" s="1"/>
-      <c r="B66" s="205" t="s">
+      <c r="B66" s="207" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="206"/>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="67" spans="1:28" ht="15">
       <c r="A67" s="1"/>
-      <c r="B67" s="205" t="s">
+      <c r="B67" s="207" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="206"/>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="68" spans="1:28" ht="15">
       <c r="A68" s="1"/>
-      <c r="B68" s="205" t="s">
+      <c r="B68" s="207" t="s">
         <v>43</v>
       </c>
       <c r="C68" s="206"/>
@@ -9930,43 +9930,43 @@
       </c>
       <c r="Q70" s="63" t="e">
         <f t="shared" ref="Q70:Z70" ca="1" si="53">Q44*Q71</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R70" s="63" t="e">
         <f t="shared" ca="1" si="53"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S70" s="63" t="e">
         <f t="shared" ca="1" si="53"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T70" s="63" t="e">
         <f t="shared" ca="1" si="53"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U70" s="63" t="e">
         <f t="shared" ca="1" si="53"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V70" s="63" t="e">
         <f t="shared" ca="1" si="53"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W70" s="63" t="e">
         <f t="shared" ca="1" si="53"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X70" s="63" t="e">
         <f t="shared" ca="1" si="53"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Y70" s="63" t="e">
         <f t="shared" ca="1" si="53"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z70" s="63" t="e">
         <f t="shared" ca="1" si="53"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="15">
@@ -10023,39 +10023,39 @@
       </c>
       <c r="Q71" s="40" t="e">
         <f t="shared" ref="Q71:Z71" ca="1" si="55">OFFSET(Q71,$D$13,0)</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R71" s="40" t="e">
         <f t="shared" ca="1" si="55"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S71" s="40" t="e">
         <f t="shared" ca="1" si="55"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T71" s="41" t="e">
         <f t="shared" ca="1" si="55"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U71" s="41" t="e">
         <f t="shared" ca="1" si="55"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V71" s="41" t="e">
         <f t="shared" ca="1" si="55"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W71" s="41" t="e">
         <f t="shared" ca="1" si="55"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X71" s="41" t="e">
         <f t="shared" ca="1" si="55"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Y71" s="41" t="e">
         <f t="shared" ca="1" si="55"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z71" s="40">
         <f t="shared" ca="1" si="55"/>
@@ -10067,7 +10067,7 @@
     </row>
     <row r="72" spans="1:28" ht="15">
       <c r="A72" s="1"/>
-      <c r="B72" s="205" t="s">
+      <c r="B72" s="207" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="206"/>
@@ -10086,39 +10086,39 @@
       <c r="P72" s="29"/>
       <c r="Q72" s="55" t="e">
         <f>Q73</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R72" s="56" t="e">
         <f t="shared" ref="R72:S72" si="56">Q72+$AB$72</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S72" s="56" t="e">
         <f t="shared" si="56"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T72" s="49" t="e">
         <f t="shared" ref="T72:Y72" si="57">S72-(($S$72-$Z$72)/($Z$43-$S$43))</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U72" s="49" t="e">
         <f t="shared" si="57"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V72" s="49" t="e">
         <f t="shared" si="57"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W72" s="49" t="e">
         <f t="shared" si="57"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X72" s="49" t="e">
         <f t="shared" si="57"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Y72" s="49" t="e">
         <f t="shared" si="57"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z72" s="44">
         <f>H14</f>
@@ -10131,7 +10131,7 @@
     </row>
     <row r="73" spans="1:28" ht="15">
       <c r="A73" s="1"/>
-      <c r="B73" s="205" t="s">
+      <c r="B73" s="207" t="s">
         <v>65</v>
       </c>
       <c r="C73" s="206"/>
@@ -10150,39 +10150,39 @@
       <c r="P73" s="29"/>
       <c r="Q73" s="59" t="e">
         <f>Q37</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R73" s="47" t="e">
         <f t="shared" ref="R73:S73" si="58">Q73</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S73" s="47" t="e">
         <f t="shared" si="58"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T73" s="46" t="e">
         <f t="shared" ref="T73:Y73" si="59">S73-(($S$73-$Z$73)/($Z$43-$S$43))</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U73" s="46" t="e">
         <f t="shared" si="59"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V73" s="46" t="e">
         <f t="shared" si="59"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W73" s="46" t="e">
         <f t="shared" si="59"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X73" s="46" t="e">
         <f t="shared" si="59"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Y73" s="46" t="e">
         <f t="shared" si="59"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z73" s="47">
         <f>L14</f>
@@ -10191,7 +10191,7 @@
     </row>
     <row r="74" spans="1:28" ht="15">
       <c r="A74" s="1"/>
-      <c r="B74" s="205" t="s">
+      <c r="B74" s="207" t="s">
         <v>43</v>
       </c>
       <c r="C74" s="206"/>
@@ -10210,39 +10210,39 @@
       <c r="P74" s="29"/>
       <c r="Q74" s="59" t="e">
         <f>Q73</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R74" s="58" t="e">
         <f t="shared" ref="R74:S74" si="60">Q74+$AB$74</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S74" s="58" t="e">
         <f t="shared" si="60"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T74" s="46" t="e">
         <f t="shared" ref="T74:Y74" si="61">S74-(($S$74-$Z$74)/($Z$43-$S$43))</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U74" s="46" t="e">
         <f t="shared" si="61"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V74" s="46" t="e">
         <f t="shared" si="61"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W74" s="46" t="e">
         <f t="shared" si="61"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="X74" s="46" t="e">
         <f t="shared" si="61"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Y74" s="46" t="e">
         <f t="shared" si="61"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="Z74" s="58">
         <f>P14</f>
@@ -10282,7 +10282,7 @@
     </row>
     <row r="76" spans="1:28" ht="15">
       <c r="A76" s="1"/>
-      <c r="B76" s="205" t="s">
+      <c r="B76" s="207" t="s">
         <v>63</v>
       </c>
       <c r="C76" s="206"/>
@@ -10496,7 +10496,7 @@
     </row>
     <row r="79" spans="1:28" ht="15">
       <c r="A79" s="1"/>
-      <c r="B79" s="207" t="s">
+      <c r="B79" s="213" t="s">
         <v>70</v>
       </c>
       <c r="C79" s="206"/>
@@ -10556,7 +10556,7 @@
     </row>
     <row r="80" spans="1:28" ht="15">
       <c r="A80" s="1"/>
-      <c r="B80" s="205" t="s">
+      <c r="B80" s="207" t="s">
         <v>71</v>
       </c>
       <c r="C80" s="206"/>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="81" spans="1:26" ht="15">
       <c r="A81" s="1"/>
-      <c r="B81" s="205" t="s">
+      <c r="B81" s="207" t="s">
         <v>72</v>
       </c>
       <c r="C81" s="206"/>
@@ -10644,7 +10644,7 @@
     </row>
     <row r="82" spans="1:26" ht="15">
       <c r="A82" s="1"/>
-      <c r="B82" s="205" t="s">
+      <c r="B82" s="207" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="206"/>
@@ -10676,7 +10676,7 @@
     </row>
     <row r="83" spans="1:26" ht="15">
       <c r="A83" s="1"/>
-      <c r="B83" s="205" t="s">
+      <c r="B83" s="207" t="s">
         <v>74</v>
       </c>
       <c r="C83" s="206"/>
@@ -10772,7 +10772,7 @@
     </row>
     <row r="86" spans="1:26" ht="15">
       <c r="A86" s="1"/>
-      <c r="B86" s="205" t="s">
+      <c r="B86" s="207" t="s">
         <v>77</v>
       </c>
       <c r="C86" s="206"/>
@@ -10804,7 +10804,7 @@
     </row>
     <row r="87" spans="1:26" ht="15">
       <c r="A87" s="1"/>
-      <c r="B87" s="205" t="s">
+      <c r="B87" s="207" t="s">
         <v>78</v>
       </c>
       <c r="C87" s="206"/>
@@ -10836,7 +10836,7 @@
     </row>
     <row r="88" spans="1:26" ht="15">
       <c r="A88" s="1"/>
-      <c r="B88" s="205" t="s">
+      <c r="B88" s="207" t="s">
         <v>79</v>
       </c>
       <c r="C88" s="206"/>
@@ -10894,39 +10894,11 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B66:C66"/>
@@ -10939,11 +10911,39 @@
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="F76:P76">
     <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThanOrEqual">
@@ -11066,7 +11066,7 @@
     </row>
     <row r="5" spans="1:26" ht="15">
       <c r="A5" s="1"/>
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="205" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="206"/>
@@ -11080,7 +11080,7 @@
     </row>
     <row r="6" spans="1:26" ht="15">
       <c r="A6" s="1"/>
-      <c r="B6" s="210" t="s">
+      <c r="B6" s="205" t="s">
         <v>81</v>
       </c>
       <c r="C6" s="206"/>
@@ -11164,7 +11164,7 @@
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="1"/>
-      <c r="B10" s="205" t="s">
+      <c r="B10" s="207" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="206"/>
@@ -11204,7 +11204,7 @@
     </row>
     <row r="13" spans="1:26" ht="15">
       <c r="A13" s="1"/>
-      <c r="B13" s="205" t="s">
+      <c r="B13" s="207" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="206"/>
@@ -11238,7 +11238,7 @@
     </row>
     <row r="15" spans="1:26" ht="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="205" t="s">
+      <c r="B15" s="207" t="s">
         <v>90</v>
       </c>
       <c r="C15" s="206"/>
@@ -11258,7 +11258,7 @@
     </row>
     <row r="16" spans="1:26" ht="15">
       <c r="A16" s="1"/>
-      <c r="B16" s="205" t="s">
+      <c r="B16" s="207" t="s">
         <v>92</v>
       </c>
       <c r="C16" s="206"/>
@@ -11308,7 +11308,7 @@
     </row>
     <row r="18" spans="1:14" ht="15">
       <c r="A18" s="1"/>
-      <c r="B18" s="205" t="s">
+      <c r="B18" s="207" t="s">
         <v>83</v>
       </c>
       <c r="C18" s="206"/>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="20" spans="1:14" ht="15">
       <c r="A20" s="1"/>
-      <c r="B20" s="205" t="s">
+      <c r="B20" s="207" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="206"/>
@@ -11433,13 +11433,13 @@
   <sheetData>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="211" t="e">
+      <c r="B2" s="208" t="e">
         <f>CONCATENATE(#REF!," Revenue Breakdown")</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -11461,7 +11461,7 @@
       <c r="X2" s="8"/>
     </row>
     <row r="4" spans="1:24" ht="15">
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="210" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="206"/>
@@ -12602,7 +12602,7 @@
       </c>
     </row>
     <row r="57" spans="2:21" ht="15">
-      <c r="B57" s="209" t="s">
+      <c r="B57" s="210" t="s">
         <v>107</v>
       </c>
       <c r="C57" s="206"/>
@@ -13334,10 +13334,10 @@
     </row>
     <row r="4" spans="1:25" ht="15">
       <c r="A4" s="1"/>
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="213"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -13369,7 +13369,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="210"/>
+      <c r="F5" s="205"/>
       <c r="G5" s="206"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -13390,7 +13390,7 @@
     </row>
     <row r="6" spans="1:25" ht="15">
       <c r="A6" s="1"/>
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="207" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="206"/>
@@ -13401,7 +13401,7 @@
       <c r="H6" s="222"/>
       <c r="I6" s="223"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="205" t="e">
+      <c r="K6" s="207" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -15041,7 +15041,7 @@
         <f>(B11&amp;" Valuation")</f>
         <v>0 Valuation</v>
       </c>
-      <c r="C41" s="213"/>
+      <c r="C41" s="211"/>
       <c r="D41" s="179"/>
       <c r="E41" s="179"/>
       <c r="F41" s="179"/>
@@ -15419,12 +15419,12 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B2" s="211" t="e">
+      <c r="B2" s="208" t="e">
         <f>CONCATENATE(#REF!," EBITDA Multiple")</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -15478,7 +15478,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="207" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="206"/>
@@ -15516,7 +15516,7 @@
         <v>45330</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="205" t="s">
+      <c r="E5" s="207" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="206"/>
@@ -15525,7 +15525,7 @@
         <v>#REF!</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="205" t="s">
+      <c r="I5" s="207" t="s">
         <v>38</v>
       </c>
       <c r="J5" s="206"/>
@@ -15574,7 +15574,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="2:23" ht="15">
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="210" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="206"/>
@@ -15606,7 +15606,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="210" t="s">
+      <c r="F8" s="205" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="206"/>
@@ -15618,7 +15618,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="210" t="s">
+      <c r="N8" s="205" t="s">
         <v>43</v>
       </c>
       <c r="O8" s="206"/>
@@ -15632,7 +15632,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="2:23" ht="15">
-      <c r="B9" s="205" t="s">
+      <c r="B9" s="207" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="206"/>
@@ -15640,7 +15640,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="205" t="e">
+      <c r="F9" s="207" t="e">
         <f>CONCATENATE("Revenue ", Q39)</f>
         <v>#REF!</v>
       </c>
@@ -15654,7 +15654,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="205" t="e">
+      <c r="N9" s="207" t="e">
         <f>CONCATENATE("Revenue ", Q39)</f>
         <v>#REF!</v>
       </c>
@@ -15671,7 +15671,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="2:23" ht="15">
-      <c r="B10" s="205" t="s">
+      <c r="B10" s="207" t="s">
         <v>151</v>
       </c>
       <c r="C10" s="206"/>
@@ -15679,7 +15679,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="205" t="e">
+      <c r="F10" s="207" t="e">
         <f>CONCATENATE("Revenue ", Z39)</f>
         <v>#REF!</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>0.03</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="205" t="e">
+      <c r="J10" s="207" t="e">
         <f>CONCATENATE("Revenue ", Z39)</f>
         <v>#REF!</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>0.05</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="205" t="e">
+      <c r="N10" s="207" t="e">
         <f>CONCATENATE("Revenue ", Z39)</f>
         <v>#REF!</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>0.09</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="205" t="e">
+      <c r="J14" s="207" t="e">
         <f>CONCATENATE("CapEx ", Z39)</f>
         <v>#REF!</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="205" t="e">
+      <c r="N14" s="207" t="e">
         <f>CONCATENATE("CapEx ", Z39)</f>
         <v>#REF!</v>
       </c>
@@ -15944,7 +15944,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15">
-      <c r="B17" s="210" t="s">
+      <c r="B17" s="205" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="206"/>
@@ -16055,7 +16055,7 @@
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="209" t="s">
+      <c r="B21" s="210" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="206"/>
@@ -16350,7 +16350,7 @@
       <c r="W25" s="22"/>
     </row>
     <row r="26" spans="1:26" ht="15">
-      <c r="B26" s="208" t="s">
+      <c r="B26" s="212" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="206"/>
@@ -16693,7 +16693,7 @@
     </row>
     <row r="31" spans="1:26" ht="15">
       <c r="A31" s="1"/>
-      <c r="B31" s="205" t="s">
+      <c r="B31" s="207" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="206"/>
@@ -16750,7 +16750,7 @@
     </row>
     <row r="32" spans="1:26" ht="15">
       <c r="A32" s="1"/>
-      <c r="B32" s="205" t="s">
+      <c r="B32" s="207" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="206"/>
@@ -16807,7 +16807,7 @@
     </row>
     <row r="33" spans="1:26" ht="15">
       <c r="A33" s="1"/>
-      <c r="B33" s="205" t="s">
+      <c r="B33" s="207" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="206"/>
@@ -17075,7 +17075,7 @@
     </row>
     <row r="37" spans="1:26" ht="15">
       <c r="A37" s="1"/>
-      <c r="B37" s="205" t="s">
+      <c r="B37" s="207" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="206"/>
@@ -17132,7 +17132,7 @@
     </row>
     <row r="38" spans="1:26" ht="15">
       <c r="A38" s="1"/>
-      <c r="B38" s="205" t="s">
+      <c r="B38" s="207" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="206"/>
@@ -17189,7 +17189,7 @@
     </row>
     <row r="39" spans="1:26" ht="15">
       <c r="A39" s="1"/>
-      <c r="B39" s="205" t="s">
+      <c r="B39" s="207" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="206"/>
@@ -17271,6 +17271,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="B2:D2"/>
@@ -17285,17 +17296,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:L5">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">

--- a/src/main/resources/templates/FINDich.xlsx
+++ b/src/main/resources/templates/FINDich.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koko/IdeaProjects/FinanceProjects/stock-financial-report-analyzer/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73A4985-9C21-FA40-90D9-2DBA4F74F6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C78D97A-8EB9-7F4D-98C7-3D85C24A8146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="27040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="479">
   <si>
     <t>Ticker</t>
   </si>
@@ -1482,6 +1482,12 @@
   </si>
   <si>
     <t xml:space="preserve">  90 Days Ago</t>
+  </si>
+  <si>
+    <t>Price / Earnings</t>
+  </si>
+  <si>
+    <t>FIXME | TBD</t>
   </si>
 </sst>
 </file>
@@ -2905,15 +2911,15 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2941,14 +2947,11 @@
     <xf numFmtId="0" fontId="39" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="32" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="9" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2956,7 +2959,19 @@
     <xf numFmtId="177" fontId="9" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="32" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2974,16 +2989,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3682,9 +3688,14 @@
     </row>
     <row r="18" spans="2:8" ht="15">
       <c r="B18" s="155" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3184790000</v>
+      </c>
+      <c r="D18" s="155" t="s">
+        <v>478</v>
+      </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
@@ -3695,7 +3706,7 @@
     </row>
     <row r="19" spans="2:8" ht="15">
       <c r="B19" s="155" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="155" t="s">
@@ -3711,7 +3722,7 @@
     </row>
     <row r="20" spans="2:8" ht="15">
       <c r="B20" s="155" t="s">
-        <v>438</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="155" t="s">
@@ -3726,6 +3737,13 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="15">
+      <c r="B21" s="155" t="s">
+        <v>437</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="155" t="s">
+        <v>439</v>
+      </c>
       <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
@@ -3735,6 +3753,13 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="15">
+      <c r="B22" s="155" t="s">
+        <v>438</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="155" t="s">
+        <v>439</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
@@ -3792,7 +3817,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="15.75" customHeight="1">
+    <row r="28" spans="2:8" ht="15">
       <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
@@ -3801,7 +3826,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15.75" customHeight="1">
+    <row r="29" spans="2:8" ht="15">
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
@@ -3955,34 +3980,34 @@
       <c r="B2" s="227" t="s">
         <v>440</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
+      <c r="H2" s="238"/>
     </row>
     <row r="3" spans="2:8" ht="13" customHeight="1">
-      <c r="B3" s="236"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="237"/>
-      <c r="H3" s="237"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
     </row>
     <row r="4" spans="2:8" ht="16" customHeight="1">
       <c r="B4" s="191" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="238" t="s">
+      <c r="C4" s="241" t="s">
         <v>468</v>
       </c>
-      <c r="D4" s="239"/>
-      <c r="E4" s="238" t="s">
+      <c r="D4" s="242"/>
+      <c r="E4" s="241" t="s">
         <v>469</v>
       </c>
-      <c r="F4" s="239"/>
+      <c r="F4" s="242"/>
       <c r="G4" s="196" t="s">
         <v>470</v>
       </c>
@@ -4003,10 +4028,10 @@
       <c r="B6" s="135" t="s">
         <v>446</v>
       </c>
-      <c r="C6" s="231"/>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
       <c r="G6" s="148"/>
       <c r="H6" s="148"/>
     </row>
@@ -4014,10 +4039,10 @@
       <c r="B7" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="230"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="233"/>
       <c r="G7" s="147"/>
       <c r="H7" s="147"/>
     </row>
@@ -4025,10 +4050,10 @@
       <c r="B8" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
+      <c r="F8" s="233"/>
       <c r="G8" s="147"/>
       <c r="H8" s="147"/>
     </row>
@@ -4036,10 +4061,10 @@
       <c r="B9" s="135" t="s">
         <v>443</v>
       </c>
-      <c r="C9" s="230"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="230"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="233"/>
       <c r="G9" s="147"/>
       <c r="H9" s="147"/>
     </row>
@@ -4047,10 +4072,10 @@
       <c r="B10" s="135" t="s">
         <v>442</v>
       </c>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
       <c r="G10" s="147"/>
       <c r="H10" s="147"/>
     </row>
@@ -4067,14 +4092,14 @@
       <c r="B12" s="193" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="240" t="s">
+      <c r="C12" s="229" t="s">
         <v>468</v>
       </c>
-      <c r="D12" s="241"/>
-      <c r="E12" s="240" t="s">
+      <c r="D12" s="230"/>
+      <c r="E12" s="229" t="s">
         <v>469</v>
       </c>
-      <c r="F12" s="241"/>
+      <c r="F12" s="230"/>
       <c r="G12" s="195" t="s">
         <v>470</v>
       </c>
@@ -4095,10 +4120,10 @@
       <c r="B14" s="135" t="s">
         <v>446</v>
       </c>
-      <c r="C14" s="231"/>
-      <c r="D14" s="231"/>
-      <c r="E14" s="231"/>
-      <c r="F14" s="231"/>
+      <c r="C14" s="236"/>
+      <c r="D14" s="236"/>
+      <c r="E14" s="236"/>
+      <c r="F14" s="236"/>
       <c r="G14" s="148"/>
       <c r="H14" s="148"/>
     </row>
@@ -4106,10 +4131,10 @@
       <c r="B15" s="135" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="242"/>
-      <c r="D15" s="242"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="242"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="237"/>
       <c r="G15" s="148"/>
       <c r="H15" s="148"/>
     </row>
@@ -4117,10 +4142,10 @@
       <c r="B16" s="135" t="s">
         <v>444</v>
       </c>
-      <c r="C16" s="242"/>
-      <c r="D16" s="242"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="242"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="237"/>
       <c r="G16" s="148"/>
       <c r="H16" s="148"/>
     </row>
@@ -4128,10 +4153,10 @@
       <c r="B17" s="135" t="s">
         <v>443</v>
       </c>
-      <c r="C17" s="242"/>
-      <c r="D17" s="242"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="242"/>
+      <c r="C17" s="237"/>
+      <c r="D17" s="237"/>
+      <c r="E17" s="237"/>
+      <c r="F17" s="237"/>
       <c r="G17" s="148"/>
       <c r="H17" s="148"/>
     </row>
@@ -4139,10 +4164,10 @@
       <c r="B18" s="135" t="s">
         <v>448</v>
       </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
+      <c r="C18" s="237"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="237"/>
+      <c r="F18" s="237"/>
       <c r="G18" s="148"/>
       <c r="H18" s="148"/>
     </row>
@@ -4150,10 +4175,10 @@
       <c r="B19" s="135" t="s">
         <v>449</v>
       </c>
-      <c r="C19" s="242"/>
-      <c r="D19" s="242"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="242"/>
+      <c r="C19" s="237"/>
+      <c r="D19" s="237"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="237"/>
       <c r="G19" s="148"/>
       <c r="H19" s="148"/>
     </row>
@@ -4169,10 +4194,10 @@
       <c r="B21" s="137" t="s">
         <v>450</v>
       </c>
-      <c r="C21" s="240"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="240"/>
-      <c r="F21" s="241"/>
+      <c r="C21" s="229"/>
+      <c r="D21" s="230"/>
+      <c r="E21" s="229"/>
+      <c r="F21" s="230"/>
       <c r="G21" s="195"/>
       <c r="H21" s="195"/>
     </row>
@@ -4180,10 +4205,10 @@
       <c r="B22" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="C22" s="229"/>
-      <c r="D22" s="229"/>
-      <c r="E22" s="229"/>
-      <c r="F22" s="229"/>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="243"/>
+      <c r="F22" s="243"/>
       <c r="G22" s="147"/>
       <c r="H22" s="147"/>
     </row>
@@ -4191,10 +4216,10 @@
       <c r="B23" s="135" t="s">
         <v>452</v>
       </c>
-      <c r="C23" s="230"/>
-      <c r="D23" s="230"/>
-      <c r="E23" s="230"/>
-      <c r="F23" s="230"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="233"/>
       <c r="G23" s="147"/>
       <c r="H23" s="147"/>
     </row>
@@ -4202,10 +4227,10 @@
       <c r="B24" s="135" t="s">
         <v>453</v>
       </c>
-      <c r="C24" s="230"/>
-      <c r="D24" s="230"/>
-      <c r="E24" s="230"/>
-      <c r="F24" s="230"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="233"/>
+      <c r="F24" s="233"/>
       <c r="G24" s="147"/>
       <c r="H24" s="147"/>
     </row>
@@ -4213,10 +4238,10 @@
       <c r="B25" s="135" t="s">
         <v>454</v>
       </c>
-      <c r="C25" s="230"/>
-      <c r="D25" s="230"/>
-      <c r="E25" s="230"/>
-      <c r="F25" s="230"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="233"/>
       <c r="G25" s="147"/>
       <c r="H25" s="147"/>
     </row>
@@ -4224,10 +4249,10 @@
       <c r="B26" s="135" t="s">
         <v>455</v>
       </c>
-      <c r="C26" s="230"/>
-      <c r="D26" s="230"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="230"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="233"/>
       <c r="G26" s="199"/>
       <c r="H26" s="199"/>
     </row>
@@ -4235,10 +4260,10 @@
       <c r="B27" s="135" t="s">
         <v>456</v>
       </c>
-      <c r="C27" s="230"/>
-      <c r="D27" s="230"/>
-      <c r="E27" s="230"/>
-      <c r="F27" s="230"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="233"/>
+      <c r="F27" s="233"/>
       <c r="G27" s="199"/>
       <c r="H27" s="199"/>
     </row>
@@ -4256,14 +4281,14 @@
       <c r="B29" s="189" t="s">
         <v>467</v>
       </c>
-      <c r="C29" s="240" t="s">
+      <c r="C29" s="229" t="s">
         <v>468</v>
       </c>
-      <c r="D29" s="241"/>
-      <c r="E29" s="240" t="s">
+      <c r="D29" s="230"/>
+      <c r="E29" s="229" t="s">
         <v>469</v>
       </c>
-      <c r="F29" s="241"/>
+      <c r="F29" s="230"/>
       <c r="G29" s="195" t="s">
         <v>470</v>
       </c>
@@ -4298,10 +4323,10 @@
       <c r="B32" s="153" t="s">
         <v>473</v>
       </c>
-      <c r="C32" s="230"/>
-      <c r="D32" s="230"/>
-      <c r="E32" s="230"/>
-      <c r="F32" s="230"/>
+      <c r="C32" s="233"/>
+      <c r="D32" s="233"/>
+      <c r="E32" s="233"/>
+      <c r="F32" s="233"/>
       <c r="G32" s="197"/>
       <c r="H32" s="197"/>
     </row>
@@ -4310,10 +4335,10 @@
       <c r="B33" s="153" t="s">
         <v>474</v>
       </c>
-      <c r="C33" s="230"/>
-      <c r="D33" s="230"/>
-      <c r="E33" s="230"/>
-      <c r="F33" s="230"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="233"/>
       <c r="G33" s="197"/>
       <c r="H33" s="197"/>
     </row>
@@ -4322,10 +4347,10 @@
       <c r="B34" s="153" t="s">
         <v>475</v>
       </c>
-      <c r="C34" s="230"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="230"/>
-      <c r="F34" s="230"/>
+      <c r="C34" s="233"/>
+      <c r="D34" s="233"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="233"/>
       <c r="G34" s="197"/>
       <c r="H34" s="197"/>
     </row>
@@ -4334,10 +4359,10 @@
       <c r="B35" s="153" t="s">
         <v>476</v>
       </c>
-      <c r="C35" s="230"/>
-      <c r="D35" s="230"/>
-      <c r="E35" s="230"/>
-      <c r="F35" s="230"/>
+      <c r="C35" s="233"/>
+      <c r="D35" s="233"/>
+      <c r="E35" s="233"/>
+      <c r="F35" s="233"/>
       <c r="G35" s="197"/>
       <c r="H35" s="197"/>
     </row>
@@ -4355,10 +4380,10 @@
       <c r="B37" s="185" t="s">
         <v>457</v>
       </c>
-      <c r="C37" s="232"/>
-      <c r="D37" s="233"/>
-      <c r="E37" s="232"/>
-      <c r="F37" s="233"/>
+      <c r="C37" s="231"/>
+      <c r="D37" s="232"/>
+      <c r="E37" s="231"/>
+      <c r="F37" s="232"/>
       <c r="G37" s="198"/>
       <c r="H37" s="198"/>
     </row>
@@ -4366,10 +4391,10 @@
       <c r="B38" s="135" t="s">
         <v>458</v>
       </c>
-      <c r="C38" s="229"/>
-      <c r="D38" s="229"/>
-      <c r="E38" s="229"/>
-      <c r="F38" s="229"/>
+      <c r="C38" s="243"/>
+      <c r="D38" s="243"/>
+      <c r="E38" s="243"/>
+      <c r="F38" s="243"/>
       <c r="G38" s="147"/>
       <c r="H38" s="147"/>
     </row>
@@ -4377,10 +4402,10 @@
       <c r="B39" s="135" t="s">
         <v>459</v>
       </c>
-      <c r="C39" s="230"/>
-      <c r="D39" s="230"/>
-      <c r="E39" s="230"/>
-      <c r="F39" s="230"/>
+      <c r="C39" s="233"/>
+      <c r="D39" s="233"/>
+      <c r="E39" s="233"/>
+      <c r="F39" s="233"/>
       <c r="G39" s="147"/>
       <c r="H39" s="147"/>
     </row>
@@ -4388,10 +4413,10 @@
       <c r="B40" s="135" t="s">
         <v>460</v>
       </c>
-      <c r="C40" s="230"/>
-      <c r="D40" s="230"/>
-      <c r="E40" s="230"/>
-      <c r="F40" s="230"/>
+      <c r="C40" s="233"/>
+      <c r="D40" s="233"/>
+      <c r="E40" s="233"/>
+      <c r="F40" s="233"/>
       <c r="G40" s="147"/>
       <c r="H40" s="147"/>
     </row>
@@ -4399,10 +4424,10 @@
       <c r="B41" s="135" t="s">
         <v>461</v>
       </c>
-      <c r="C41" s="230"/>
-      <c r="D41" s="230"/>
-      <c r="E41" s="230"/>
-      <c r="F41" s="230"/>
+      <c r="C41" s="233"/>
+      <c r="D41" s="233"/>
+      <c r="E41" s="233"/>
+      <c r="F41" s="233"/>
       <c r="G41" s="147"/>
       <c r="H41" s="147"/>
     </row>
@@ -4420,14 +4445,14 @@
       <c r="B43" s="189" t="s">
         <v>462</v>
       </c>
-      <c r="C43" s="240" t="s">
+      <c r="C43" s="229" t="s">
         <v>468</v>
       </c>
-      <c r="D43" s="241"/>
-      <c r="E43" s="240" t="s">
+      <c r="D43" s="230"/>
+      <c r="E43" s="229" t="s">
         <v>469</v>
       </c>
-      <c r="F43" s="241"/>
+      <c r="F43" s="230"/>
       <c r="G43" s="195" t="s">
         <v>470</v>
       </c>
@@ -4462,10 +4487,10 @@
       <c r="B46" s="153" t="s">
         <v>464</v>
       </c>
-      <c r="C46" s="243"/>
-      <c r="D46" s="243"/>
-      <c r="E46" s="243"/>
-      <c r="F46" s="243"/>
+      <c r="C46" s="235"/>
+      <c r="D46" s="235"/>
+      <c r="E46" s="235"/>
+      <c r="F46" s="235"/>
       <c r="G46" s="197"/>
       <c r="H46" s="197"/>
     </row>
@@ -4474,10 +4499,10 @@
       <c r="B47" s="153" t="s">
         <v>465</v>
       </c>
-      <c r="C47" s="243"/>
-      <c r="D47" s="243"/>
-      <c r="E47" s="243"/>
-      <c r="F47" s="243"/>
+      <c r="C47" s="235"/>
+      <c r="D47" s="235"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="235"/>
       <c r="G47" s="197"/>
       <c r="H47" s="197"/>
     </row>
@@ -4486,10 +4511,10 @@
       <c r="B48" s="153" t="s">
         <v>466</v>
       </c>
-      <c r="C48" s="243"/>
-      <c r="D48" s="243"/>
-      <c r="E48" s="243"/>
-      <c r="F48" s="243"/>
+      <c r="C48" s="235"/>
+      <c r="D48" s="235"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="235"/>
       <c r="G48" s="197"/>
       <c r="H48" s="197"/>
     </row>
@@ -4503,62 +4528,6 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B2:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
@@ -4575,7 +4544,63 @@
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6219,8 +6244,8 @@
   </sheetPr>
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6256,11 +6281,11 @@
     </row>
     <row r="2" spans="1:24" ht="21">
       <c r="A2" s="8"/>
-      <c r="B2" s="208" t="str">
+      <c r="B2" s="211" t="str">
         <f>CONCATENATE(INFO!C4, " ", "DCF")</f>
         <v xml:space="preserve"> DCF</v>
       </c>
-      <c r="C2" s="209"/>
+      <c r="C2" s="212"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -6321,13 +6346,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="207" t="s">
+      <c r="E4" s="205" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="206"/>
       <c r="G4" s="11" t="e">
         <f ca="1">Z88</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -6358,16 +6383,16 @@
       </c>
       <c r="C5" s="13">
         <f ca="1">TODAY()</f>
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="207" t="s">
+      <c r="E5" s="205" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="206"/>
-      <c r="G5" s="14" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="G5" s="14">
+        <f>INFO!C15</f>
+        <v>0</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
@@ -6375,11 +6400,11 @@
       </c>
       <c r="K5" s="15" t="e">
         <f ca="1">U88/G5-1</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L5" s="15" t="e">
         <f ca="1">G4/G5-1</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -6424,10 +6449,10 @@
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="209" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="211"/>
+      <c r="C7" s="213"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -6458,7 +6483,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="205" t="s">
+      <c r="F8" s="210" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="206"/>
@@ -6470,7 +6495,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="205" t="s">
+      <c r="N8" s="210" t="s">
         <v>43</v>
       </c>
       <c r="O8" s="206"/>
@@ -6486,7 +6511,7 @@
     </row>
     <row r="9" spans="1:24" ht="15">
       <c r="A9" s="1"/>
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="205" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="206"/>
@@ -6494,7 +6519,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="207" t="e">
+      <c r="F9" s="205" t="e">
         <f>CONCATENATE("Revenue", " ",Q43)</f>
         <v>#VALUE!</v>
       </c>
@@ -6508,7 +6533,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="207" t="e">
+      <c r="N9" s="205" t="e">
         <f>CONCATENATE("Revenue ", Q43)</f>
         <v>#VALUE!</v>
       </c>
@@ -6527,7 +6552,7 @@
     </row>
     <row r="10" spans="1:24" ht="15">
       <c r="A10" s="1"/>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="205" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="206"/>
@@ -6535,7 +6560,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="207" t="e">
+      <c r="F10" s="205" t="e">
         <f>CONCATENATE("Revenue ", Z43)</f>
         <v>#VALUE!</v>
       </c>
@@ -6544,7 +6569,7 @@
         <v>0.03</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="207" t="e">
+      <c r="J10" s="205" t="e">
         <f>CONCATENATE("Revenue ", Z43)</f>
         <v>#VALUE!</v>
       </c>
@@ -6553,7 +6578,7 @@
         <v>0.05</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="207" t="e">
+      <c r="N10" s="205" t="e">
         <f>CONCATENATE("Revenue ", Z43)</f>
         <v>#VALUE!</v>
       </c>
@@ -6586,7 +6611,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="16" t="e">
         <f>Q53-1%</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
@@ -6605,7 +6630,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="16" t="e">
         <f>Q53+1%</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -6708,7 +6733,7 @@
         <v>0.09</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="207" t="e">
+      <c r="J14" s="205" t="e">
         <f>CONCATENATE("CapEx ", Z43)</f>
         <v>#VALUE!</v>
       </c>
@@ -6717,7 +6742,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="207" t="e">
+      <c r="N14" s="205" t="e">
         <f>CONCATENATE("CapEx ", Z43)</f>
         <v>#VALUE!</v>
       </c>
@@ -6814,7 +6839,7 @@
     </row>
     <row r="17" spans="1:24" ht="15">
       <c r="A17" s="1"/>
-      <c r="B17" s="205" t="s">
+      <c r="B17" s="210" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="206"/>
@@ -6932,7 +6957,7 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="209" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="206"/>
@@ -7214,16 +7239,16 @@
         <v>0</v>
       </c>
       <c r="Q25" s="21" t="e">
-        <f>IF(ISBLANK(U25), IF(ISBLANK(#REF!), O25*(1+AVERAGE($G$26:O26)),#REF!/ 1000000), U22)</f>
-        <v>#REF!</v>
+        <f>IF(ISBLANK(U25), O25*(1+AVERAGE($G$26:O26)),  U22)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="R25" s="20" t="e">
-        <f>IF(ISBLANK(V25), IF(ISBLANK(#REF!), Q25*(1+AVERAGE($G$26:O26,Q26)),#REF!/ 1000000), V22)</f>
-        <v>#REF!</v>
+        <f>IF(ISBLANK(V25),  Q25*(1+AVERAGE($G$26:O26,Q26)),  V22)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="S25" s="20" t="e">
-        <f>IF(ISBLANK(W25), IF(ISBLANK(#REF!), R25*(1+AVERAGE($G$26:O26,Q26:R26)),#REF!/ 1000000), W22)</f>
-        <v>#REF!</v>
+        <f>IF(ISBLANK(W25), R25*(1+AVERAGE($G$26:O26,Q26:R26)), W22)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="T25" s="20"/>
       <c r="U25" s="22"/>
@@ -7232,7 +7257,7 @@
     </row>
     <row r="26" spans="1:24" ht="15">
       <c r="A26" s="1"/>
-      <c r="B26" s="212" t="s">
+      <c r="B26" s="208" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="206"/>
@@ -7284,15 +7309,15 @@
       </c>
       <c r="Q26" s="25" t="e">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R26" s="24" t="e">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S26" s="24" t="e">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T26" s="24"/>
       <c r="U26" s="24"/>
@@ -7465,7 +7490,7 @@
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="210" t="s">
+      <c r="B31" s="209" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="206"/>
@@ -7612,7 +7637,7 @@
     </row>
     <row r="33" spans="1:26" ht="15">
       <c r="A33" s="1"/>
-      <c r="B33" s="212" t="s">
+      <c r="B33" s="208" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="206"/>
@@ -7682,7 +7707,7 @@
     </row>
     <row r="34" spans="1:26" ht="15">
       <c r="A34" s="1"/>
-      <c r="B34" s="212" t="s">
+      <c r="B34" s="208" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="206"/>
@@ -7764,7 +7789,7 @@
     </row>
     <row r="36" spans="1:26" ht="15">
       <c r="A36" s="1"/>
-      <c r="B36" s="207" t="s">
+      <c r="B36" s="205" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="206"/>
@@ -7834,7 +7859,7 @@
     </row>
     <row r="37" spans="1:26" ht="15">
       <c r="A37" s="1"/>
-      <c r="B37" s="212" t="s">
+      <c r="B37" s="208" t="s">
         <v>58</v>
       </c>
       <c r="C37" s="206"/>
@@ -7931,7 +7956,7 @@
     </row>
     <row r="39" spans="1:26" ht="15">
       <c r="A39" s="1"/>
-      <c r="B39" s="207" t="s">
+      <c r="B39" s="205" t="s">
         <v>63</v>
       </c>
       <c r="C39" s="206"/>
@@ -7994,7 +8019,7 @@
     </row>
     <row r="40" spans="1:26" ht="15">
       <c r="A40" s="1"/>
-      <c r="B40" s="212" t="s">
+      <c r="B40" s="208" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="206"/>
@@ -8057,7 +8082,7 @@
     </row>
     <row r="41" spans="1:26" ht="15">
       <c r="A41" s="1"/>
-      <c r="B41" s="212" t="s">
+      <c r="B41" s="208" t="s">
         <v>64</v>
       </c>
       <c r="C41" s="206"/>
@@ -8433,7 +8458,7 @@
     </row>
     <row r="46" spans="1:26" ht="15">
       <c r="A46" s="1"/>
-      <c r="B46" s="207" t="s">
+      <c r="B46" s="205" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="206"/>
@@ -8490,7 +8515,7 @@
     </row>
     <row r="47" spans="1:26" ht="15">
       <c r="A47" s="1"/>
-      <c r="B47" s="207" t="s">
+      <c r="B47" s="205" t="s">
         <v>65</v>
       </c>
       <c r="C47" s="206"/>
@@ -8547,7 +8572,7 @@
     </row>
     <row r="48" spans="1:26" ht="15">
       <c r="A48" s="1"/>
-      <c r="B48" s="207" t="s">
+      <c r="B48" s="205" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="206"/>
@@ -8681,43 +8706,43 @@
       </c>
       <c r="Q50" s="38" t="e">
         <f t="shared" ref="Q50:Z50" ca="1" si="27">Q51*Q44</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R50" s="38" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S50" s="38" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T50" s="38" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U50" s="38" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V50" s="38" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="W50" s="38" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="X50" s="38" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y50" s="38" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z50" s="38" t="e">
         <f t="shared" ca="1" si="27"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="15">
@@ -8774,48 +8799,48 @@
       </c>
       <c r="Q51" s="25" t="e">
         <f t="shared" ref="Q51:Z51" ca="1" si="29">OFFSET(Q51,$D$10,0)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R51" s="25" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S51" s="25" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T51" s="25" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U51" s="25" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V51" s="25" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="W51" s="25" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="X51" s="25" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y51" s="25" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z51" s="25" t="e">
         <f t="shared" ca="1" si="29"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="15">
       <c r="A52" s="1"/>
-      <c r="B52" s="207" t="s">
+      <c r="B52" s="205" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="206"/>
@@ -8831,48 +8856,48 @@
       <c r="P52" s="27"/>
       <c r="Q52" s="48" t="e">
         <f>H11</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R52" s="49" t="e">
         <f>Q52+(R53-Q53)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S52" s="50" t="e">
         <f t="shared" ref="S52:Z52" si="30">R52</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T52" s="50" t="e">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U52" s="50" t="e">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V52" s="50" t="e">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="W52" s="50" t="e">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="X52" s="50" t="e">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y52" s="50" t="e">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z52" s="50" t="e">
         <f t="shared" si="30"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="15">
       <c r="A53" s="1"/>
-      <c r="B53" s="207" t="s">
+      <c r="B53" s="205" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="206"/>
@@ -8888,48 +8913,48 @@
       <c r="P53" s="27"/>
       <c r="Q53" s="51" t="e">
         <f t="shared" ref="Q53:S53" si="31">Q26</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R53" s="51" t="e">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S53" s="51" t="e">
         <f t="shared" si="31"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T53" s="52" t="e">
         <f t="shared" ref="T53:Z53" si="32">S53</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U53" s="52" t="e">
         <f t="shared" si="32"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V53" s="52" t="e">
         <f t="shared" si="32"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="W53" s="52" t="e">
         <f t="shared" si="32"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="X53" s="52" t="e">
         <f t="shared" si="32"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y53" s="52" t="e">
         <f t="shared" si="32"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z53" s="52" t="e">
         <f t="shared" si="32"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="15">
       <c r="A54" s="1"/>
-      <c r="B54" s="207" t="s">
+      <c r="B54" s="205" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="206"/>
@@ -8945,43 +8970,43 @@
       <c r="P54" s="27"/>
       <c r="Q54" s="53" t="e">
         <f>P11</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R54" s="46" t="e">
         <f t="shared" ref="R54:S54" si="33">Q54+(R53-Q53)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S54" s="46" t="e">
         <f t="shared" si="33"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T54" s="54" t="e">
         <f t="shared" ref="T54:Z54" si="34">S54</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U54" s="54" t="e">
         <f t="shared" si="34"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V54" s="54" t="e">
         <f t="shared" si="34"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="W54" s="54" t="e">
         <f t="shared" si="34"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="X54" s="54" t="e">
         <f t="shared" si="34"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y54" s="54" t="e">
         <f t="shared" si="34"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z54" s="54" t="e">
         <f t="shared" si="34"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="15">
@@ -9071,35 +9096,35 @@
       </c>
       <c r="S56" s="38" t="e">
         <f t="shared" ca="1" si="36"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T56" s="38" t="e">
         <f t="shared" ca="1" si="36"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U56" s="38" t="e">
         <f t="shared" ca="1" si="36"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V56" s="38" t="e">
         <f t="shared" ca="1" si="36"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="W56" s="38" t="e">
         <f t="shared" ca="1" si="36"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="X56" s="38" t="e">
         <f t="shared" ca="1" si="36"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y56" s="38" t="e">
         <f t="shared" ca="1" si="36"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z56" s="38" t="e">
         <f t="shared" ca="1" si="36"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="57" spans="1:26" ht="15">
@@ -9197,7 +9222,7 @@
     </row>
     <row r="58" spans="1:26" ht="15">
       <c r="A58" s="1"/>
-      <c r="B58" s="207" t="s">
+      <c r="B58" s="205" t="s">
         <v>41</v>
       </c>
       <c r="C58" s="206"/>
@@ -9254,7 +9279,7 @@
     </row>
     <row r="59" spans="1:26" ht="15">
       <c r="A59" s="1"/>
-      <c r="B59" s="207" t="s">
+      <c r="B59" s="205" t="s">
         <v>65</v>
       </c>
       <c r="C59" s="206"/>
@@ -9311,7 +9336,7 @@
     </row>
     <row r="60" spans="1:26" ht="15">
       <c r="A60" s="1"/>
-      <c r="B60" s="207" t="s">
+      <c r="B60" s="205" t="s">
         <v>43</v>
       </c>
       <c r="C60" s="206"/>
@@ -9415,43 +9440,43 @@
       <c r="P62" s="61"/>
       <c r="Q62" s="62" t="e">
         <f t="shared" ref="Q62:Z62" ca="1" si="44">Q50-Q56</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R62" s="62" t="e">
         <f t="shared" ca="1" si="44"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S62" s="62" t="e">
         <f t="shared" ca="1" si="44"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T62" s="62" t="e">
         <f t="shared" ca="1" si="44"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U62" s="62" t="e">
         <f t="shared" ca="1" si="44"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V62" s="62" t="e">
         <f t="shared" ca="1" si="44"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="W62" s="62" t="e">
         <f t="shared" ca="1" si="44"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="X62" s="62" t="e">
         <f t="shared" ca="1" si="44"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y62" s="62" t="e">
         <f t="shared" ca="1" si="44"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z62" s="62" t="e">
         <f t="shared" ca="1" si="44"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="15">
@@ -9670,7 +9695,7 @@
     </row>
     <row r="66" spans="1:28" ht="15">
       <c r="A66" s="1"/>
-      <c r="B66" s="207" t="s">
+      <c r="B66" s="205" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="206"/>
@@ -9730,7 +9755,7 @@
     </row>
     <row r="67" spans="1:28" ht="15">
       <c r="A67" s="1"/>
-      <c r="B67" s="207" t="s">
+      <c r="B67" s="205" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="206"/>
@@ -9790,7 +9815,7 @@
     </row>
     <row r="68" spans="1:28" ht="15">
       <c r="A68" s="1"/>
-      <c r="B68" s="207" t="s">
+      <c r="B68" s="205" t="s">
         <v>43</v>
       </c>
       <c r="C68" s="206"/>
@@ -10067,7 +10092,7 @@
     </row>
     <row r="72" spans="1:28" ht="15">
       <c r="A72" s="1"/>
-      <c r="B72" s="207" t="s">
+      <c r="B72" s="205" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="206"/>
@@ -10131,7 +10156,7 @@
     </row>
     <row r="73" spans="1:28" ht="15">
       <c r="A73" s="1"/>
-      <c r="B73" s="207" t="s">
+      <c r="B73" s="205" t="s">
         <v>65</v>
       </c>
       <c r="C73" s="206"/>
@@ -10191,7 +10216,7 @@
     </row>
     <row r="74" spans="1:28" ht="15">
       <c r="A74" s="1"/>
-      <c r="B74" s="207" t="s">
+      <c r="B74" s="205" t="s">
         <v>43</v>
       </c>
       <c r="C74" s="206"/>
@@ -10282,7 +10307,7 @@
     </row>
     <row r="76" spans="1:28" ht="15">
       <c r="A76" s="1"/>
-      <c r="B76" s="207" t="s">
+      <c r="B76" s="205" t="s">
         <v>63</v>
       </c>
       <c r="C76" s="206"/>
@@ -10496,7 +10521,7 @@
     </row>
     <row r="79" spans="1:28" ht="15">
       <c r="A79" s="1"/>
-      <c r="B79" s="213" t="s">
+      <c r="B79" s="207" t="s">
         <v>70</v>
       </c>
       <c r="C79" s="206"/>
@@ -10515,48 +10540,48 @@
       <c r="P79" s="61"/>
       <c r="Q79" s="62" t="e">
         <f t="shared" ref="Q79:Z79" ca="1" si="66">Q62+Q64-Q70-Q76</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R79" s="62" t="e">
         <f t="shared" ca="1" si="66"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S79" s="62" t="e">
         <f t="shared" ca="1" si="66"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T79" s="62" t="e">
         <f t="shared" ca="1" si="66"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U79" s="62" t="e">
         <f t="shared" ca="1" si="66"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V79" s="62" t="e">
         <f t="shared" ca="1" si="66"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="W79" s="62" t="e">
         <f t="shared" ca="1" si="66"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="X79" s="62" t="e">
         <f t="shared" ca="1" si="66"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y79" s="62" t="e">
         <f t="shared" ca="1" si="66"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z79" s="62" t="e">
         <f t="shared" ca="1" si="66"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="15">
       <c r="A80" s="1"/>
-      <c r="B80" s="207" t="s">
+      <c r="B80" s="205" t="s">
         <v>71</v>
       </c>
       <c r="C80" s="206"/>
@@ -10571,48 +10596,48 @@
       <c r="L80" s="1"/>
       <c r="Q80" s="67" t="e">
         <f t="shared" ref="Q80:Z80" ca="1" si="67">Q79/(1+$D$18)^Q42</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R80" s="67" t="e">
         <f t="shared" ca="1" si="67"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S80" s="67" t="e">
         <f t="shared" ca="1" si="67"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T80" s="67" t="e">
         <f t="shared" ca="1" si="67"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="U80" s="67" t="e">
         <f t="shared" ca="1" si="67"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V80" s="67" t="e">
         <f t="shared" ca="1" si="67"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="W80" s="67" t="e">
         <f t="shared" ca="1" si="67"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="X80" s="67" t="e">
         <f t="shared" ca="1" si="67"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Y80" s="67" t="e">
         <f t="shared" ca="1" si="67"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Z80" s="67" t="e">
         <f t="shared" ca="1" si="67"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="15">
       <c r="A81" s="1"/>
-      <c r="B81" s="207" t="s">
+      <c r="B81" s="205" t="s">
         <v>72</v>
       </c>
       <c r="C81" s="206"/>
@@ -10631,7 +10656,7 @@
       <c r="T81" s="35"/>
       <c r="U81" s="67" t="e">
         <f ca="1">(U79*(1+$D$19))/($D$18-$D$19)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V81" s="67"/>
       <c r="W81" s="67"/>
@@ -10639,12 +10664,12 @@
       <c r="Y81" s="67"/>
       <c r="Z81" s="67" t="e">
         <f ca="1">(Z79*(1+$D$19))/($D$18-$D$19)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="15">
       <c r="A82" s="1"/>
-      <c r="B82" s="207" t="s">
+      <c r="B82" s="205" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="206"/>
@@ -10663,7 +10688,7 @@
       <c r="T82" s="35"/>
       <c r="U82" s="67" t="e">
         <f ca="1">U81/(1+$D$18)^U42</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V82" s="67"/>
       <c r="W82" s="67"/>
@@ -10671,12 +10696,12 @@
       <c r="Y82" s="67"/>
       <c r="Z82" s="67" t="e">
         <f ca="1">Z81/(1+$D$18)^Z42</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="15">
       <c r="A83" s="1"/>
-      <c r="B83" s="207" t="s">
+      <c r="B83" s="205" t="s">
         <v>74</v>
       </c>
       <c r="C83" s="206"/>
@@ -10695,7 +10720,7 @@
       <c r="T83" s="35"/>
       <c r="U83" s="67" t="e">
         <f ca="1">SUM(L80:U80,U82)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V83" s="67"/>
       <c r="W83" s="67"/>
@@ -10703,7 +10728,7 @@
       <c r="Y83" s="67"/>
       <c r="Z83" s="67" t="e">
         <f ca="1">SUM(Q80:Z80,Z82)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="15">
@@ -10725,17 +10750,17 @@
       <c r="R84" s="35"/>
       <c r="S84" s="35"/>
       <c r="T84" s="35"/>
-      <c r="U84" s="67" t="e">
-        <f>#REF!/1000000</f>
-        <v>#REF!</v>
+      <c r="U84" s="67">
+        <f>BS!M7/1000000</f>
+        <v>0</v>
       </c>
       <c r="V84" s="67"/>
       <c r="W84" s="67"/>
       <c r="X84" s="67"/>
       <c r="Y84" s="67"/>
-      <c r="Z84" s="67" t="e">
-        <f>#REF!/1000000</f>
-        <v>#REF!</v>
+      <c r="Z84" s="67">
+        <f>BS!M7/1000000</f>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="15">
@@ -10757,22 +10782,22 @@
       <c r="R85" s="35"/>
       <c r="S85" s="35"/>
       <c r="T85" s="35"/>
-      <c r="U85" s="67" t="e">
-        <f>#REF!/1000000</f>
-        <v>#REF!</v>
+      <c r="U85" s="67">
+        <f>BS!M35/1000000</f>
+        <v>0</v>
       </c>
       <c r="V85" s="67"/>
       <c r="W85" s="67"/>
       <c r="X85" s="67"/>
       <c r="Y85" s="67"/>
-      <c r="Z85" s="67" t="e">
-        <f>#REF!/1000000</f>
-        <v>#REF!</v>
+      <c r="Z85" s="67">
+        <f>BS!M35/1000000</f>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="15">
       <c r="A86" s="1"/>
-      <c r="B86" s="207" t="s">
+      <c r="B86" s="205" t="s">
         <v>77</v>
       </c>
       <c r="C86" s="206"/>
@@ -10791,7 +10816,7 @@
       <c r="T86" s="35"/>
       <c r="U86" s="67" t="e">
         <f ca="1">U83+U84-U85</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V86" s="67"/>
       <c r="W86" s="67"/>
@@ -10799,12 +10824,12 @@
       <c r="Y86" s="67"/>
       <c r="Z86" s="67" t="e">
         <f ca="1">Z83+Z84-Z85</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="15">
       <c r="A87" s="1"/>
-      <c r="B87" s="207" t="s">
+      <c r="B87" s="205" t="s">
         <v>78</v>
       </c>
       <c r="C87" s="206"/>
@@ -10821,22 +10846,22 @@
       <c r="R87" s="35"/>
       <c r="S87" s="35"/>
       <c r="T87" s="35"/>
-      <c r="U87" s="67" t="e">
-        <f>#REF!/1000000</f>
-        <v>#REF!</v>
+      <c r="U87" s="67">
+        <f>INFO!C18/1000000</f>
+        <v>3184.79</v>
       </c>
       <c r="V87" s="67"/>
       <c r="W87" s="67"/>
       <c r="X87" s="67"/>
       <c r="Y87" s="67"/>
-      <c r="Z87" s="67" t="e">
-        <f>#REF!/1000000</f>
-        <v>#REF!</v>
+      <c r="Z87" s="67">
+        <f>INFO!C18/1000000</f>
+        <v>3184.79</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="15">
       <c r="A88" s="1"/>
-      <c r="B88" s="207" t="s">
+      <c r="B88" s="205" t="s">
         <v>79</v>
       </c>
       <c r="C88" s="206"/>
@@ -10855,7 +10880,7 @@
       <c r="T88" s="35"/>
       <c r="U88" s="68" t="e">
         <f ca="1">U86/U87</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V88" s="68"/>
       <c r="W88" s="68"/>
@@ -10863,7 +10888,7 @@
       <c r="Y88" s="68"/>
       <c r="Z88" s="68" t="e">
         <f ca="1">Z86/Z87</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="15">
@@ -10894,11 +10919,39 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B66:C66"/>
@@ -10911,39 +10964,11 @@
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
   </mergeCells>
   <conditionalFormatting sqref="F76:P76">
     <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThanOrEqual">
@@ -11066,7 +11091,7 @@
     </row>
     <row r="5" spans="1:26" ht="15">
       <c r="A5" s="1"/>
-      <c r="B5" s="205" t="s">
+      <c r="B5" s="210" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="206"/>
@@ -11080,7 +11105,7 @@
     </row>
     <row r="6" spans="1:26" ht="15">
       <c r="A6" s="1"/>
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="210" t="s">
         <v>81</v>
       </c>
       <c r="C6" s="206"/>
@@ -11164,7 +11189,7 @@
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="1"/>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="205" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="206"/>
@@ -11204,7 +11229,7 @@
     </row>
     <row r="13" spans="1:26" ht="15">
       <c r="A13" s="1"/>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="205" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="206"/>
@@ -11238,7 +11263,7 @@
     </row>
     <row r="15" spans="1:26" ht="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="207" t="s">
+      <c r="B15" s="205" t="s">
         <v>90</v>
       </c>
       <c r="C15" s="206"/>
@@ -11258,12 +11283,12 @@
     </row>
     <row r="16" spans="1:26" ht="15">
       <c r="A16" s="1"/>
-      <c r="B16" s="207" t="s">
+      <c r="B16" s="205" t="s">
         <v>92</v>
       </c>
       <c r="C16" s="206"/>
       <c r="D16" s="74">
-        <f>INFO!C18 / 100</f>
+        <f>INFO!C20 / 100</f>
         <v>0</v>
       </c>
       <c r="E16" s="1"/>
@@ -11308,7 +11333,7 @@
     </row>
     <row r="18" spans="1:14" ht="15">
       <c r="A18" s="1"/>
-      <c r="B18" s="207" t="s">
+      <c r="B18" s="205" t="s">
         <v>83</v>
       </c>
       <c r="C18" s="206"/>
@@ -11333,7 +11358,7 @@
     </row>
     <row r="20" spans="1:14" ht="15">
       <c r="A20" s="1"/>
-      <c r="B20" s="207" t="s">
+      <c r="B20" s="205" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="206"/>
@@ -11433,13 +11458,13 @@
   <sheetData>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="208" t="e">
+      <c r="B2" s="211" t="e">
         <f>CONCATENATE(#REF!," Revenue Breakdown")</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -11461,7 +11486,7 @@
       <c r="X2" s="8"/>
     </row>
     <row r="4" spans="1:24" ht="15">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="209" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="206"/>
@@ -12602,7 +12627,7 @@
       </c>
     </row>
     <row r="57" spans="2:21" ht="15">
-      <c r="B57" s="210" t="s">
+      <c r="B57" s="209" t="s">
         <v>107</v>
       </c>
       <c r="C57" s="206"/>
@@ -13334,10 +13359,10 @@
     </row>
     <row r="4" spans="1:25" ht="15">
       <c r="A4" s="1"/>
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="209" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="213"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -13369,7 +13394,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="205"/>
+      <c r="F5" s="210"/>
       <c r="G5" s="206"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -13390,7 +13415,7 @@
     </row>
     <row r="6" spans="1:25" ht="15">
       <c r="A6" s="1"/>
-      <c r="B6" s="207" t="s">
+      <c r="B6" s="205" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="206"/>
@@ -13401,7 +13426,7 @@
       <c r="H6" s="222"/>
       <c r="I6" s="223"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="207" t="e">
+      <c r="K6" s="205" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -15041,7 +15066,7 @@
         <f>(B11&amp;" Valuation")</f>
         <v>0 Valuation</v>
       </c>
-      <c r="C41" s="211"/>
+      <c r="C41" s="213"/>
       <c r="D41" s="179"/>
       <c r="E41" s="179"/>
       <c r="F41" s="179"/>
@@ -15419,12 +15444,12 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B2" s="208" t="e">
+      <c r="B2" s="211" t="e">
         <f>CONCATENATE(#REF!," EBITDA Multiple")</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -15478,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="207" t="s">
+      <c r="E4" s="205" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="206"/>
@@ -15513,10 +15538,10 @@
       </c>
       <c r="C5" s="13">
         <f ca="1">TODAY()</f>
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="207" t="s">
+      <c r="E5" s="205" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="206"/>
@@ -15525,7 +15550,7 @@
         <v>#REF!</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="207" t="s">
+      <c r="I5" s="205" t="s">
         <v>38</v>
       </c>
       <c r="J5" s="206"/>
@@ -15574,7 +15599,7 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="2:23" ht="15">
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="209" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="206"/>
@@ -15606,7 +15631,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="205" t="s">
+      <c r="F8" s="210" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="206"/>
@@ -15618,7 +15643,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="205" t="s">
+      <c r="N8" s="210" t="s">
         <v>43</v>
       </c>
       <c r="O8" s="206"/>
@@ -15632,7 +15657,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="2:23" ht="15">
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="205" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="206"/>
@@ -15640,7 +15665,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="207" t="e">
+      <c r="F9" s="205" t="e">
         <f>CONCATENATE("Revenue ", Q39)</f>
         <v>#REF!</v>
       </c>
@@ -15654,7 +15679,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="207" t="e">
+      <c r="N9" s="205" t="e">
         <f>CONCATENATE("Revenue ", Q39)</f>
         <v>#REF!</v>
       </c>
@@ -15671,7 +15696,7 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="2:23" ht="15">
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="205" t="s">
         <v>151</v>
       </c>
       <c r="C10" s="206"/>
@@ -15679,7 +15704,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="207" t="e">
+      <c r="F10" s="205" t="e">
         <f>CONCATENATE("Revenue ", Z39)</f>
         <v>#REF!</v>
       </c>
@@ -15688,7 +15713,7 @@
         <v>0.03</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="207" t="e">
+      <c r="J10" s="205" t="e">
         <f>CONCATENATE("Revenue ", Z39)</f>
         <v>#REF!</v>
       </c>
@@ -15697,7 +15722,7 @@
         <v>0.05</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="207" t="e">
+      <c r="N10" s="205" t="e">
         <f>CONCATENATE("Revenue ", Z39)</f>
         <v>#REF!</v>
       </c>
@@ -15844,7 +15869,7 @@
         <v>0.09</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="207" t="e">
+      <c r="J14" s="205" t="e">
         <f>CONCATENATE("CapEx ", Z39)</f>
         <v>#REF!</v>
       </c>
@@ -15853,7 +15878,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="207" t="e">
+      <c r="N14" s="205" t="e">
         <f>CONCATENATE("CapEx ", Z39)</f>
         <v>#REF!</v>
       </c>
@@ -15944,7 +15969,7 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15">
-      <c r="B17" s="205" t="s">
+      <c r="B17" s="210" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="206"/>
@@ -16055,7 +16080,7 @@
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="210" t="s">
+      <c r="B21" s="209" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="206"/>
@@ -16350,7 +16375,7 @@
       <c r="W25" s="22"/>
     </row>
     <row r="26" spans="1:26" ht="15">
-      <c r="B26" s="212" t="s">
+      <c r="B26" s="208" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="206"/>
@@ -16693,7 +16718,7 @@
     </row>
     <row r="31" spans="1:26" ht="15">
       <c r="A31" s="1"/>
-      <c r="B31" s="207" t="s">
+      <c r="B31" s="205" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="206"/>
@@ -16750,7 +16775,7 @@
     </row>
     <row r="32" spans="1:26" ht="15">
       <c r="A32" s="1"/>
-      <c r="B32" s="207" t="s">
+      <c r="B32" s="205" t="s">
         <v>65</v>
       </c>
       <c r="C32" s="206"/>
@@ -16807,7 +16832,7 @@
     </row>
     <row r="33" spans="1:26" ht="15">
       <c r="A33" s="1"/>
-      <c r="B33" s="207" t="s">
+      <c r="B33" s="205" t="s">
         <v>43</v>
       </c>
       <c r="C33" s="206"/>
@@ -17075,7 +17100,7 @@
     </row>
     <row r="37" spans="1:26" ht="15">
       <c r="A37" s="1"/>
-      <c r="B37" s="207" t="s">
+      <c r="B37" s="205" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="206"/>
@@ -17132,7 +17157,7 @@
     </row>
     <row r="38" spans="1:26" ht="15">
       <c r="A38" s="1"/>
-      <c r="B38" s="207" t="s">
+      <c r="B38" s="205" t="s">
         <v>65</v>
       </c>
       <c r="C38" s="206"/>
@@ -17189,7 +17214,7 @@
     </row>
     <row r="39" spans="1:26" ht="15">
       <c r="A39" s="1"/>
-      <c r="B39" s="207" t="s">
+      <c r="B39" s="205" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="206"/>
@@ -17271,17 +17296,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:D32"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="B2:D2"/>
@@ -17296,6 +17310,17 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:L5">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
@@ -18108,7 +18133,7 @@
   <dimension ref="A2:M52"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:M54"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/src/main/resources/templates/FINDich.xlsx
+++ b/src/main/resources/templates/FINDich.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koko/IdeaProjects/FinanceProjects/stock-financial-report-analyzer/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BFCCF4-F4D8-5B40-BA35-F9481AB07D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E96E1FC-9271-9B40-944F-720338F0DDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="1" r:id="rId1"/>
@@ -2884,6 +2884,17 @@
     <xf numFmtId="171" fontId="48" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2899,15 +2910,15 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2935,13 +2946,31 @@
     <xf numFmtId="0" fontId="39" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="171" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="32" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="32" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2959,26 +2988,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="32" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="32" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2986,17 +2997,6 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -3004,55 +3004,7 @@
     <cellStyle name="Normal 3" xfId="2" xr:uid="{CA566678-261E-7F45-A7FC-707DCC7B6B34}"/>
     <cellStyle name="Normal 71" xfId="1" xr:uid="{A673B3E5-1F2E-434A-BAC6-DE0E8F778988}"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE8B2"/>
-          <bgColor rgb="FFFCE8B2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4C7C3"/>
-          <bgColor rgb="FFF4C7C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FFC53929"/>
@@ -3111,6 +3063,14 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFC53929"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF0B8043"/>
       </font>
       <fill>
@@ -3118,11 +3078,27 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFC53929"/>
-      </font>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE8B2"/>
+          <bgColor rgb="FFFCE8B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -3378,56 +3354,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="201" t="s">
         <v>431</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="198" t="s">
+      <c r="C2" s="202"/>
+      <c r="D2" s="203" t="s">
         <v>432</v>
       </c>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
-      <c r="K2" s="199"/>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="V2" s="196" t="s">
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="204"/>
+      <c r="V2" s="201" t="s">
         <v>433</v>
       </c>
-      <c r="W2" s="197"/>
+      <c r="W2" s="202"/>
     </row>
     <row r="3" spans="2:23" ht="15">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="200"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="200"/>
-      <c r="N3" s="200"/>
-      <c r="O3" s="200"/>
-      <c r="P3" s="200"/>
-      <c r="Q3" s="200"/>
-      <c r="R3" s="200"/>
-      <c r="S3" s="200"/>
-      <c r="T3" s="200"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="205"/>
       <c r="V3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3440,23 +3416,23 @@
         <v>423</v>
       </c>
       <c r="C4" s="184"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="200"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="200"/>
-      <c r="S4" s="200"/>
-      <c r="T4" s="200"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="205"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
+      <c r="T4" s="205"/>
       <c r="V4" s="3"/>
       <c r="W4" s="4"/>
     </row>
@@ -3465,23 +3441,23 @@
         <v>436</v>
       </c>
       <c r="C5" s="184"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="200"/>
-      <c r="J5" s="200"/>
-      <c r="K5" s="200"/>
-      <c r="L5" s="200"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="200"/>
-      <c r="Q5" s="200"/>
-      <c r="R5" s="200"/>
-      <c r="S5" s="200"/>
-      <c r="T5" s="200"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="205"/>
+      <c r="K5" s="205"/>
+      <c r="L5" s="205"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="205"/>
+      <c r="O5" s="205"/>
+      <c r="P5" s="205"/>
+      <c r="Q5" s="205"/>
+      <c r="R5" s="205"/>
+      <c r="S5" s="205"/>
+      <c r="T5" s="205"/>
       <c r="V5" s="3" t="s">
         <v>7</v>
       </c>
@@ -3494,23 +3470,23 @@
         <v>424</v>
       </c>
       <c r="C6" s="184"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="200"/>
-      <c r="K6" s="200"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="200"/>
-      <c r="Q6" s="200"/>
-      <c r="R6" s="200"/>
-      <c r="S6" s="200"/>
-      <c r="T6" s="200"/>
+      <c r="D6" s="205"/>
+      <c r="E6" s="205"/>
+      <c r="F6" s="205"/>
+      <c r="G6" s="205"/>
+      <c r="H6" s="205"/>
+      <c r="I6" s="205"/>
+      <c r="J6" s="205"/>
+      <c r="K6" s="205"/>
+      <c r="L6" s="205"/>
+      <c r="M6" s="205"/>
+      <c r="N6" s="205"/>
+      <c r="O6" s="205"/>
+      <c r="P6" s="205"/>
+      <c r="Q6" s="205"/>
+      <c r="R6" s="205"/>
+      <c r="S6" s="205"/>
+      <c r="T6" s="205"/>
       <c r="V6" s="3" t="s">
         <v>180</v>
       </c>
@@ -3523,150 +3499,150 @@
         <v>425</v>
       </c>
       <c r="C7" s="184"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="200"/>
-      <c r="R7" s="200"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="200"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
+      <c r="H7" s="205"/>
+      <c r="I7" s="205"/>
+      <c r="J7" s="205"/>
+      <c r="K7" s="205"/>
+      <c r="L7" s="205"/>
+      <c r="M7" s="205"/>
+      <c r="N7" s="205"/>
+      <c r="O7" s="205"/>
+      <c r="P7" s="205"/>
+      <c r="Q7" s="205"/>
+      <c r="R7" s="205"/>
+      <c r="S7" s="205"/>
+      <c r="T7" s="205"/>
     </row>
     <row r="8" spans="2:23" ht="15">
       <c r="B8" s="151" t="s">
         <v>426</v>
       </c>
       <c r="C8" s="184"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="200"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="200"/>
-      <c r="Q8" s="200"/>
-      <c r="R8" s="200"/>
-      <c r="S8" s="200"/>
-      <c r="T8" s="200"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="205"/>
+      <c r="K8" s="205"/>
+      <c r="L8" s="205"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="205"/>
+      <c r="O8" s="205"/>
+      <c r="P8" s="205"/>
+      <c r="Q8" s="205"/>
+      <c r="R8" s="205"/>
+      <c r="S8" s="205"/>
+      <c r="T8" s="205"/>
     </row>
     <row r="9" spans="2:23" ht="15">
       <c r="B9" s="151" t="s">
         <v>427</v>
       </c>
       <c r="C9" s="184"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="200"/>
-      <c r="Q9" s="200"/>
-      <c r="R9" s="200"/>
-      <c r="S9" s="200"/>
-      <c r="T9" s="200"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="205"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="205"/>
+      <c r="L9" s="205"/>
+      <c r="M9" s="205"/>
+      <c r="N9" s="205"/>
+      <c r="O9" s="205"/>
+      <c r="P9" s="205"/>
+      <c r="Q9" s="205"/>
+      <c r="R9" s="205"/>
+      <c r="S9" s="205"/>
+      <c r="T9" s="205"/>
     </row>
     <row r="10" spans="2:23" ht="15">
       <c r="B10" s="151" t="s">
         <v>428</v>
       </c>
       <c r="C10" s="184"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="200"/>
-      <c r="P10" s="200"/>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="200"/>
-      <c r="S10" s="200"/>
-      <c r="T10" s="200"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="205"/>
+      <c r="I10" s="205"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="205"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="205"/>
     </row>
     <row r="11" spans="2:23" ht="15">
       <c r="B11" s="151" t="s">
         <v>429</v>
       </c>
       <c r="C11" s="184"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="200"/>
-      <c r="M11" s="200"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="200"/>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="200"/>
-      <c r="S11" s="200"/>
-      <c r="T11" s="200"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="205"/>
+      <c r="H11" s="205"/>
+      <c r="I11" s="205"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="205"/>
+      <c r="L11" s="205"/>
+      <c r="M11" s="205"/>
+      <c r="N11" s="205"/>
+      <c r="O11" s="205"/>
+      <c r="P11" s="205"/>
+      <c r="Q11" s="205"/>
+      <c r="R11" s="205"/>
+      <c r="S11" s="205"/>
+      <c r="T11" s="205"/>
     </row>
     <row r="12" spans="2:23" ht="15">
       <c r="B12" s="151" t="s">
         <v>430</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="200"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="200"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="200"/>
-      <c r="M12" s="200"/>
-      <c r="N12" s="200"/>
-      <c r="O12" s="200"/>
-      <c r="P12" s="200"/>
-      <c r="Q12" s="200"/>
-      <c r="R12" s="200"/>
-      <c r="S12" s="200"/>
-      <c r="T12" s="200"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="205"/>
+      <c r="I12" s="205"/>
+      <c r="J12" s="205"/>
+      <c r="K12" s="205"/>
+      <c r="L12" s="205"/>
+      <c r="M12" s="205"/>
+      <c r="N12" s="205"/>
+      <c r="O12" s="205"/>
+      <c r="P12" s="205"/>
+      <c r="Q12" s="205"/>
+      <c r="R12" s="205"/>
+      <c r="S12" s="205"/>
+      <c r="T12" s="205"/>
     </row>
     <row r="13" spans="2:23" ht="13"/>
     <row r="14" spans="2:23" ht="15">
-      <c r="B14" s="196" t="s">
+      <c r="B14" s="201" t="s">
         <v>435</v>
       </c>
-      <c r="C14" s="197"/>
-      <c r="E14" s="198" t="s">
+      <c r="C14" s="202"/>
+      <c r="E14" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="199"/>
-      <c r="G14" s="199"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="204"/>
     </row>
     <row r="15" spans="2:23" ht="15">
       <c r="B15" s="151" t="s">
@@ -4000,37 +3976,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="14" customHeight="1">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="228" t="s">
         <v>440</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
     </row>
     <row r="3" spans="2:8" ht="13" customHeight="1">
-      <c r="B3" s="229"/>
-      <c r="C3" s="230"/>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="230"/>
+      <c r="B3" s="240"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
     </row>
     <row r="4" spans="2:8" ht="16" customHeight="1">
       <c r="B4" s="187" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="242" t="s">
         <v>468</v>
       </c>
-      <c r="D4" s="232"/>
-      <c r="E4" s="231" t="s">
+      <c r="D4" s="243"/>
+      <c r="E4" s="242" t="s">
         <v>469</v>
       </c>
-      <c r="F4" s="232"/>
+      <c r="F4" s="243"/>
       <c r="G4" s="192" t="s">
         <v>470</v>
       </c>
@@ -4051,10 +4027,10 @@
       <c r="B6" s="131" t="s">
         <v>446</v>
       </c>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
       <c r="G6" s="144"/>
       <c r="H6" s="144"/>
     </row>
@@ -4062,10 +4038,10 @@
       <c r="B7" s="131" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
       <c r="G7" s="143"/>
       <c r="H7" s="143"/>
     </row>
@@ -4073,10 +4049,10 @@
       <c r="B8" s="131" t="s">
         <v>444</v>
       </c>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
       <c r="G8" s="143"/>
       <c r="H8" s="143"/>
     </row>
@@ -4084,10 +4060,10 @@
       <c r="B9" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="C9" s="225"/>
-      <c r="D9" s="225"/>
-      <c r="E9" s="225"/>
-      <c r="F9" s="225"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
       <c r="G9" s="143"/>
       <c r="H9" s="143"/>
     </row>
@@ -4095,10 +4071,10 @@
       <c r="B10" s="131" t="s">
         <v>442</v>
       </c>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
       <c r="G10" s="143"/>
       <c r="H10" s="143"/>
     </row>
@@ -4115,14 +4091,14 @@
       <c r="B12" s="189" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="233" t="s">
+      <c r="C12" s="230" t="s">
         <v>468</v>
       </c>
-      <c r="D12" s="234"/>
-      <c r="E12" s="233" t="s">
+      <c r="D12" s="231"/>
+      <c r="E12" s="230" t="s">
         <v>469</v>
       </c>
-      <c r="F12" s="234"/>
+      <c r="F12" s="231"/>
       <c r="G12" s="191" t="s">
         <v>470</v>
       </c>
@@ -4143,10 +4119,10 @@
       <c r="B14" s="131" t="s">
         <v>446</v>
       </c>
-      <c r="C14" s="235"/>
-      <c r="D14" s="235"/>
-      <c r="E14" s="235"/>
-      <c r="F14" s="235"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="237"/>
       <c r="G14" s="144"/>
       <c r="H14" s="144"/>
     </row>
@@ -4154,10 +4130,10 @@
       <c r="B15" s="131" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="236"/>
-      <c r="D15" s="236"/>
-      <c r="E15" s="236"/>
-      <c r="F15" s="236"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="238"/>
       <c r="G15" s="144"/>
       <c r="H15" s="144"/>
     </row>
@@ -4165,10 +4141,10 @@
       <c r="B16" s="131" t="s">
         <v>444</v>
       </c>
-      <c r="C16" s="236"/>
-      <c r="D16" s="236"/>
-      <c r="E16" s="236"/>
-      <c r="F16" s="236"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
+      <c r="F16" s="238"/>
       <c r="G16" s="144"/>
       <c r="H16" s="144"/>
     </row>
@@ -4176,10 +4152,10 @@
       <c r="B17" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="C17" s="236"/>
-      <c r="D17" s="236"/>
-      <c r="E17" s="236"/>
-      <c r="F17" s="236"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="238"/>
       <c r="G17" s="144"/>
       <c r="H17" s="144"/>
     </row>
@@ -4187,10 +4163,10 @@
       <c r="B18" s="131" t="s">
         <v>448</v>
       </c>
-      <c r="C18" s="236"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="236"/>
-      <c r="F18" s="236"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="238"/>
+      <c r="E18" s="238"/>
+      <c r="F18" s="238"/>
       <c r="G18" s="144"/>
       <c r="H18" s="144"/>
     </row>
@@ -4198,10 +4174,10 @@
       <c r="B19" s="131" t="s">
         <v>449</v>
       </c>
-      <c r="C19" s="236"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="236"/>
-      <c r="F19" s="236"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="238"/>
+      <c r="F19" s="238"/>
       <c r="G19" s="144"/>
       <c r="H19" s="144"/>
     </row>
@@ -4217,10 +4193,10 @@
       <c r="B21" s="133" t="s">
         <v>450</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="D21" s="234"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="234"/>
+      <c r="C21" s="230"/>
+      <c r="D21" s="231"/>
+      <c r="E21" s="230"/>
+      <c r="F21" s="231"/>
       <c r="G21" s="191"/>
       <c r="H21" s="191"/>
     </row>
@@ -4228,10 +4204,10 @@
       <c r="B22" s="131" t="s">
         <v>451</v>
       </c>
-      <c r="C22" s="226"/>
-      <c r="D22" s="226"/>
-      <c r="E22" s="226"/>
-      <c r="F22" s="226"/>
+      <c r="C22" s="244"/>
+      <c r="D22" s="244"/>
+      <c r="E22" s="244"/>
+      <c r="F22" s="244"/>
       <c r="G22" s="143"/>
       <c r="H22" s="143"/>
     </row>
@@ -4239,10 +4215,10 @@
       <c r="B23" s="131" t="s">
         <v>452</v>
       </c>
-      <c r="C23" s="225"/>
-      <c r="D23" s="225"/>
-      <c r="E23" s="225"/>
-      <c r="F23" s="225"/>
+      <c r="C23" s="234"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="234"/>
       <c r="G23" s="143"/>
       <c r="H23" s="143"/>
     </row>
@@ -4250,10 +4226,10 @@
       <c r="B24" s="131" t="s">
         <v>453</v>
       </c>
-      <c r="C24" s="225"/>
-      <c r="D24" s="225"/>
-      <c r="E24" s="225"/>
-      <c r="F24" s="225"/>
+      <c r="C24" s="234"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="234"/>
       <c r="G24" s="143"/>
       <c r="H24" s="143"/>
     </row>
@@ -4261,10 +4237,10 @@
       <c r="B25" s="131" t="s">
         <v>454</v>
       </c>
-      <c r="C25" s="225"/>
-      <c r="D25" s="225"/>
-      <c r="E25" s="225"/>
-      <c r="F25" s="225"/>
+      <c r="C25" s="234"/>
+      <c r="D25" s="234"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="234"/>
       <c r="G25" s="143"/>
       <c r="H25" s="143"/>
     </row>
@@ -4272,10 +4248,10 @@
       <c r="B26" s="131" t="s">
         <v>455</v>
       </c>
-      <c r="C26" s="225"/>
-      <c r="D26" s="225"/>
-      <c r="E26" s="225"/>
-      <c r="F26" s="225"/>
+      <c r="C26" s="234"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="234"/>
       <c r="G26" s="195"/>
       <c r="H26" s="195"/>
     </row>
@@ -4283,10 +4259,10 @@
       <c r="B27" s="131" t="s">
         <v>456</v>
       </c>
-      <c r="C27" s="225"/>
-      <c r="D27" s="225"/>
-      <c r="E27" s="225"/>
-      <c r="F27" s="225"/>
+      <c r="C27" s="234"/>
+      <c r="D27" s="234"/>
+      <c r="E27" s="234"/>
+      <c r="F27" s="234"/>
       <c r="G27" s="195"/>
       <c r="H27" s="195"/>
     </row>
@@ -4304,14 +4280,14 @@
       <c r="B29" s="185" t="s">
         <v>467</v>
       </c>
-      <c r="C29" s="233" t="s">
+      <c r="C29" s="230" t="s">
         <v>468</v>
       </c>
-      <c r="D29" s="234"/>
-      <c r="E29" s="233" t="s">
+      <c r="D29" s="231"/>
+      <c r="E29" s="230" t="s">
         <v>469</v>
       </c>
-      <c r="F29" s="234"/>
+      <c r="F29" s="231"/>
       <c r="G29" s="191" t="s">
         <v>470</v>
       </c>
@@ -4334,10 +4310,10 @@
       <c r="B31" s="149" t="s">
         <v>472</v>
       </c>
-      <c r="C31" s="227"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="227"/>
+      <c r="C31" s="235"/>
+      <c r="D31" s="235"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="235"/>
       <c r="G31" s="193"/>
       <c r="H31" s="193"/>
     </row>
@@ -4346,10 +4322,10 @@
       <c r="B32" s="149" t="s">
         <v>473</v>
       </c>
-      <c r="C32" s="225"/>
-      <c r="D32" s="225"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="225"/>
+      <c r="C32" s="234"/>
+      <c r="D32" s="234"/>
+      <c r="E32" s="234"/>
+      <c r="F32" s="234"/>
       <c r="G32" s="193"/>
       <c r="H32" s="193"/>
     </row>
@@ -4358,10 +4334,10 @@
       <c r="B33" s="149" t="s">
         <v>474</v>
       </c>
-      <c r="C33" s="225"/>
-      <c r="D33" s="225"/>
-      <c r="E33" s="225"/>
-      <c r="F33" s="225"/>
+      <c r="C33" s="234"/>
+      <c r="D33" s="234"/>
+      <c r="E33" s="234"/>
+      <c r="F33" s="234"/>
       <c r="G33" s="193"/>
       <c r="H33" s="193"/>
     </row>
@@ -4370,10 +4346,10 @@
       <c r="B34" s="149" t="s">
         <v>475</v>
       </c>
-      <c r="C34" s="225"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="225"/>
-      <c r="F34" s="225"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="234"/>
+      <c r="E34" s="234"/>
+      <c r="F34" s="234"/>
       <c r="G34" s="193"/>
       <c r="H34" s="193"/>
     </row>
@@ -4382,10 +4358,10 @@
       <c r="B35" s="149" t="s">
         <v>476</v>
       </c>
-      <c r="C35" s="225"/>
-      <c r="D35" s="225"/>
-      <c r="E35" s="225"/>
-      <c r="F35" s="225"/>
+      <c r="C35" s="234"/>
+      <c r="D35" s="234"/>
+      <c r="E35" s="234"/>
+      <c r="F35" s="234"/>
       <c r="G35" s="193"/>
       <c r="H35" s="193"/>
     </row>
@@ -4403,10 +4379,10 @@
       <c r="B37" s="181" t="s">
         <v>457</v>
       </c>
-      <c r="C37" s="238"/>
-      <c r="D37" s="239"/>
-      <c r="E37" s="238"/>
-      <c r="F37" s="239"/>
+      <c r="C37" s="232"/>
+      <c r="D37" s="233"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="233"/>
       <c r="G37" s="194"/>
       <c r="H37" s="194"/>
     </row>
@@ -4414,10 +4390,10 @@
       <c r="B38" s="131" t="s">
         <v>458</v>
       </c>
-      <c r="C38" s="226"/>
-      <c r="D38" s="226"/>
-      <c r="E38" s="226"/>
-      <c r="F38" s="226"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="244"/>
+      <c r="E38" s="244"/>
+      <c r="F38" s="244"/>
       <c r="G38" s="143"/>
       <c r="H38" s="143"/>
     </row>
@@ -4425,10 +4401,10 @@
       <c r="B39" s="131" t="s">
         <v>459</v>
       </c>
-      <c r="C39" s="225"/>
-      <c r="D39" s="225"/>
-      <c r="E39" s="225"/>
-      <c r="F39" s="225"/>
+      <c r="C39" s="234"/>
+      <c r="D39" s="234"/>
+      <c r="E39" s="234"/>
+      <c r="F39" s="234"/>
       <c r="G39" s="143"/>
       <c r="H39" s="143"/>
     </row>
@@ -4436,10 +4412,10 @@
       <c r="B40" s="131" t="s">
         <v>460</v>
       </c>
-      <c r="C40" s="225"/>
-      <c r="D40" s="225"/>
-      <c r="E40" s="225"/>
-      <c r="F40" s="225"/>
+      <c r="C40" s="234"/>
+      <c r="D40" s="234"/>
+      <c r="E40" s="234"/>
+      <c r="F40" s="234"/>
       <c r="G40" s="143"/>
       <c r="H40" s="143"/>
     </row>
@@ -4447,10 +4423,10 @@
       <c r="B41" s="131" t="s">
         <v>461</v>
       </c>
-      <c r="C41" s="225"/>
-      <c r="D41" s="225"/>
-      <c r="E41" s="225"/>
-      <c r="F41" s="225"/>
+      <c r="C41" s="234"/>
+      <c r="D41" s="234"/>
+      <c r="E41" s="234"/>
+      <c r="F41" s="234"/>
       <c r="G41" s="143"/>
       <c r="H41" s="143"/>
     </row>
@@ -4468,14 +4444,14 @@
       <c r="B43" s="185" t="s">
         <v>462</v>
       </c>
-      <c r="C43" s="233" t="s">
+      <c r="C43" s="230" t="s">
         <v>468</v>
       </c>
-      <c r="D43" s="234"/>
-      <c r="E43" s="233" t="s">
+      <c r="D43" s="231"/>
+      <c r="E43" s="230" t="s">
         <v>469</v>
       </c>
-      <c r="F43" s="234"/>
+      <c r="F43" s="231"/>
       <c r="G43" s="191" t="s">
         <v>470</v>
       </c>
@@ -4498,10 +4474,10 @@
       <c r="B45" s="149" t="s">
         <v>463</v>
       </c>
-      <c r="C45" s="227"/>
-      <c r="D45" s="227"/>
-      <c r="E45" s="227"/>
-      <c r="F45" s="227"/>
+      <c r="C45" s="235"/>
+      <c r="D45" s="235"/>
+      <c r="E45" s="235"/>
+      <c r="F45" s="235"/>
       <c r="G45" s="193"/>
       <c r="H45" s="193"/>
     </row>
@@ -4510,10 +4486,10 @@
       <c r="B46" s="149" t="s">
         <v>464</v>
       </c>
-      <c r="C46" s="237"/>
-      <c r="D46" s="237"/>
-      <c r="E46" s="237"/>
-      <c r="F46" s="237"/>
+      <c r="C46" s="236"/>
+      <c r="D46" s="236"/>
+      <c r="E46" s="236"/>
+      <c r="F46" s="236"/>
       <c r="G46" s="193"/>
       <c r="H46" s="193"/>
     </row>
@@ -4522,10 +4498,10 @@
       <c r="B47" s="149" t="s">
         <v>465</v>
       </c>
-      <c r="C47" s="237"/>
-      <c r="D47" s="237"/>
-      <c r="E47" s="237"/>
-      <c r="F47" s="237"/>
+      <c r="C47" s="236"/>
+      <c r="D47" s="236"/>
+      <c r="E47" s="236"/>
+      <c r="F47" s="236"/>
       <c r="G47" s="193"/>
       <c r="H47" s="193"/>
     </row>
@@ -4534,10 +4510,10 @@
       <c r="B48" s="149" t="s">
         <v>466</v>
       </c>
-      <c r="C48" s="237"/>
-      <c r="D48" s="237"/>
-      <c r="E48" s="237"/>
-      <c r="F48" s="237"/>
+      <c r="C48" s="236"/>
+      <c r="D48" s="236"/>
+      <c r="E48" s="236"/>
+      <c r="F48" s="236"/>
       <c r="G48" s="193"/>
       <c r="H48" s="193"/>
     </row>
@@ -4551,36 +4527,24 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="B2:H3"/>
@@ -4597,6 +4561,36 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
@@ -4606,24 +4600,6 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4645,7 +4621,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="15">
-      <c r="B2" s="240" t="s">
+      <c r="B2" s="245" t="s">
         <v>224</v>
       </c>
       <c r="C2" s="171" t="s">
@@ -4689,7 +4665,7 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="14">
-      <c r="B3" s="241"/>
+      <c r="B3" s="246"/>
       <c r="C3" s="172">
         <v>40446</v>
       </c>
@@ -6267,7 +6243,7 @@
   </sheetPr>
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
@@ -6304,11 +6280,11 @@
     </row>
     <row r="2" spans="1:26" ht="21">
       <c r="A2" s="8"/>
-      <c r="B2" s="204" t="str">
+      <c r="B2" s="212" t="str">
         <f>CONCATENATE(INFO!C4, " ", "DCF")</f>
         <v xml:space="preserve"> DCF</v>
       </c>
-      <c r="C2" s="205"/>
+      <c r="C2" s="213"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -6329,9 +6305,9 @@
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="246"/>
-      <c r="Z2" s="246"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="200"/>
     </row>
     <row r="3" spans="1:26" ht="15">
       <c r="A3" s="1"/>
@@ -6371,10 +6347,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="203" t="s">
+      <c r="E4" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="202"/>
+      <c r="F4" s="207"/>
       <c r="G4" s="11" t="e">
         <f ca="1">Z88</f>
         <v>#DIV/0!</v>
@@ -6408,13 +6384,13 @@
       </c>
       <c r="C5" s="13">
         <f ca="1">TODAY()</f>
-        <v>45336</v>
+        <v>45339</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="203" t="s">
+      <c r="E5" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="202"/>
+      <c r="F5" s="207"/>
       <c r="G5" s="14">
         <f>INFO!C15</f>
         <v>0</v>
@@ -6474,10 +6450,10 @@
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="207"/>
+      <c r="C7" s="214"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -6508,10 +6484,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="201" t="s">
+      <c r="F8" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="202"/>
+      <c r="G8" s="207"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="10" t="s">
@@ -6520,10 +6496,10 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="201" t="s">
+      <c r="N8" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="202"/>
+      <c r="O8" s="207"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -6536,19 +6512,19 @@
     </row>
     <row r="9" spans="1:26" ht="15">
       <c r="A9" s="1"/>
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="202"/>
+      <c r="C9" s="207"/>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="203" t="e">
+      <c r="F9" s="206" t="e">
         <f>CONCATENATE("Revenue", " ",Q43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G9" s="202"/>
+      <c r="G9" s="207"/>
       <c r="H9" s="18" t="e">
         <f>Q47-1%</f>
         <v>#VALUE!</v>
@@ -6558,11 +6534,11 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="203" t="e">
+      <c r="N9" s="206" t="e">
         <f>CONCATENATE("Revenue ", Q43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O9" s="202"/>
+      <c r="O9" s="207"/>
       <c r="P9" s="18" t="e">
         <f>Q47+1%</f>
         <v>#VALUE!</v>
@@ -6577,37 +6553,37 @@
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="1"/>
-      <c r="B10" s="203" t="s">
+      <c r="B10" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="202"/>
+      <c r="C10" s="207"/>
       <c r="D10" s="16">
         <v>2</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="203" t="e">
+      <c r="F10" s="206" t="e">
         <f>CONCATENATE("Revenue ", Z43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G10" s="202"/>
+      <c r="G10" s="207"/>
       <c r="H10" s="17">
         <v>0.03</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="203" t="e">
+      <c r="J10" s="206" t="e">
         <f>CONCATENATE("Revenue ", Z43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K10" s="202"/>
+      <c r="K10" s="207"/>
       <c r="L10" s="18">
         <v>0.05</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="203" t="e">
+      <c r="N10" s="206" t="e">
         <f>CONCATENATE("Revenue ", Z43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O10" s="202"/>
+      <c r="O10" s="207"/>
       <c r="P10" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -6758,20 +6734,20 @@
         <v>0.09</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="203" t="e">
+      <c r="J14" s="206" t="e">
         <f>CONCATENATE("CapEx ", Z43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K14" s="202"/>
+      <c r="K14" s="207"/>
       <c r="L14" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="203" t="e">
+      <c r="N14" s="206" t="e">
         <f>CONCATENATE("CapEx ", Z43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O14" s="202"/>
+      <c r="O14" s="207"/>
       <c r="P14" s="17">
         <v>0.05</v>
       </c>
@@ -6864,10 +6840,10 @@
     </row>
     <row r="17" spans="1:24" ht="15">
       <c r="A17" s="1"/>
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="202"/>
+      <c r="C17" s="207"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -6982,10 +6958,10 @@
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="206" t="s">
+      <c r="B21" s="210" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="202"/>
+      <c r="C21" s="207"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="19" t="str">
@@ -7282,10 +7258,10 @@
     </row>
     <row r="26" spans="1:24" ht="15">
       <c r="A26" s="1"/>
-      <c r="B26" s="208" t="s">
+      <c r="B26" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="202"/>
+      <c r="C26" s="207"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="24" t="e">
@@ -7515,10 +7491,10 @@
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="206" t="s">
+      <c r="B31" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="202"/>
+      <c r="C31" s="207"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="19" t="str">
@@ -7662,10 +7638,10 @@
     </row>
     <row r="33" spans="1:26" ht="15">
       <c r="A33" s="1"/>
-      <c r="B33" s="208" t="s">
+      <c r="B33" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="202"/>
+      <c r="C33" s="207"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="24" t="e">
@@ -7732,10 +7708,10 @@
     </row>
     <row r="34" spans="1:26" ht="15">
       <c r="A34" s="1"/>
-      <c r="B34" s="208" t="s">
+      <c r="B34" s="209" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="202"/>
+      <c r="C34" s="207"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="24" t="e">
@@ -7814,10 +7790,10 @@
     </row>
     <row r="36" spans="1:26" ht="15">
       <c r="A36" s="1"/>
-      <c r="B36" s="203" t="s">
+      <c r="B36" s="206" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="202"/>
+      <c r="C36" s="207"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="20">
@@ -7884,10 +7860,10 @@
     </row>
     <row r="37" spans="1:26" ht="15">
       <c r="A37" s="1"/>
-      <c r="B37" s="208" t="s">
+      <c r="B37" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="202"/>
+      <c r="C37" s="207"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="24" t="e">
@@ -7981,10 +7957,10 @@
     </row>
     <row r="39" spans="1:26" ht="15">
       <c r="A39" s="1"/>
-      <c r="B39" s="203" t="s">
+      <c r="B39" s="206" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="202"/>
+      <c r="C39" s="207"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="32">
@@ -8044,10 +8020,10 @@
     </row>
     <row r="40" spans="1:26" ht="15">
       <c r="A40" s="1"/>
-      <c r="B40" s="208" t="s">
+      <c r="B40" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="202"/>
+      <c r="C40" s="207"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="24" t="e">
@@ -8107,10 +8083,10 @@
     </row>
     <row r="41" spans="1:26" ht="15">
       <c r="A41" s="1"/>
-      <c r="B41" s="208" t="s">
+      <c r="B41" s="209" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="202"/>
+      <c r="C41" s="207"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="23"/>
@@ -8483,10 +8459,10 @@
     </row>
     <row r="46" spans="1:26" ht="15">
       <c r="A46" s="1"/>
-      <c r="B46" s="203" t="s">
+      <c r="B46" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="202"/>
+      <c r="C46" s="207"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -8501,35 +8477,35 @@
         <f>H9</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R46" s="242" t="e">
+      <c r="R46" s="196" t="e">
         <f t="shared" ref="R46:S46" si="20">Q46-(Q47-R47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S46" s="242" t="e">
+      <c r="S46" s="196" t="e">
         <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T46" s="242" t="e">
+      <c r="T46" s="196" t="e">
         <f t="shared" ref="T46:Y46" si="21">S46-(($S$46-$Z$46)/($Z$43-$S$43))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U46" s="242" t="e">
+      <c r="U46" s="196" t="e">
         <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V46" s="242" t="e">
+      <c r="V46" s="196" t="e">
         <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W46" s="242" t="e">
+      <c r="W46" s="196" t="e">
         <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X46" s="242" t="e">
+      <c r="X46" s="196" t="e">
         <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Y46" s="242" t="e">
+      <c r="Y46" s="196" t="e">
         <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
@@ -8540,11 +8516,11 @@
     </row>
     <row r="47" spans="1:26" ht="15">
       <c r="A47" s="1"/>
-      <c r="B47" s="203" t="s">
+      <c r="B47" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202"/>
+      <c r="C47" s="207"/>
+      <c r="D47" s="207"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -8554,39 +8530,39 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="P47" s="27"/>
-      <c r="Q47" s="242" t="e">
+      <c r="Q47" s="196" t="e">
         <f t="shared" ref="Q47:S47" si="22">Q23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R47" s="242" t="e">
+      <c r="R47" s="196" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S47" s="242" t="e">
+      <c r="S47" s="196" t="e">
         <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T47" s="242" t="e">
+      <c r="T47" s="196" t="e">
         <f t="shared" ref="T47:Y47" si="23">S47-(($S$47-$Z$47)/($Z$43-$S$43))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U47" s="243" t="e">
+      <c r="U47" s="197" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V47" s="243" t="e">
+      <c r="V47" s="197" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W47" s="243" t="e">
+      <c r="W47" s="197" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X47" s="243" t="e">
+      <c r="X47" s="197" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Y47" s="243" t="e">
+      <c r="Y47" s="197" t="e">
         <f t="shared" si="23"/>
         <v>#VALUE!</v>
       </c>
@@ -8597,10 +8573,10 @@
     </row>
     <row r="48" spans="1:26" ht="15">
       <c r="A48" s="1"/>
-      <c r="B48" s="203" t="s">
+      <c r="B48" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="202"/>
+      <c r="C48" s="207"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -8615,35 +8591,35 @@
         <f>P9</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R48" s="242" t="e">
+      <c r="R48" s="196" t="e">
         <f t="shared" ref="R48:S48" si="24">Q48+(R47-Q47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S48" s="242" t="e">
+      <c r="S48" s="196" t="e">
         <f t="shared" si="24"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T48" s="242" t="e">
+      <c r="T48" s="196" t="e">
         <f t="shared" ref="T48:Y48" si="25">S48-(($S$48-$Z$48)/($Z$43-$S$43))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U48" s="243" t="e">
+      <c r="U48" s="197" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V48" s="243" t="e">
+      <c r="V48" s="197" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W48" s="243" t="e">
+      <c r="W48" s="197" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X48" s="243" t="e">
+      <c r="X48" s="197" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Y48" s="243" t="e">
+      <c r="Y48" s="197" t="e">
         <f t="shared" si="25"/>
         <v>#VALUE!</v>
       </c>
@@ -8865,10 +8841,10 @@
     </row>
     <row r="52" spans="1:26" ht="15">
       <c r="A52" s="1"/>
-      <c r="B52" s="203" t="s">
+      <c r="B52" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="202"/>
+      <c r="C52" s="207"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -8883,7 +8859,7 @@
         <f>H11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R52" s="244" t="e">
+      <c r="R52" s="198" t="e">
         <f>Q52+(R53-Q53)</f>
         <v>#DIV/0!</v>
       </c>
@@ -8922,11 +8898,11 @@
     </row>
     <row r="53" spans="1:26" ht="15">
       <c r="A53" s="1"/>
-      <c r="B53" s="203" t="s">
+      <c r="B53" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="202"/>
-      <c r="D53" s="202"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="207"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -8979,10 +8955,10 @@
     </row>
     <row r="54" spans="1:26" ht="15">
       <c r="A54" s="1"/>
-      <c r="B54" s="203" t="s">
+      <c r="B54" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="202"/>
+      <c r="C54" s="207"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -8997,11 +8973,11 @@
         <f>P11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R54" s="243" t="e">
+      <c r="R54" s="197" t="e">
         <f t="shared" ref="R54:S54" si="33">Q54+(R53-Q53)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S54" s="243" t="e">
+      <c r="S54" s="197" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
@@ -9247,10 +9223,10 @@
     </row>
     <row r="58" spans="1:26" ht="15">
       <c r="A58" s="1"/>
-      <c r="B58" s="203" t="s">
+      <c r="B58" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="202"/>
+      <c r="C58" s="207"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -9304,11 +9280,11 @@
     </row>
     <row r="59" spans="1:26" ht="15">
       <c r="A59" s="1"/>
-      <c r="B59" s="203" t="s">
+      <c r="B59" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="202"/>
-      <c r="D59" s="202"/>
+      <c r="C59" s="207"/>
+      <c r="D59" s="207"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -9361,10 +9337,10 @@
     </row>
     <row r="60" spans="1:26" ht="15">
       <c r="A60" s="1"/>
-      <c r="B60" s="203" t="s">
+      <c r="B60" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="202"/>
+      <c r="C60" s="207"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -9720,10 +9696,10 @@
     </row>
     <row r="66" spans="1:28" ht="15">
       <c r="A66" s="1"/>
-      <c r="B66" s="203" t="s">
+      <c r="B66" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="C66" s="202"/>
+      <c r="C66" s="207"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -9780,11 +9756,11 @@
     </row>
     <row r="67" spans="1:28" ht="15">
       <c r="A67" s="1"/>
-      <c r="B67" s="203" t="s">
+      <c r="B67" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="202"/>
-      <c r="D67" s="202"/>
+      <c r="C67" s="207"/>
+      <c r="D67" s="207"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -9840,10 +9816,10 @@
     </row>
     <row r="68" spans="1:28" ht="15">
       <c r="A68" s="1"/>
-      <c r="B68" s="203" t="s">
+      <c r="B68" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="C68" s="202"/>
+      <c r="C68" s="207"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -10117,10 +10093,10 @@
     </row>
     <row r="72" spans="1:28" ht="15">
       <c r="A72" s="1"/>
-      <c r="B72" s="203" t="s">
+      <c r="B72" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="202"/>
+      <c r="C72" s="207"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -10146,27 +10122,27 @@
         <f t="shared" si="56"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T72" s="244" t="e">
+      <c r="T72" s="198" t="e">
         <f t="shared" ref="T72:Y72" si="57">S72-(($S$72-$Z$72)/($Z$43-$S$43))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U72" s="244" t="e">
+      <c r="U72" s="198" t="e">
         <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V72" s="244" t="e">
+      <c r="V72" s="198" t="e">
         <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W72" s="244" t="e">
+      <c r="W72" s="198" t="e">
         <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X72" s="244" t="e">
+      <c r="X72" s="198" t="e">
         <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Y72" s="244" t="e">
+      <c r="Y72" s="198" t="e">
         <f t="shared" si="57"/>
         <v>#VALUE!</v>
       </c>
@@ -10181,11 +10157,11 @@
     </row>
     <row r="73" spans="1:28" ht="15">
       <c r="A73" s="1"/>
-      <c r="B73" s="203" t="s">
+      <c r="B73" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="202"/>
-      <c r="D73" s="202"/>
+      <c r="C73" s="207"/>
+      <c r="D73" s="207"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -10210,27 +10186,27 @@
         <f t="shared" si="58"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T73" s="243" t="e">
+      <c r="T73" s="197" t="e">
         <f t="shared" ref="T73:Y73" si="59">S73-(($S$73-$Z$73)/($Z$43-$S$43))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U73" s="243" t="e">
+      <c r="U73" s="197" t="e">
         <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V73" s="243" t="e">
+      <c r="V73" s="197" t="e">
         <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W73" s="243" t="e">
+      <c r="W73" s="197" t="e">
         <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X73" s="243" t="e">
+      <c r="X73" s="197" t="e">
         <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Y73" s="243" t="e">
+      <c r="Y73" s="197" t="e">
         <f t="shared" si="59"/>
         <v>#VALUE!</v>
       </c>
@@ -10241,10 +10217,10 @@
     </row>
     <row r="74" spans="1:28" ht="15">
       <c r="A74" s="1"/>
-      <c r="B74" s="203" t="s">
+      <c r="B74" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="202"/>
+      <c r="C74" s="207"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -10270,27 +10246,27 @@
         <f t="shared" si="60"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T74" s="243" t="e">
+      <c r="T74" s="197" t="e">
         <f t="shared" ref="T74:Y74" si="61">S74-(($S$74-$Z$74)/($Z$43-$S$43))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U74" s="243" t="e">
+      <c r="U74" s="197" t="e">
         <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V74" s="243" t="e">
+      <c r="V74" s="197" t="e">
         <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W74" s="243" t="e">
+      <c r="W74" s="197" t="e">
         <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X74" s="243" t="e">
+      <c r="X74" s="197" t="e">
         <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Y74" s="243" t="e">
+      <c r="Y74" s="197" t="e">
         <f t="shared" si="61"/>
         <v>#VALUE!</v>
       </c>
@@ -10332,10 +10308,10 @@
     </row>
     <row r="76" spans="1:28" ht="15">
       <c r="A76" s="1"/>
-      <c r="B76" s="203" t="s">
+      <c r="B76" s="206" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="202"/>
+      <c r="C76" s="207"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="32">
@@ -10546,11 +10522,11 @@
     </row>
     <row r="79" spans="1:28" ht="15">
       <c r="A79" s="1"/>
-      <c r="B79" s="209" t="s">
+      <c r="B79" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="C79" s="202"/>
-      <c r="D79" s="202"/>
+      <c r="C79" s="207"/>
+      <c r="D79" s="207"/>
       <c r="E79" s="58"/>
       <c r="F79" s="58"/>
       <c r="G79" s="58"/>
@@ -10606,11 +10582,11 @@
     </row>
     <row r="80" spans="1:28" ht="15">
       <c r="A80" s="1"/>
-      <c r="B80" s="203" t="s">
+      <c r="B80" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="202"/>
-      <c r="D80" s="202"/>
+      <c r="C80" s="207"/>
+      <c r="D80" s="207"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -10662,10 +10638,10 @@
     </row>
     <row r="81" spans="1:26" ht="15">
       <c r="A81" s="1"/>
-      <c r="B81" s="203" t="s">
+      <c r="B81" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="202"/>
+      <c r="C81" s="207"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -10694,11 +10670,11 @@
     </row>
     <row r="82" spans="1:26" ht="15">
       <c r="A82" s="1"/>
-      <c r="B82" s="203" t="s">
+      <c r="B82" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="C82" s="202"/>
-      <c r="D82" s="202"/>
+      <c r="C82" s="207"/>
+      <c r="D82" s="207"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -10726,10 +10702,10 @@
     </row>
     <row r="83" spans="1:26" ht="15">
       <c r="A83" s="1"/>
-      <c r="B83" s="203" t="s">
+      <c r="B83" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="202"/>
+      <c r="C83" s="207"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -10822,10 +10798,10 @@
     </row>
     <row r="86" spans="1:26" ht="15">
       <c r="A86" s="1"/>
-      <c r="B86" s="203" t="s">
+      <c r="B86" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="202"/>
+      <c r="C86" s="207"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -10854,10 +10830,10 @@
     </row>
     <row r="87" spans="1:26" ht="15">
       <c r="A87" s="1"/>
-      <c r="B87" s="203" t="s">
+      <c r="B87" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="C87" s="202"/>
+      <c r="C87" s="207"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -10886,10 +10862,10 @@
     </row>
     <row r="88" spans="1:26" ht="15">
       <c r="A88" s="1"/>
-      <c r="B88" s="203" t="s">
+      <c r="B88" s="206" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="202"/>
+      <c r="C88" s="207"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -10944,11 +10920,39 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B66:C66"/>
@@ -10961,58 +10965,21 @@
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
   </mergeCells>
   <conditionalFormatting sqref="F76:P76">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
-      <formula>"0%"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
-      <formula>"10%"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThanOrEqual">
-      <formula>"0%"</formula>
-    </cfRule>
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="-0.2"/>
@@ -11023,12 +10990,21 @@
         <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+      <formula>"10%"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="lessThanOrEqual">
+      <formula>"0%"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
+      <formula>"0%"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21:T22 F22:S22 F25:T25 F28:P28 T31 F32:P32 F36:P36 F39:P39">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11126,29 +11102,29 @@
     </row>
     <row r="5" spans="1:26" ht="15">
       <c r="A5" s="1"/>
-      <c r="B5" s="201" t="s">
+      <c r="B5" s="211" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="207"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="207"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15">
       <c r="A6" s="1"/>
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="211" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="L6" s="3" t="s">
@@ -11224,10 +11200,10 @@
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="1"/>
-      <c r="B10" s="203" t="s">
+      <c r="B10" s="206" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="202"/>
+      <c r="C10" s="207"/>
       <c r="D10" s="70" t="e">
         <f>(IS!M19/BS!M50)*(1-D11)</f>
         <v>#DIV/0!</v>
@@ -11264,10 +11240,10 @@
     </row>
     <row r="13" spans="1:26" ht="15">
       <c r="A13" s="1"/>
-      <c r="B13" s="203" t="s">
+      <c r="B13" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="202"/>
+      <c r="C13" s="207"/>
       <c r="D13" s="63">
         <f>INFO!C16/1000000</f>
         <v>0</v>
@@ -11298,10 +11274,10 @@
     </row>
     <row r="15" spans="1:26" ht="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="203" t="s">
+      <c r="B15" s="206" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="202"/>
+      <c r="C15" s="207"/>
       <c r="D15" s="67">
         <f>D16+(D17*D18)</f>
         <v>0</v>
@@ -11318,10 +11294,10 @@
     </row>
     <row r="16" spans="1:26" ht="15">
       <c r="A16" s="1"/>
-      <c r="B16" s="203" t="s">
+      <c r="B16" s="206" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="202"/>
+      <c r="C16" s="207"/>
       <c r="D16" s="70">
         <f>INFO!C20 / 100</f>
         <v>0</v>
@@ -11368,10 +11344,10 @@
     </row>
     <row r="18" spans="1:14" ht="15">
       <c r="A18" s="1"/>
-      <c r="B18" s="203" t="s">
+      <c r="B18" s="206" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="202"/>
+      <c r="C18" s="207"/>
       <c r="D18" s="71">
         <f>D16*D17</f>
         <v>0</v>
@@ -11393,10 +11369,10 @@
     </row>
     <row r="20" spans="1:14" ht="15">
       <c r="A20" s="1"/>
-      <c r="B20" s="203" t="s">
+      <c r="B20" s="206" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="202"/>
+      <c r="C20" s="207"/>
       <c r="D20" s="63">
         <f>D13+D8</f>
         <v>0</v>
@@ -11493,13 +11469,13 @@
   <sheetData>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="8"/>
-      <c r="B2" s="204" t="e">
+      <c r="B2" s="212" t="e">
         <f>CONCATENATE(#REF!," Revenue Breakdown")</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -11521,10 +11497,10 @@
       <c r="X2" s="8"/>
     </row>
     <row r="4" spans="1:24" ht="15">
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="210" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="202"/>
+      <c r="C4" s="207"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="19" t="e">
@@ -12662,10 +12638,10 @@
       </c>
     </row>
     <row r="57" spans="2:21" ht="15">
-      <c r="B57" s="206" t="s">
+      <c r="B57" s="210" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="202"/>
+      <c r="C57" s="207"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="19" t="e">
@@ -13288,10 +13264,10 @@
     <mergeCell ref="B57:C57"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:P5 F58:L58">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13306,8 +13282,8 @@
   </sheetPr>
   <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="AK53" sqref="AK53"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -13352,12 +13328,12 @@
     </row>
     <row r="2" spans="1:25" ht="24">
       <c r="A2" s="93"/>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="220" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
       <c r="F2" s="94"/>
       <c r="G2" s="94"/>
       <c r="H2" s="94"/>
@@ -13394,10 +13370,10 @@
     </row>
     <row r="4" spans="1:25" ht="15">
       <c r="A4" s="1"/>
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="207"/>
+      <c r="C4" s="214"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -13429,8 +13405,8 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="202"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="207"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -13450,26 +13426,26 @@
     </row>
     <row r="6" spans="1:25" ht="15">
       <c r="A6" s="1"/>
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="206" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="202"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="218"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="218"/>
-      <c r="I6" s="219"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="224"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="203" t="e">
+      <c r="K6" s="206" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L6" s="202"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202"/>
-      <c r="O6" s="202"/>
-      <c r="P6" s="202"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
       <c r="Q6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -13502,26 +13478,26 @@
       <c r="A8" s="93"/>
       <c r="B8" s="173"/>
       <c r="C8" s="173"/>
-      <c r="D8" s="210" t="s">
+      <c r="D8" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="216"/>
       <c r="J8" s="173"/>
-      <c r="K8" s="210" t="s">
+      <c r="K8" s="215" t="s">
         <v>125</v>
       </c>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
+      <c r="L8" s="216"/>
+      <c r="M8" s="216"/>
       <c r="N8" s="173"/>
-      <c r="O8" s="210" t="s">
+      <c r="O8" s="215" t="s">
         <v>126</v>
       </c>
-      <c r="P8" s="211"/>
-      <c r="Q8" s="211"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="216"/>
       <c r="R8" s="93"/>
     </row>
     <row r="9" spans="1:25" ht="16">
@@ -13594,28 +13570,40 @@
     </row>
     <row r="11" spans="1:25" ht="16">
       <c r="A11" s="93"/>
-      <c r="B11" s="93">
-        <v>0</v>
-      </c>
+      <c r="B11" s="93"/>
       <c r="C11" s="97">
         <v>0</v>
       </c>
-      <c r="D11" s="98"/>
-      <c r="E11" s="99"/>
+      <c r="D11" s="98">
+        <v>0</v>
+      </c>
+      <c r="E11" s="99">
+        <v>0</v>
+      </c>
       <c r="F11" s="100">
         <f>D11*E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
+      <c r="G11" s="99">
+        <v>0</v>
+      </c>
+      <c r="H11" s="99">
+        <v>0</v>
+      </c>
       <c r="I11" s="100">
         <f>F11+H11-G11</f>
         <v>0</v>
       </c>
       <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
+      <c r="K11" s="99">
+        <v>0</v>
+      </c>
+      <c r="L11" s="99">
+        <v>0</v>
+      </c>
+      <c r="M11" s="99">
+        <v>0</v>
+      </c>
       <c r="N11" s="101"/>
       <c r="O11" s="102" t="e">
         <f>I11/K11</f>
@@ -13650,9 +13638,7 @@
     </row>
     <row r="13" spans="1:25" ht="16">
       <c r="A13" s="93"/>
-      <c r="B13" s="93">
-        <v>0</v>
-      </c>
+      <c r="B13" s="93"/>
       <c r="C13" s="97">
         <v>0</v>
       </c>
@@ -13694,13 +13680,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="93"/>
-      <c r="O13" s="115" t="e">
+      <c r="O13" s="115">
         <f t="shared" ref="O13:O32" si="8">IF(ISBLANK(B13),,I13/K13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P13" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P13" s="115">
         <f t="shared" ref="P13:P32" si="9">IF(ISBLANK(B13),,I13/L13)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="115">
         <f t="shared" ref="Q13:Q22" si="10">IF(ISBLANK(B13),,T43)</f>
@@ -13710,9 +13696,7 @@
     </row>
     <row r="14" spans="1:25" ht="16">
       <c r="A14" s="93"/>
-      <c r="B14" s="93">
-        <v>0</v>
-      </c>
+      <c r="B14" s="93"/>
       <c r="C14" s="97">
         <v>0</v>
       </c>
@@ -13754,13 +13738,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="93"/>
-      <c r="O14" s="115" t="e">
+      <c r="O14" s="115">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P14" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P14" s="115">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="115">
         <f t="shared" si="10"/>
@@ -13770,9 +13754,7 @@
     </row>
     <row r="15" spans="1:25" ht="16">
       <c r="A15" s="93"/>
-      <c r="B15" s="93">
-        <v>0</v>
-      </c>
+      <c r="B15" s="93"/>
       <c r="C15" s="97">
         <v>0</v>
       </c>
@@ -13814,13 +13796,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="93"/>
-      <c r="O15" s="115" t="e">
+      <c r="O15" s="115">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P15" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P15" s="115">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="115">
         <f t="shared" si="10"/>
@@ -13830,9 +13812,7 @@
     </row>
     <row r="16" spans="1:25" ht="16">
       <c r="A16" s="93"/>
-      <c r="B16" s="93">
-        <v>0</v>
-      </c>
+      <c r="B16" s="93"/>
       <c r="C16" s="97">
         <v>0</v>
       </c>
@@ -13874,13 +13854,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="93"/>
-      <c r="O16" s="115" t="e">
+      <c r="O16" s="115">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P16" s="115">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="115">
         <f t="shared" si="10"/>
@@ -13890,9 +13870,7 @@
     </row>
     <row r="17" spans="1:18" ht="16">
       <c r="A17" s="93"/>
-      <c r="B17" s="93">
-        <v>0</v>
-      </c>
+      <c r="B17" s="93"/>
       <c r="C17" s="97">
         <v>0</v>
       </c>
@@ -13934,13 +13912,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="93"/>
-      <c r="O17" s="115" t="e">
+      <c r="O17" s="115">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P17" s="115">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="115">
         <f t="shared" si="10"/>
@@ -13950,9 +13928,7 @@
     </row>
     <row r="18" spans="1:18" ht="16">
       <c r="A18" s="93"/>
-      <c r="B18" s="93">
-        <v>0</v>
-      </c>
+      <c r="B18" s="93"/>
       <c r="C18" s="97">
         <v>0</v>
       </c>
@@ -13994,13 +13970,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="93"/>
-      <c r="O18" s="115" t="e">
+      <c r="O18" s="115">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P18" s="115">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="115">
         <f t="shared" si="10"/>
@@ -14010,9 +13986,7 @@
     </row>
     <row r="19" spans="1:18" ht="16">
       <c r="A19" s="93"/>
-      <c r="B19" s="93">
-        <v>0</v>
-      </c>
+      <c r="B19" s="93"/>
       <c r="C19" s="97">
         <v>0</v>
       </c>
@@ -14054,13 +14028,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="93"/>
-      <c r="O19" s="115" t="e">
+      <c r="O19" s="115">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P19" s="115">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="115">
         <f t="shared" si="10"/>
@@ -14070,9 +14044,7 @@
     </row>
     <row r="20" spans="1:18" ht="16">
       <c r="A20" s="93"/>
-      <c r="B20" s="93">
-        <v>0</v>
-      </c>
+      <c r="B20" s="93"/>
       <c r="C20" s="97">
         <v>0</v>
       </c>
@@ -14114,13 +14086,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="93"/>
-      <c r="O20" s="115" t="e">
+      <c r="O20" s="115">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P20" s="115">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="115">
         <f t="shared" si="10"/>
@@ -14130,9 +14102,7 @@
     </row>
     <row r="21" spans="1:18" ht="16">
       <c r="A21" s="93"/>
-      <c r="B21" s="93">
-        <v>0</v>
-      </c>
+      <c r="B21" s="93"/>
       <c r="C21" s="97">
         <v>0</v>
       </c>
@@ -14174,13 +14144,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="93"/>
-      <c r="O21" s="115" t="e">
+      <c r="O21" s="115">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P21" s="115">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="115">
         <f t="shared" si="10"/>
@@ -14190,9 +14160,7 @@
     </row>
     <row r="22" spans="1:18" ht="16">
       <c r="A22" s="93"/>
-      <c r="B22" s="93">
-        <v>0</v>
-      </c>
+      <c r="B22" s="93"/>
       <c r="C22" s="97">
         <f>B52</f>
         <v>0</v>
@@ -14235,13 +14203,13 @@
         <v>0</v>
       </c>
       <c r="N22" s="93"/>
-      <c r="O22" s="115" t="e">
+      <c r="O22" s="115">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P22" s="115">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="115">
         <f t="shared" si="10"/>
@@ -14251,10 +14219,7 @@
     </row>
     <row r="23" spans="1:18" ht="16">
       <c r="A23" s="93"/>
-      <c r="B23" s="93">
-        <f>C53</f>
-        <v>0</v>
-      </c>
+      <c r="B23" s="93"/>
       <c r="C23" s="97">
         <f>B53</f>
         <v>0</v>
@@ -14297,13 +14262,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="93"/>
-      <c r="O23" s="115" t="e">
+      <c r="O23" s="115">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P23" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P23" s="115">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="115">
         <f>IF(ISBLANK(B23),,T53)</f>
@@ -14313,559 +14278,532 @@
     </row>
     <row r="24" spans="1:18" ht="16">
       <c r="A24" s="93"/>
-      <c r="B24" s="93" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C24" s="97" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D24" s="110" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E24" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F24" s="112" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G24" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H24" s="113" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I24" s="114" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
+      <c r="B24" s="93"/>
+      <c r="C24" s="97">
+        <f t="shared" ref="C24:C32" si="11">B54</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="110">
+        <f t="shared" ref="D24:D32" si="12">D54</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="111">
+        <f t="shared" ref="E24:E32" si="13">IF(ISBLANK(V54),,V54/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="112">
+        <f t="shared" ref="F24:F32" si="14">IF(OR(ISBLANK(D24),ISBLANK(E24)),,D24*E24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="111">
+        <f t="shared" ref="G24:H24" si="15">IF(ISBLANK(AD54),,AD54/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="113">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="114">
+        <f t="shared" ref="I24:I32" si="16">IF(ISBLANK(B24),,F24+H24-G24)</f>
+        <v>0</v>
       </c>
       <c r="J24" s="111"/>
-      <c r="K24" s="111" t="e">
-        <f>IF(ISBLANK(B24),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L24" s="111" t="e">
-        <f>IF(ISBLANK(B24),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M24" s="111" t="e">
-        <f>IF(ISBLANK(B24),,#REF!/1000000)</f>
-        <v>#REF!</v>
+      <c r="K24" s="111">
+        <f t="shared" ref="K24:K32" si="17">IF(ISBLANK(B24),,AA54/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="111">
+        <f t="shared" ref="L24:L32" si="18">IF(ISBLANK(B24),,AB54/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="111">
+        <f t="shared" ref="M24:M32" si="19">IF(ISBLANK(B24),,AC54/1000000)</f>
+        <v>0</v>
       </c>
       <c r="N24" s="93"/>
-      <c r="O24" s="115" t="e">
+      <c r="O24" s="115">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P24" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P24" s="115">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q24" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="115">
         <f>IF(ISBLANK(B24),,#REF!)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R24" s="93"/>
     </row>
     <row r="25" spans="1:18" ht="16">
       <c r="A25" s="93"/>
-      <c r="B25" s="93" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C25" s="97" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D25" s="110" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E25" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F25" s="112" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G25" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" s="113" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I25" s="114" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
+      <c r="B25" s="93"/>
+      <c r="C25" s="97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="110">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="111">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="112">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="111">
+        <f t="shared" ref="G25:H25" si="20">IF(ISBLANK(AD55),,AD55/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="113">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="114">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="J25" s="111"/>
-      <c r="K25" s="111" t="e">
-        <f>IF(ISBLANK(B25),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L25" s="111" t="e">
-        <f>IF(ISBLANK(B25),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M25" s="111" t="e">
-        <f>IF(ISBLANK(B25),,#REF!/1000000)</f>
-        <v>#REF!</v>
+      <c r="K25" s="111">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="111">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="111">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="N25" s="93"/>
-      <c r="O25" s="115" t="e">
+      <c r="O25" s="115">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P25" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P25" s="115">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q25" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="115">
         <f>IF(ISBLANK(B25),,#REF!)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R25" s="93"/>
     </row>
     <row r="26" spans="1:18" ht="16">
       <c r="A26" s="93"/>
-      <c r="B26" s="93" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C26" s="97" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D26" s="110" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E26" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F26" s="112" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G26" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" s="113" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I26" s="114" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
+      <c r="B26" s="93"/>
+      <c r="C26" s="97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="110">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="111">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="112">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="111">
+        <f t="shared" ref="G26:H26" si="21">IF(ISBLANK(AD56),,AD56/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="113">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="114">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="J26" s="111"/>
-      <c r="K26" s="111" t="e">
-        <f>IF(ISBLANK(B26),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L26" s="111" t="e">
-        <f>IF(ISBLANK(B26),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M26" s="111" t="e">
-        <f>IF(ISBLANK(B26),,#REF!/1000000)</f>
-        <v>#REF!</v>
+      <c r="K26" s="111">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="111">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="111">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="N26" s="93"/>
-      <c r="O26" s="115" t="e">
+      <c r="O26" s="115">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P26" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P26" s="115">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q26" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="115">
         <f>IF(ISBLANK(B26),,#REF!)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R26" s="93"/>
     </row>
     <row r="27" spans="1:18" ht="16">
       <c r="A27" s="93"/>
-      <c r="B27" s="93" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C27" s="97" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D27" s="110" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E27" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F27" s="112" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G27" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" s="113" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I27" s="114" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
+      <c r="B27" s="93"/>
+      <c r="C27" s="97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="110">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="111">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="112">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="111">
+        <f t="shared" ref="G27:H27" si="22">IF(ISBLANK(AD57),,AD57/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="113">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="114">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="J27" s="111"/>
-      <c r="K27" s="111" t="e">
-        <f>IF(ISBLANK(B27),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L27" s="111" t="e">
-        <f>IF(ISBLANK(B27),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M27" s="111" t="e">
-        <f>IF(ISBLANK(B27),,#REF!/1000000)</f>
-        <v>#REF!</v>
+      <c r="K27" s="111">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="111">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="111">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="N27" s="93"/>
-      <c r="O27" s="115" t="e">
+      <c r="O27" s="115">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P27" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P27" s="115">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q27" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="115">
         <f>IF(ISBLANK(B27),,#REF!)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R27" s="93"/>
     </row>
     <row r="28" spans="1:18" ht="16">
       <c r="A28" s="93"/>
-      <c r="B28" s="93" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C28" s="97" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="110" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E28" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F28" s="112" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G28" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="113" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I28" s="114" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
+      <c r="B28" s="93"/>
+      <c r="C28" s="97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="110">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="111">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="112">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="111">
+        <f t="shared" ref="G28:H28" si="23">IF(ISBLANK(AD58),,AD58/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="113">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="114">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="J28" s="111"/>
-      <c r="K28" s="111" t="e">
-        <f>IF(ISBLANK(B28),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L28" s="111" t="e">
-        <f>IF(ISBLANK(B28),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M28" s="111" t="e">
-        <f>IF(ISBLANK(B28),,#REF!/1000000)</f>
-        <v>#REF!</v>
+      <c r="K28" s="111">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="111">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="111">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="N28" s="93"/>
-      <c r="O28" s="115" t="e">
+      <c r="O28" s="115">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P28" s="115">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q28" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="115">
         <f>IF(ISBLANK(B28),,#REF!)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R28" s="93"/>
     </row>
     <row r="29" spans="1:18" ht="16">
       <c r="A29" s="93"/>
-      <c r="B29" s="93" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C29" s="97" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D29" s="110" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E29" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F29" s="112" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G29" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" s="113" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I29" s="114" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
+      <c r="B29" s="93"/>
+      <c r="C29" s="97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="110">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="111">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="112">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="111">
+        <f t="shared" ref="G29:H29" si="24">IF(ISBLANK(AD59),,AD59/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="113">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="114">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="J29" s="111"/>
-      <c r="K29" s="111" t="e">
-        <f>IF(ISBLANK(B29),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L29" s="111" t="e">
-        <f>IF(ISBLANK(B29),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M29" s="111" t="e">
-        <f>IF(ISBLANK(B29),,#REF!/1000000)</f>
-        <v>#REF!</v>
+      <c r="K29" s="111">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="111">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="111">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="N29" s="93"/>
-      <c r="O29" s="115" t="e">
+      <c r="O29" s="115">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P29" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P29" s="115">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q29" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="115">
         <f>IF(ISBLANK(B29),,#REF!)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R29" s="93"/>
     </row>
     <row r="30" spans="1:18" ht="16">
       <c r="A30" s="93"/>
-      <c r="B30" s="93" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C30" s="97" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D30" s="110" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E30" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F30" s="112" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G30" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H30" s="113" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I30" s="114" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
+      <c r="B30" s="93"/>
+      <c r="C30" s="97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="110">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="111">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="112">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="111">
+        <f t="shared" ref="G30:H30" si="25">IF(ISBLANK(AD60),,AD60/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="113">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="114">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="J30" s="111"/>
-      <c r="K30" s="111" t="e">
-        <f>IF(ISBLANK(B30),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L30" s="111" t="e">
-        <f>IF(ISBLANK(B30),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M30" s="111" t="e">
-        <f>IF(ISBLANK(B30),,#REF!/1000000)</f>
-        <v>#REF!</v>
+      <c r="K30" s="111">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="111">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="111">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="N30" s="93"/>
-      <c r="O30" s="115" t="e">
+      <c r="O30" s="115">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P30" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P30" s="115">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q30" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="115">
         <f>IF(ISBLANK(B30),,#REF!)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R30" s="93"/>
     </row>
     <row r="31" spans="1:18" ht="16">
       <c r="A31" s="93"/>
-      <c r="B31" s="93" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C31" s="97" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D31" s="110" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E31" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F31" s="112" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G31" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H31" s="113" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I31" s="114" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
+      <c r="B31" s="93"/>
+      <c r="C31" s="97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="110">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="111">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="112">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="111">
+        <f t="shared" ref="G31:H31" si="26">IF(ISBLANK(AD61),,AD61/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="113">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="114">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="J31" s="111"/>
-      <c r="K31" s="111" t="e">
-        <f>IF(ISBLANK(B31),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L31" s="111" t="e">
-        <f>IF(ISBLANK(B31),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M31" s="111" t="e">
-        <f>IF(ISBLANK(B31),,#REF!/1000000)</f>
-        <v>#REF!</v>
+      <c r="K31" s="111">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="111">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="111">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="N31" s="93"/>
-      <c r="O31" s="115" t="e">
+      <c r="O31" s="115">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P31" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P31" s="115">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q31" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="115">
         <f>IF(ISBLANK(B31),,#REF!)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R31" s="93"/>
     </row>
     <row r="32" spans="1:18" ht="16">
       <c r="A32" s="93"/>
-      <c r="B32" s="93" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C32" s="97" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D32" s="110" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E32" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F32" s="112" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
-      </c>
-      <c r="G32" s="111" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H32" s="113" t="e">
-        <f>IF(ISBLANK(#REF!),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I32" s="114" t="e">
-        <f t="shared" si="4"/>
-        <v>#REF!</v>
+      <c r="B32" s="93"/>
+      <c r="C32" s="97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="110">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="111">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="112">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="111">
+        <f t="shared" ref="G32:H32" si="27">IF(ISBLANK(AD62),,AD62/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="113">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="114">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="J32" s="111"/>
-      <c r="K32" s="111" t="e">
-        <f>IF(ISBLANK(B32),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L32" s="111" t="e">
-        <f>IF(ISBLANK(B32),,#REF!/1000000)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M32" s="111" t="e">
-        <f>IF(ISBLANK(B32),,#REF!/1000000)</f>
-        <v>#REF!</v>
+      <c r="K32" s="111">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="111">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="111">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="N32" s="93"/>
-      <c r="O32" s="115" t="e">
+      <c r="O32" s="115">
         <f t="shared" si="8"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P32" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="P32" s="115">
         <f t="shared" si="9"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q32" s="115" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="115">
         <f>IF(ISBLANK(B32),,#REF!)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R32" s="93"/>
     </row>
@@ -14906,17 +14844,17 @@
       <c r="L34" s="116"/>
       <c r="M34" s="116"/>
       <c r="N34" s="116"/>
-      <c r="O34" s="116" t="e">
-        <f t="shared" ref="O34:Q34" si="11">MAX(O13:O32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P34" s="116" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q34" s="117" t="e">
-        <f t="shared" si="11"/>
-        <v>#REF!</v>
+      <c r="O34" s="116">
+        <f t="shared" ref="O34:Q34" si="28">MAX(O13:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="116">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="117">
+        <f t="shared" si="28"/>
+        <v>0</v>
       </c>
       <c r="R34" s="93"/>
     </row>
@@ -14939,15 +14877,15 @@
       <c r="N35" s="118"/>
       <c r="O35" s="117" t="e">
         <f>PERCENTILE(O13:O32,3)</f>
-        <v>#DIV/0!</v>
+        <v>#NUM!</v>
       </c>
       <c r="P35" s="117" t="e">
         <f>PERCENTILE(P13:P32,3)</f>
-        <v>#DIV/0!</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q35" s="117" t="e">
         <f>PERCENTILE(Q13:Q32,3)</f>
-        <v>#REF!</v>
+        <v>#NUM!</v>
       </c>
       <c r="R35" s="93"/>
     </row>
@@ -14968,17 +14906,17 @@
       <c r="L36" s="118"/>
       <c r="M36" s="118"/>
       <c r="N36" s="118"/>
-      <c r="O36" s="118" t="e">
-        <f t="shared" ref="O36:Q36" si="12">AVERAGE(O13:O32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P36" s="118" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q36" s="119" t="e">
-        <f t="shared" si="12"/>
-        <v>#REF!</v>
+      <c r="O36" s="118">
+        <f t="shared" ref="O36:Q36" si="29">AVERAGE(O13:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="118">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="119">
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="R36" s="93"/>
     </row>
@@ -14999,17 +14937,17 @@
       <c r="L37" s="118"/>
       <c r="M37" s="118"/>
       <c r="N37" s="118"/>
-      <c r="O37" s="118" t="e">
-        <f t="shared" ref="O37:Q37" si="13">MEDIAN(O13:O32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P37" s="118" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q37" s="119" t="e">
-        <f t="shared" si="13"/>
-        <v>#REF!</v>
+      <c r="O37" s="118">
+        <f t="shared" ref="O37:Q37" si="30">MEDIAN(O13:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="118">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="119">
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
       <c r="R37" s="93"/>
     </row>
@@ -15030,17 +14968,17 @@
       <c r="L38" s="118"/>
       <c r="M38" s="118"/>
       <c r="N38" s="118"/>
-      <c r="O38" s="117" t="e">
+      <c r="O38" s="117">
         <f>PERCENTILE(O13:O32,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P38" s="117" t="e">
+        <v>0</v>
+      </c>
+      <c r="P38" s="117">
         <f>PERCENTILE(P13:P32,1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q38" s="117" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="117">
         <f>PERCENTILE(Q13:Q32,1)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R38" s="93"/>
     </row>
@@ -15061,17 +14999,17 @@
       <c r="L39" s="116"/>
       <c r="M39" s="116"/>
       <c r="N39" s="116"/>
-      <c r="O39" s="116" t="e">
-        <f t="shared" ref="O39:Q39" si="14">MIN(O13:O32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P39" s="116" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q39" s="117" t="e">
-        <f t="shared" si="14"/>
-        <v>#REF!</v>
+      <c r="O39" s="116">
+        <f t="shared" ref="O39:Q39" si="31">MIN(O13:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="116">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="117">
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="R39" s="93"/>
     </row>
@@ -15097,11 +15035,11 @@
     </row>
     <row r="41" spans="1:18" ht="16">
       <c r="A41" s="93"/>
-      <c r="B41" s="220" t="str">
+      <c r="B41" s="225" t="str">
         <f>(B11&amp;" Valuation")</f>
-        <v>0 Valuation</v>
-      </c>
-      <c r="C41" s="207"/>
+        <v xml:space="preserve"> Valuation</v>
+      </c>
+      <c r="C41" s="214"/>
       <c r="D41" s="175"/>
       <c r="E41" s="175"/>
       <c r="F41" s="175"/>
@@ -15126,10 +15064,10 @@
     </row>
     <row r="42" spans="1:18" ht="16">
       <c r="A42" s="93"/>
-      <c r="B42" s="212" t="s">
+      <c r="B42" s="217" t="s">
         <v>143</v>
       </c>
-      <c r="C42" s="202"/>
+      <c r="C42" s="207"/>
       <c r="D42" s="93"/>
       <c r="E42" s="93"/>
       <c r="F42" s="93"/>
@@ -15141,17 +15079,17 @@
       <c r="L42" s="93"/>
       <c r="M42" s="93"/>
       <c r="N42" s="93"/>
-      <c r="O42" s="120" t="e">
-        <f t="shared" ref="O42:P42" si="15">O37*K11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P42" s="120" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q42" s="120" t="e">
+      <c r="O42" s="120">
+        <f t="shared" ref="O42:P42" si="32">O37*K11</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="120">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="120">
         <f>Q43+Q44</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R42" s="93"/>
     </row>
@@ -15173,25 +15111,25 @@
       <c r="M43" s="93"/>
       <c r="N43" s="93"/>
       <c r="O43" s="120">
-        <f t="shared" ref="O43:Q43" si="16">$H$11</f>
+        <f t="shared" ref="O43:Q43" si="33">$H$11</f>
         <v>0</v>
       </c>
       <c r="P43" s="120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q43" s="120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R43" s="93"/>
     </row>
     <row r="44" spans="1:18" ht="16">
       <c r="A44" s="93"/>
-      <c r="B44" s="212" t="s">
+      <c r="B44" s="217" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="202"/>
+      <c r="C44" s="207"/>
       <c r="D44" s="93"/>
       <c r="E44" s="93"/>
       <c r="F44" s="93"/>
@@ -15203,26 +15141,26 @@
       <c r="L44" s="93"/>
       <c r="M44" s="93"/>
       <c r="N44" s="93"/>
-      <c r="O44" s="120" t="e">
-        <f t="shared" ref="O44:P44" si="17">O42-O43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P44" s="120" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q44" s="120" t="e">
+      <c r="O44" s="120">
+        <f t="shared" ref="O44:P44" si="34">O42-O43</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="120">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="120">
         <f>Q37*M11</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="R44" s="93"/>
     </row>
     <row r="45" spans="1:18" ht="16">
       <c r="A45" s="93"/>
-      <c r="B45" s="212" t="s">
+      <c r="B45" s="217" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="202"/>
+      <c r="C45" s="207"/>
       <c r="D45" s="93"/>
       <c r="E45" s="93"/>
       <c r="F45" s="93"/>
@@ -15235,25 +15173,25 @@
       <c r="M45" s="93"/>
       <c r="N45" s="93"/>
       <c r="O45" s="120">
-        <f t="shared" ref="O45:Q45" si="18">$E$11</f>
+        <f t="shared" ref="O45:Q45" si="35">$E$11</f>
         <v>0</v>
       </c>
       <c r="P45" s="120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q45" s="120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R45" s="93"/>
     </row>
     <row r="46" spans="1:18" ht="16">
       <c r="A46" s="93"/>
-      <c r="B46" s="213" t="s">
+      <c r="B46" s="218" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="214"/>
+      <c r="C46" s="219"/>
       <c r="D46" s="122"/>
       <c r="E46" s="122"/>
       <c r="F46" s="122"/>
@@ -15266,16 +15204,16 @@
       <c r="M46" s="122"/>
       <c r="N46" s="122"/>
       <c r="O46" s="124" t="e">
-        <f t="shared" ref="O46:Q46" si="19">O44/O45</f>
+        <f t="shared" ref="O46:Q46" si="36">O44/O45</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P46" s="124" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q46" s="124" t="e">
-        <f t="shared" si="19"/>
-        <v>#REF!</v>
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="R46" s="93"/>
     </row>
@@ -15479,12 +15417,12 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B2" s="204" t="e">
+      <c r="B2" s="212" t="e">
         <f>CONCATENATE(#REF!," EBITDA Multiple")</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -15538,10 +15476,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="203" t="s">
+      <c r="E4" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="202"/>
+      <c r="F4" s="207"/>
       <c r="G4" s="11">
         <f>Z84</f>
         <v>0</v>
@@ -15573,22 +15511,22 @@
       </c>
       <c r="C5" s="13">
         <f ca="1">TODAY()</f>
-        <v>45336</v>
+        <v>45339</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="203" t="s">
+      <c r="E5" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="202"/>
+      <c r="F5" s="207"/>
       <c r="G5" s="14" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="203" t="s">
+      <c r="I5" s="206" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="202"/>
+      <c r="J5" s="207"/>
       <c r="K5" s="15" t="e">
         <f>U84/G5-1</f>
         <v>#REF!</v>
@@ -15634,10 +15572,10 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="2:23" ht="15">
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="202"/>
+      <c r="C7" s="207"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -15666,10 +15604,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="201" t="s">
+      <c r="F8" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="202"/>
+      <c r="G8" s="207"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="10" t="s">
@@ -15678,10 +15616,10 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="201" t="s">
+      <c r="N8" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="202"/>
+      <c r="O8" s="207"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -15692,19 +15630,19 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="2:23" ht="15">
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="202"/>
+      <c r="C9" s="207"/>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="203" t="e">
+      <c r="F9" s="206" t="e">
         <f>CONCATENATE("Revenue ", Q39)</f>
         <v>#REF!</v>
       </c>
-      <c r="G9" s="202"/>
+      <c r="G9" s="207"/>
       <c r="H9" s="2">
         <f>Q43-1%</f>
         <v>-0.01</v>
@@ -15714,11 +15652,11 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="203" t="e">
+      <c r="N9" s="206" t="e">
         <f>CONCATENATE("Revenue ", Q39)</f>
         <v>#REF!</v>
       </c>
-      <c r="O9" s="202"/>
+      <c r="O9" s="207"/>
       <c r="P9" s="2">
         <f>Q43+1%</f>
         <v>0.01</v>
@@ -15731,37 +15669,37 @@
       <c r="W9" s="1"/>
     </row>
     <row r="10" spans="2:23" ht="15">
-      <c r="B10" s="203" t="s">
+      <c r="B10" s="206" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="202"/>
+      <c r="C10" s="207"/>
       <c r="D10" s="16">
         <v>2</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="203" t="e">
+      <c r="F10" s="206" t="e">
         <f>CONCATENATE("Revenue ", Z39)</f>
         <v>#REF!</v>
       </c>
-      <c r="G10" s="202"/>
+      <c r="G10" s="207"/>
       <c r="H10" s="17">
         <v>0.03</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="203" t="e">
+      <c r="J10" s="206" t="e">
         <f>CONCATENATE("Revenue ", Z39)</f>
         <v>#REF!</v>
       </c>
-      <c r="K10" s="202"/>
+      <c r="K10" s="207"/>
       <c r="L10" s="18">
         <v>0.05</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="203" t="e">
+      <c r="N10" s="206" t="e">
         <f>CONCATENATE("Revenue ", Z39)</f>
         <v>#REF!</v>
       </c>
-      <c r="O10" s="202"/>
+      <c r="O10" s="207"/>
       <c r="P10" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -15904,20 +15842,20 @@
         <v>0.09</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="203" t="e">
+      <c r="J14" s="206" t="e">
         <f>CONCATENATE("CapEx ", Z39)</f>
         <v>#REF!</v>
       </c>
-      <c r="K14" s="202"/>
+      <c r="K14" s="207"/>
       <c r="L14" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="203" t="e">
+      <c r="N14" s="206" t="e">
         <f>CONCATENATE("CapEx ", Z39)</f>
         <v>#REF!</v>
       </c>
-      <c r="O14" s="202"/>
+      <c r="O14" s="207"/>
       <c r="P14" s="17">
         <v>0.05</v>
       </c>
@@ -16004,10 +15942,10 @@
       <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15">
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="211" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="202"/>
+      <c r="C17" s="207"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -16115,10 +16053,10 @@
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="206" t="s">
+      <c r="B21" s="210" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="202"/>
+      <c r="C21" s="207"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="19" t="e">
@@ -16410,10 +16348,10 @@
       <c r="W25" s="22"/>
     </row>
     <row r="26" spans="1:26" ht="15">
-      <c r="B26" s="208" t="s">
+      <c r="B26" s="209" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="202"/>
+      <c r="C26" s="207"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="24" t="e">
@@ -16753,10 +16691,10 @@
     </row>
     <row r="31" spans="1:26" ht="15">
       <c r="A31" s="1"/>
-      <c r="B31" s="203" t="s">
+      <c r="B31" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="202"/>
+      <c r="C31" s="207"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -16810,11 +16748,11 @@
     </row>
     <row r="32" spans="1:26" ht="15">
       <c r="A32" s="1"/>
-      <c r="B32" s="203" t="s">
+      <c r="B32" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="202"/>
-      <c r="D32" s="202"/>
+      <c r="C32" s="207"/>
+      <c r="D32" s="207"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -16867,10 +16805,10 @@
     </row>
     <row r="33" spans="1:26" ht="15">
       <c r="A33" s="1"/>
-      <c r="B33" s="203" t="s">
+      <c r="B33" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="202"/>
+      <c r="C33" s="207"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -17135,10 +17073,10 @@
     </row>
     <row r="37" spans="1:26" ht="15">
       <c r="A37" s="1"/>
-      <c r="B37" s="203" t="s">
+      <c r="B37" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="202"/>
+      <c r="C37" s="207"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -17192,11 +17130,11 @@
     </row>
     <row r="38" spans="1:26" ht="15">
       <c r="A38" s="1"/>
-      <c r="B38" s="203" t="s">
+      <c r="B38" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="202"/>
-      <c r="D38" s="202"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="207"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -17249,10 +17187,10 @@
     </row>
     <row r="39" spans="1:26" ht="15">
       <c r="A39" s="1"/>
-      <c r="B39" s="203" t="s">
+      <c r="B39" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="202"/>
+      <c r="C39" s="207"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -17331,17 +17269,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:D32"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="B2:D2"/>
@@ -17356,23 +17283,34 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>"10%"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThanOrEqual">
       <formula>"0%"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>"0%"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21:T22 F22:S22 F25:T25">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17386,7 +17324,7 @@
   <dimension ref="B2:M47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -17397,7 +17335,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="226" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="145"/>
@@ -17413,7 +17351,7 @@
       <c r="M2" s="146"/>
     </row>
     <row r="3" spans="2:13" ht="14">
-      <c r="B3" s="222"/>
+      <c r="B3" s="227"/>
       <c r="C3" s="147"/>
       <c r="D3" s="148"/>
       <c r="E3" s="148"/>
@@ -18179,7 +18117,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="14">
-      <c r="B2" s="223" t="s">
+      <c r="B2" s="228" t="s">
         <v>182</v>
       </c>
       <c r="C2" s="159"/>
@@ -18195,7 +18133,7 @@
       <c r="M2" s="160"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="224"/>
+      <c r="B3" s="229"/>
       <c r="C3" s="161"/>
       <c r="D3" s="162"/>
       <c r="E3" s="162"/>
@@ -18993,7 +18931,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="226" t="s">
         <v>215</v>
       </c>
       <c r="C2" s="145"/>
@@ -19009,7 +18947,7 @@
       <c r="M2" s="146"/>
     </row>
     <row r="3" spans="2:13" ht="14">
-      <c r="B3" s="222"/>
+      <c r="B3" s="227"/>
       <c r="C3" s="147"/>
       <c r="D3" s="148"/>
       <c r="E3" s="148"/>
